--- a/input-files/vacation scheduling.xlsx
+++ b/input-files/vacation scheduling.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\stefan\dev\call-schedule\input-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C9D8D0-5FA6-4940-8510-EEBC5AA0E2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B21CF2-4C96-4B2F-943E-693BC84B8339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17325" xr2:uid="{15015D36-1785-DC4E-8172-12441D53D08D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="131">
   <si>
     <t>July 1st</t>
   </si>
@@ -276,9 +276,6 @@
     <t>LX1</t>
   </si>
   <si>
-    <t>TB</t>
-  </si>
-  <si>
     <t>MB1</t>
   </si>
   <si>
@@ -291,9 +288,6 @@
     <t>TM1</t>
   </si>
   <si>
-    <t>HS</t>
-  </si>
-  <si>
     <t>KO (S1)</t>
   </si>
   <si>
@@ -433,6 +427,9 @@
   </si>
   <si>
     <t>CPu3</t>
+  </si>
+  <si>
+    <t>MAD</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1185,436 +1182,432 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1952,7 +1945,7 @@
   <dimension ref="A1:BO49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="BD5" sqref="BD5"/>
+      <selection activeCell="AW2" sqref="AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1976,210 +1969,203 @@
   <sheetData>
     <row r="1" spans="1:67">
       <c r="G1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="I1" t="s">
         <v>73</v>
       </c>
       <c r="J1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K1" t="s">
         <v>77</v>
       </c>
       <c r="L1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N1" t="s">
         <v>71</v>
       </c>
       <c r="O1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P1" t="s">
         <v>74</v>
       </c>
       <c r="Q1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R1" t="s">
         <v>70</v>
       </c>
       <c r="S1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T1" s="72" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="V1" s="72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W1" t="s">
         <v>75</v>
       </c>
       <c r="Y1" s="70" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AA1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB1" s="217" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC1" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="AC1" s="218" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD1" s="218" t="s">
+      <c r="AD1" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="AE1" s="217" t="s">
-        <v>102</v>
+      <c r="AE1" t="s">
+        <v>100</v>
       </c>
       <c r="AF1" t="s">
         <v>72</v>
       </c>
       <c r="AJ1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AK1" s="72" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AL1" s="70" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AM1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AN1" s="73" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AO1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AR1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AS1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AT1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AU1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AV1" t="s">
         <v>76</v>
       </c>
       <c r="AW1" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="AY1" t="s">
         <v>78</v>
       </c>
       <c r="AZ1" s="72" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="BA1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:67">
       <c r="N2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P2" s="70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC2" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD2" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE2" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK2" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL2" t="s">
         <v>119</v>
       </c>
-      <c r="AB2" s="217"/>
-      <c r="AC2" s="218" t="s">
+      <c r="AN2" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO2" t="s">
         <v>107</v>
       </c>
-      <c r="AD2" s="218" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE2" s="219" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK2" s="70" t="s">
+      <c r="AR2" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV2" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="AX2" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA2" t="s">
         <v>125</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN2" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR2" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV2" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="AX2" s="70" t="s">
-        <v>124</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:67">
       <c r="P3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB3" s="220" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC3" s="217" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD3" s="217"/>
-      <c r="AE3" s="217"/>
+        <v>128</v>
+      </c>
+      <c r="AB3" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>101</v>
+      </c>
       <c r="AO3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AU3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:67">
       <c r="P4" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC4" s="220" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD4" s="217"/>
-      <c r="AE4" s="220"/>
+        <v>121</v>
+      </c>
+      <c r="AC4" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE4" s="74"/>
     </row>
     <row r="5" spans="1:67">
-      <c r="AB5" s="220" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC5" s="217"/>
-      <c r="AD5" s="217"/>
-      <c r="AE5" s="217"/>
+      <c r="AB5" s="74" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="8" spans="1:67" ht="38.25" thickBot="1">
       <c r="A8" s="2"/>
@@ -2394,8 +2380,8 @@
       <c r="BD8" s="3"/>
     </row>
     <row r="9" spans="1:67">
-      <c r="A9" s="213"/>
-      <c r="B9" s="214"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
         <v>0</v>
@@ -2460,8 +2446,8 @@
       <c r="BD9" s="2"/>
     </row>
     <row r="10" spans="1:67">
-      <c r="A10" s="215"/>
-      <c r="B10" s="216"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="12"/>
       <c r="D10" s="13">
         <v>1</v>
@@ -2660,68 +2646,68 @@
         <v>15</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="147" t="s">
+      <c r="D11" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="147"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="147"/>
-      <c r="Q11" s="151" t="s">
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="151"/>
-      <c r="S11" s="151"/>
-      <c r="T11" s="151"/>
-      <c r="U11" s="151"/>
-      <c r="V11" s="151"/>
-      <c r="W11" s="151"/>
-      <c r="X11" s="151"/>
-      <c r="Y11" s="151"/>
-      <c r="Z11" s="151"/>
-      <c r="AA11" s="151"/>
-      <c r="AB11" s="151"/>
-      <c r="AC11" s="151"/>
-      <c r="AD11" s="182" t="s">
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="80"/>
+      <c r="Z11" s="80"/>
+      <c r="AA11" s="80"/>
+      <c r="AB11" s="80"/>
+      <c r="AC11" s="80"/>
+      <c r="AD11" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="AE11" s="183"/>
-      <c r="AF11" s="183"/>
-      <c r="AG11" s="183"/>
-      <c r="AH11" s="183"/>
-      <c r="AI11" s="183"/>
-      <c r="AJ11" s="183"/>
-      <c r="AK11" s="184"/>
-      <c r="AL11" s="210" t="s">
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="82"/>
+      <c r="AG11" s="82"/>
+      <c r="AH11" s="82"/>
+      <c r="AI11" s="82"/>
+      <c r="AJ11" s="82"/>
+      <c r="AK11" s="83"/>
+      <c r="AL11" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="AM11" s="211"/>
-      <c r="AN11" s="211"/>
-      <c r="AO11" s="211"/>
-      <c r="AP11" s="212"/>
-      <c r="AQ11" s="151" t="s">
+      <c r="AM11" s="85"/>
+      <c r="AN11" s="85"/>
+      <c r="AO11" s="85"/>
+      <c r="AP11" s="86"/>
+      <c r="AQ11" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="AR11" s="151"/>
-      <c r="AS11" s="151"/>
-      <c r="AT11" s="151"/>
-      <c r="AU11" s="151"/>
-      <c r="AV11" s="151"/>
-      <c r="AW11" s="151"/>
-      <c r="AX11" s="151"/>
-      <c r="AY11" s="151"/>
-      <c r="AZ11" s="151"/>
-      <c r="BA11" s="151"/>
-      <c r="BB11" s="151"/>
-      <c r="BC11" s="151"/>
+      <c r="AR11" s="80"/>
+      <c r="AS11" s="80"/>
+      <c r="AT11" s="80"/>
+      <c r="AU11" s="80"/>
+      <c r="AV11" s="80"/>
+      <c r="AW11" s="80"/>
+      <c r="AX11" s="80"/>
+      <c r="AY11" s="80"/>
+      <c r="AZ11" s="80"/>
+      <c r="BA11" s="80"/>
+      <c r="BB11" s="80"/>
+      <c r="BC11" s="80"/>
       <c r="BD11" s="23"/>
       <c r="BF11" s="20">
         <v>26</v>
@@ -2757,68 +2743,68 @@
         <v>21</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="151" t="s">
+      <c r="D12" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="151"/>
-      <c r="Q12" s="147" t="s">
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="R12" s="147"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="147"/>
-      <c r="W12" s="147"/>
-      <c r="X12" s="147"/>
-      <c r="Y12" s="147"/>
-      <c r="Z12" s="147"/>
-      <c r="AA12" s="147"/>
-      <c r="AB12" s="147"/>
-      <c r="AC12" s="147"/>
-      <c r="AD12" s="151" t="s">
+      <c r="R12" s="79"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="79"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="79"/>
+      <c r="AA12" s="79"/>
+      <c r="AB12" s="79"/>
+      <c r="AC12" s="79"/>
+      <c r="AD12" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="AE12" s="151"/>
-      <c r="AF12" s="151"/>
-      <c r="AG12" s="151"/>
-      <c r="AH12" s="151"/>
-      <c r="AI12" s="151"/>
-      <c r="AJ12" s="151"/>
-      <c r="AK12" s="151"/>
-      <c r="AL12" s="151"/>
-      <c r="AM12" s="151"/>
-      <c r="AN12" s="151"/>
-      <c r="AO12" s="151"/>
-      <c r="AP12" s="151"/>
-      <c r="AQ12" s="182" t="s">
+      <c r="AE12" s="80"/>
+      <c r="AF12" s="80"/>
+      <c r="AG12" s="80"/>
+      <c r="AH12" s="80"/>
+      <c r="AI12" s="80"/>
+      <c r="AJ12" s="80"/>
+      <c r="AK12" s="80"/>
+      <c r="AL12" s="80"/>
+      <c r="AM12" s="80"/>
+      <c r="AN12" s="80"/>
+      <c r="AO12" s="80"/>
+      <c r="AP12" s="80"/>
+      <c r="AQ12" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="AR12" s="183"/>
-      <c r="AS12" s="183"/>
-      <c r="AT12" s="183"/>
-      <c r="AU12" s="183"/>
-      <c r="AV12" s="183"/>
-      <c r="AW12" s="184"/>
-      <c r="AX12" s="210" t="s">
+      <c r="AR12" s="82"/>
+      <c r="AS12" s="82"/>
+      <c r="AT12" s="82"/>
+      <c r="AU12" s="82"/>
+      <c r="AV12" s="82"/>
+      <c r="AW12" s="83"/>
+      <c r="AX12" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="AY12" s="211"/>
-      <c r="AZ12" s="211"/>
-      <c r="BA12" s="211"/>
-      <c r="BB12" s="211"/>
-      <c r="BC12" s="212"/>
+      <c r="AY12" s="85"/>
+      <c r="AZ12" s="85"/>
+      <c r="BA12" s="85"/>
+      <c r="BB12" s="85"/>
+      <c r="BC12" s="86"/>
       <c r="BD12" s="26"/>
       <c r="BF12" s="20">
         <v>26</v>
@@ -2852,68 +2838,68 @@
         <v>22</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="182" t="s">
+      <c r="D13" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="183"/>
-      <c r="F13" s="183"/>
-      <c r="G13" s="183"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="184"/>
-      <c r="K13" s="210" t="s">
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="211"/>
-      <c r="M13" s="211"/>
-      <c r="N13" s="211"/>
-      <c r="O13" s="211"/>
-      <c r="P13" s="212"/>
-      <c r="Q13" s="151" t="s">
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="151"/>
-      <c r="S13" s="151"/>
-      <c r="T13" s="151"/>
-      <c r="U13" s="151"/>
-      <c r="V13" s="151"/>
-      <c r="W13" s="151"/>
-      <c r="X13" s="151"/>
-      <c r="Y13" s="151"/>
-      <c r="Z13" s="151"/>
-      <c r="AA13" s="151"/>
-      <c r="AB13" s="151"/>
-      <c r="AC13" s="151"/>
-      <c r="AD13" s="147" t="s">
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="80"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="80"/>
+      <c r="Y13" s="80"/>
+      <c r="Z13" s="80"/>
+      <c r="AA13" s="80"/>
+      <c r="AB13" s="80"/>
+      <c r="AC13" s="80"/>
+      <c r="AD13" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="AE13" s="147"/>
-      <c r="AF13" s="147"/>
-      <c r="AG13" s="147"/>
-      <c r="AH13" s="147"/>
-      <c r="AI13" s="147"/>
-      <c r="AJ13" s="147"/>
-      <c r="AK13" s="147"/>
-      <c r="AL13" s="147"/>
-      <c r="AM13" s="147"/>
-      <c r="AN13" s="147"/>
-      <c r="AO13" s="147"/>
-      <c r="AP13" s="147"/>
-      <c r="AQ13" s="151" t="s">
+      <c r="AE13" s="79"/>
+      <c r="AF13" s="79"/>
+      <c r="AG13" s="79"/>
+      <c r="AH13" s="79"/>
+      <c r="AI13" s="79"/>
+      <c r="AJ13" s="79"/>
+      <c r="AK13" s="79"/>
+      <c r="AL13" s="79"/>
+      <c r="AM13" s="79"/>
+      <c r="AN13" s="79"/>
+      <c r="AO13" s="79"/>
+      <c r="AP13" s="79"/>
+      <c r="AQ13" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="AR13" s="151"/>
-      <c r="AS13" s="151"/>
-      <c r="AT13" s="151"/>
-      <c r="AU13" s="151"/>
-      <c r="AV13" s="151"/>
-      <c r="AW13" s="151"/>
-      <c r="AX13" s="151"/>
-      <c r="AY13" s="151"/>
-      <c r="AZ13" s="151"/>
-      <c r="BA13" s="151"/>
-      <c r="BB13" s="151"/>
-      <c r="BC13" s="151"/>
+      <c r="AR13" s="80"/>
+      <c r="AS13" s="80"/>
+      <c r="AT13" s="80"/>
+      <c r="AU13" s="80"/>
+      <c r="AV13" s="80"/>
+      <c r="AW13" s="80"/>
+      <c r="AX13" s="80"/>
+      <c r="AY13" s="80"/>
+      <c r="AZ13" s="80"/>
+      <c r="BA13" s="80"/>
+      <c r="BB13" s="80"/>
+      <c r="BC13" s="80"/>
       <c r="BD13" s="23"/>
       <c r="BF13" s="20">
         <v>26</v>
@@ -2947,68 +2933,68 @@
         <v>23</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="151" t="s">
+      <c r="D14" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="210" t="s">
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="R14" s="211"/>
-      <c r="S14" s="211"/>
-      <c r="T14" s="211"/>
-      <c r="U14" s="212"/>
-      <c r="V14" s="182" t="s">
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="W14" s="183"/>
-      <c r="X14" s="183"/>
-      <c r="Y14" s="183"/>
-      <c r="Z14" s="183"/>
-      <c r="AA14" s="183"/>
-      <c r="AB14" s="183"/>
-      <c r="AC14" s="184"/>
-      <c r="AD14" s="151" t="s">
+      <c r="W14" s="82"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="83"/>
+      <c r="AD14" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="AE14" s="151"/>
-      <c r="AF14" s="151"/>
-      <c r="AG14" s="151"/>
-      <c r="AH14" s="151"/>
-      <c r="AI14" s="151"/>
-      <c r="AJ14" s="151"/>
-      <c r="AK14" s="151"/>
-      <c r="AL14" s="151"/>
-      <c r="AM14" s="151"/>
-      <c r="AN14" s="151"/>
-      <c r="AO14" s="151"/>
-      <c r="AP14" s="151"/>
-      <c r="AQ14" s="147" t="s">
+      <c r="AE14" s="80"/>
+      <c r="AF14" s="80"/>
+      <c r="AG14" s="80"/>
+      <c r="AH14" s="80"/>
+      <c r="AI14" s="80"/>
+      <c r="AJ14" s="80"/>
+      <c r="AK14" s="80"/>
+      <c r="AL14" s="80"/>
+      <c r="AM14" s="80"/>
+      <c r="AN14" s="80"/>
+      <c r="AO14" s="80"/>
+      <c r="AP14" s="80"/>
+      <c r="AQ14" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="AR14" s="147"/>
-      <c r="AS14" s="147"/>
-      <c r="AT14" s="147"/>
-      <c r="AU14" s="147"/>
-      <c r="AV14" s="147"/>
-      <c r="AW14" s="147"/>
-      <c r="AX14" s="147"/>
-      <c r="AY14" s="147"/>
-      <c r="AZ14" s="147"/>
-      <c r="BA14" s="147"/>
-      <c r="BB14" s="147"/>
-      <c r="BC14" s="147"/>
+      <c r="AR14" s="79"/>
+      <c r="AS14" s="79"/>
+      <c r="AT14" s="79"/>
+      <c r="AU14" s="79"/>
+      <c r="AV14" s="79"/>
+      <c r="AW14" s="79"/>
+      <c r="AX14" s="79"/>
+      <c r="AY14" s="79"/>
+      <c r="AZ14" s="79"/>
+      <c r="BA14" s="79"/>
+      <c r="BB14" s="79"/>
+      <c r="BC14" s="79"/>
       <c r="BD14" s="23"/>
       <c r="BF14" s="20">
         <v>26</v>
@@ -3058,12 +3044,12 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="209"/>
-      <c r="X15" s="209"/>
-      <c r="Y15" s="209"/>
-      <c r="Z15" s="209"/>
-      <c r="AA15" s="209"/>
-      <c r="AB15" s="209"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="87"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="87"/>
+      <c r="AB15" s="87"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
@@ -3100,74 +3086,74 @@
         <v>25</v>
       </c>
       <c r="C16" s="27"/>
-      <c r="D16" s="151" t="s">
+      <c r="D16" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="154" t="s">
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
-      <c r="M16" s="154"/>
-      <c r="N16" s="154"/>
-      <c r="O16" s="85" t="s">
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="86"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="86"/>
-      <c r="W16" s="86"/>
-      <c r="X16" s="86"/>
-      <c r="Y16" s="86"/>
-      <c r="Z16" s="86"/>
-      <c r="AA16" s="86"/>
-      <c r="AB16" s="207" t="s">
+      <c r="P16" s="90"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="90"/>
+      <c r="AA16" s="90"/>
+      <c r="AB16" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="AC16" s="208"/>
-      <c r="AD16" s="205" t="s">
+      <c r="AC16" s="92"/>
+      <c r="AD16" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="AE16" s="205"/>
-      <c r="AF16" s="205"/>
-      <c r="AG16" s="205"/>
-      <c r="AH16" s="205"/>
-      <c r="AI16" s="205"/>
-      <c r="AJ16" s="205"/>
-      <c r="AK16" s="205"/>
-      <c r="AL16" s="202" t="s">
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="93"/>
+      <c r="AH16" s="93"/>
+      <c r="AI16" s="93"/>
+      <c r="AJ16" s="93"/>
+      <c r="AK16" s="93"/>
+      <c r="AL16" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="AM16" s="202"/>
-      <c r="AN16" s="202"/>
-      <c r="AO16" s="202"/>
-      <c r="AP16" s="202"/>
-      <c r="AQ16" s="202"/>
-      <c r="AR16" s="202"/>
-      <c r="AS16" s="202"/>
-      <c r="AT16" s="202"/>
-      <c r="AU16" s="206" t="s">
+      <c r="AM16" s="94"/>
+      <c r="AN16" s="94"/>
+      <c r="AO16" s="94"/>
+      <c r="AP16" s="94"/>
+      <c r="AQ16" s="94"/>
+      <c r="AR16" s="94"/>
+      <c r="AS16" s="94"/>
+      <c r="AT16" s="94"/>
+      <c r="AU16" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="AV16" s="206"/>
-      <c r="AW16" s="206"/>
-      <c r="AX16" s="204" t="s">
+      <c r="AV16" s="98"/>
+      <c r="AW16" s="98"/>
+      <c r="AX16" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="AY16" s="204"/>
-      <c r="AZ16" s="204"/>
-      <c r="BA16" s="204"/>
-      <c r="BB16" s="204"/>
-      <c r="BC16" s="204"/>
+      <c r="AY16" s="97"/>
+      <c r="AZ16" s="97"/>
+      <c r="BA16" s="97"/>
+      <c r="BB16" s="97"/>
+      <c r="BC16" s="97"/>
       <c r="BD16" s="28"/>
       <c r="BF16" s="20">
         <v>17</v>
@@ -3205,76 +3191,76 @@
         <v>27</v>
       </c>
       <c r="C17" s="27"/>
-      <c r="D17" s="205" t="s">
+      <c r="D17" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="205"/>
-      <c r="F17" s="205"/>
-      <c r="G17" s="205"/>
-      <c r="H17" s="205"/>
-      <c r="I17" s="205"/>
-      <c r="J17" s="205"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
       <c r="K17" s="29" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
-      <c r="N17" s="85" t="s">
+      <c r="N17" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="86"/>
-      <c r="W17" s="86"/>
-      <c r="X17" s="86"/>
-      <c r="Y17" s="90"/>
-      <c r="Z17" s="207" t="s">
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="99"/>
+      <c r="Z17" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="AA17" s="208"/>
-      <c r="AB17" s="154" t="s">
+      <c r="AA17" s="92"/>
+      <c r="AB17" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="AC17" s="154"/>
-      <c r="AD17" s="154"/>
-      <c r="AE17" s="154"/>
-      <c r="AF17" s="154"/>
-      <c r="AG17" s="154"/>
-      <c r="AH17" s="151" t="s">
+      <c r="AC17" s="88"/>
+      <c r="AD17" s="88"/>
+      <c r="AE17" s="88"/>
+      <c r="AF17" s="88"/>
+      <c r="AG17" s="88"/>
+      <c r="AH17" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="AI17" s="151"/>
-      <c r="AJ17" s="151"/>
-      <c r="AK17" s="151"/>
-      <c r="AL17" s="204" t="s">
+      <c r="AI17" s="80"/>
+      <c r="AJ17" s="80"/>
+      <c r="AK17" s="80"/>
+      <c r="AL17" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="AM17" s="204"/>
-      <c r="AN17" s="204"/>
-      <c r="AO17" s="204"/>
-      <c r="AP17" s="204"/>
-      <c r="AQ17" s="206" t="s">
+      <c r="AM17" s="97"/>
+      <c r="AN17" s="97"/>
+      <c r="AO17" s="97"/>
+      <c r="AP17" s="97"/>
+      <c r="AQ17" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="AR17" s="206"/>
-      <c r="AS17" s="206"/>
-      <c r="AT17" s="206"/>
-      <c r="AU17" s="202" t="s">
+      <c r="AR17" s="98"/>
+      <c r="AS17" s="98"/>
+      <c r="AT17" s="98"/>
+      <c r="AU17" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="AV17" s="202"/>
-      <c r="AW17" s="202"/>
-      <c r="AX17" s="202"/>
-      <c r="AY17" s="202"/>
-      <c r="AZ17" s="202"/>
-      <c r="BA17" s="202"/>
-      <c r="BB17" s="202"/>
-      <c r="BC17" s="202"/>
+      <c r="AV17" s="94"/>
+      <c r="AW17" s="94"/>
+      <c r="AX17" s="94"/>
+      <c r="AY17" s="94"/>
+      <c r="AZ17" s="94"/>
+      <c r="BA17" s="94"/>
+      <c r="BB17" s="94"/>
+      <c r="BC17" s="94"/>
       <c r="BD17" s="24"/>
       <c r="BF17" s="20">
         <v>18</v>
@@ -3309,70 +3295,70 @@
         <v>28</v>
       </c>
       <c r="C18" s="27"/>
-      <c r="D18" s="203" t="s">
+      <c r="D18" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
-      <c r="H18" s="203"/>
-      <c r="I18" s="203"/>
-      <c r="J18" s="161" t="s">
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
-      <c r="N18" s="204" t="s">
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="204"/>
-      <c r="P18" s="204"/>
-      <c r="Q18" s="204"/>
-      <c r="R18" s="204"/>
-      <c r="S18" s="204"/>
-      <c r="T18" s="204"/>
-      <c r="U18" s="204"/>
-      <c r="V18" s="205" t="s">
+      <c r="O18" s="97"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="97"/>
+      <c r="S18" s="97"/>
+      <c r="T18" s="97"/>
+      <c r="U18" s="97"/>
+      <c r="V18" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="W18" s="205"/>
-      <c r="X18" s="205"/>
-      <c r="Y18" s="205"/>
-      <c r="Z18" s="205"/>
-      <c r="AA18" s="205"/>
-      <c r="AB18" s="205"/>
-      <c r="AC18" s="205"/>
-      <c r="AD18" s="202" t="s">
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
+      <c r="Z18" s="93"/>
+      <c r="AA18" s="93"/>
+      <c r="AB18" s="93"/>
+      <c r="AC18" s="93"/>
+      <c r="AD18" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="AE18" s="202"/>
-      <c r="AF18" s="202"/>
-      <c r="AG18" s="202"/>
-      <c r="AH18" s="202"/>
-      <c r="AI18" s="202"/>
-      <c r="AJ18" s="202"/>
-      <c r="AK18" s="202"/>
-      <c r="AL18" s="151" t="s">
+      <c r="AE18" s="94"/>
+      <c r="AF18" s="94"/>
+      <c r="AG18" s="94"/>
+      <c r="AH18" s="94"/>
+      <c r="AI18" s="94"/>
+      <c r="AJ18" s="94"/>
+      <c r="AK18" s="94"/>
+      <c r="AL18" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="AM18" s="151"/>
-      <c r="AN18" s="151"/>
-      <c r="AO18" s="151"/>
-      <c r="AP18" s="151"/>
-      <c r="AQ18" s="151"/>
-      <c r="AR18" s="151"/>
-      <c r="AS18" s="151"/>
-      <c r="AT18" s="151"/>
-      <c r="AU18" s="151"/>
-      <c r="AV18" s="151"/>
-      <c r="AW18" s="151"/>
-      <c r="AX18" s="151"/>
-      <c r="AY18" s="151"/>
-      <c r="AZ18" s="151"/>
-      <c r="BA18" s="151"/>
-      <c r="BB18" s="151"/>
-      <c r="BC18" s="151"/>
+      <c r="AM18" s="80"/>
+      <c r="AN18" s="80"/>
+      <c r="AO18" s="80"/>
+      <c r="AP18" s="80"/>
+      <c r="AQ18" s="80"/>
+      <c r="AR18" s="80"/>
+      <c r="AS18" s="80"/>
+      <c r="AT18" s="80"/>
+      <c r="AU18" s="80"/>
+      <c r="AV18" s="80"/>
+      <c r="AW18" s="80"/>
+      <c r="AX18" s="80"/>
+      <c r="AY18" s="80"/>
+      <c r="AZ18" s="80"/>
+      <c r="BA18" s="80"/>
+      <c r="BB18" s="80"/>
+      <c r="BC18" s="80"/>
       <c r="BD18" s="26"/>
       <c r="BF18" s="20">
         <v>18</v>
@@ -3452,68 +3438,68 @@
         <v>30</v>
       </c>
       <c r="C20" s="32"/>
-      <c r="D20" s="182" t="s">
+      <c r="D20" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="183"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="183"/>
-      <c r="L20" s="184"/>
-      <c r="M20" s="185" t="s">
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="N20" s="185"/>
-      <c r="O20" s="186"/>
-      <c r="P20" s="186"/>
-      <c r="Q20" s="186"/>
-      <c r="R20" s="186"/>
-      <c r="S20" s="185"/>
-      <c r="T20" s="185"/>
-      <c r="U20" s="185"/>
-      <c r="V20" s="185"/>
-      <c r="W20" s="185"/>
-      <c r="X20" s="185"/>
-      <c r="Y20" s="185"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="101"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="101"/>
+      <c r="R20" s="101"/>
+      <c r="S20" s="100"/>
+      <c r="T20" s="100"/>
+      <c r="U20" s="100"/>
+      <c r="V20" s="100"/>
+      <c r="W20" s="100"/>
+      <c r="X20" s="100"/>
+      <c r="Y20" s="100"/>
       <c r="Z20" s="32"/>
       <c r="AA20" s="32"/>
       <c r="AB20" s="32"/>
       <c r="AC20" s="32"/>
-      <c r="AD20" s="187" t="s">
+      <c r="AD20" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="AE20" s="188"/>
-      <c r="AF20" s="188"/>
-      <c r="AG20" s="188"/>
-      <c r="AH20" s="188"/>
-      <c r="AI20" s="188"/>
-      <c r="AJ20" s="188"/>
-      <c r="AK20" s="188"/>
-      <c r="AL20" s="188"/>
-      <c r="AM20" s="188"/>
-      <c r="AN20" s="188"/>
-      <c r="AO20" s="188"/>
-      <c r="AP20" s="189"/>
-      <c r="AQ20" s="190" t="s">
+      <c r="AE20" s="103"/>
+      <c r="AF20" s="103"/>
+      <c r="AG20" s="103"/>
+      <c r="AH20" s="103"/>
+      <c r="AI20" s="103"/>
+      <c r="AJ20" s="103"/>
+      <c r="AK20" s="103"/>
+      <c r="AL20" s="103"/>
+      <c r="AM20" s="103"/>
+      <c r="AN20" s="103"/>
+      <c r="AO20" s="103"/>
+      <c r="AP20" s="104"/>
+      <c r="AQ20" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="AR20" s="191"/>
-      <c r="AS20" s="191"/>
-      <c r="AT20" s="191"/>
-      <c r="AU20" s="191"/>
-      <c r="AV20" s="191"/>
-      <c r="AW20" s="191"/>
-      <c r="AX20" s="191"/>
-      <c r="AY20" s="191"/>
-      <c r="AZ20" s="191"/>
-      <c r="BA20" s="192"/>
-      <c r="BB20" s="193" t="s">
+      <c r="AR20" s="106"/>
+      <c r="AS20" s="106"/>
+      <c r="AT20" s="106"/>
+      <c r="AU20" s="106"/>
+      <c r="AV20" s="106"/>
+      <c r="AW20" s="106"/>
+      <c r="AX20" s="106"/>
+      <c r="AY20" s="106"/>
+      <c r="AZ20" s="106"/>
+      <c r="BA20" s="107"/>
+      <c r="BB20" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="BC20" s="194"/>
+      <c r="BC20" s="109"/>
       <c r="BD20" s="33"/>
     </row>
     <row r="21" spans="1:67" s="1" customFormat="1">
@@ -3731,54 +3717,54 @@
       <c r="B24" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="195" t="s">
+      <c r="D24" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="196"/>
-      <c r="F24" s="196"/>
-      <c r="G24" s="197"/>
-      <c r="H24" s="85" t="s">
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="173" t="s">
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="P24" s="174"/>
-      <c r="Q24" s="174"/>
-      <c r="R24" s="174"/>
-      <c r="S24" s="174"/>
-      <c r="T24" s="175"/>
-      <c r="U24" s="198" t="s">
+      <c r="P24" s="114"/>
+      <c r="Q24" s="114"/>
+      <c r="R24" s="114"/>
+      <c r="S24" s="114"/>
+      <c r="T24" s="115"/>
+      <c r="U24" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="V24" s="100"/>
-      <c r="W24" s="100"/>
-      <c r="X24" s="100"/>
-      <c r="Y24" s="100"/>
-      <c r="Z24" s="100"/>
-      <c r="AA24" s="101"/>
-      <c r="AB24" s="199" t="s">
+      <c r="V24" s="117"/>
+      <c r="W24" s="117"/>
+      <c r="X24" s="117"/>
+      <c r="Y24" s="117"/>
+      <c r="Z24" s="117"/>
+      <c r="AA24" s="118"/>
+      <c r="AB24" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="AC24" s="200"/>
-      <c r="AD24" s="200"/>
-      <c r="AE24" s="200"/>
-      <c r="AF24" s="200"/>
-      <c r="AG24" s="200"/>
-      <c r="AH24" s="200"/>
-      <c r="AI24" s="200"/>
-      <c r="AJ24" s="200"/>
-      <c r="AK24" s="200"/>
-      <c r="AL24" s="200"/>
-      <c r="AM24" s="200"/>
-      <c r="AN24" s="200"/>
-      <c r="AO24" s="201"/>
+      <c r="AC24" s="120"/>
+      <c r="AD24" s="120"/>
+      <c r="AE24" s="120"/>
+      <c r="AF24" s="120"/>
+      <c r="AG24" s="120"/>
+      <c r="AH24" s="120"/>
+      <c r="AI24" s="120"/>
+      <c r="AJ24" s="120"/>
+      <c r="AK24" s="120"/>
+      <c r="AL24" s="120"/>
+      <c r="AM24" s="120"/>
+      <c r="AN24" s="120"/>
+      <c r="AO24" s="121"/>
       <c r="AP24" s="38" t="s">
         <v>41</v>
       </c>
@@ -3791,12 +3777,12 @@
       <c r="AW24" s="39"/>
       <c r="AX24" s="39"/>
       <c r="AY24" s="40"/>
-      <c r="AZ24" s="161" t="s">
+      <c r="AZ24" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="BA24" s="161"/>
-      <c r="BB24" s="161"/>
-      <c r="BC24" s="162"/>
+      <c r="BA24" s="96"/>
+      <c r="BB24" s="96"/>
+      <c r="BC24" s="122"/>
       <c r="BD24" s="41"/>
       <c r="BE24" s="1">
         <v>4</v>
@@ -3829,76 +3815,76 @@
       <c r="B25" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="163" t="s">
+      <c r="D25" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="164"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="165"/>
-      <c r="I25" s="166" t="s">
+      <c r="E25" s="124"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="167"/>
-      <c r="K25" s="167"/>
-      <c r="L25" s="168"/>
+      <c r="J25" s="127"/>
+      <c r="K25" s="127"/>
+      <c r="L25" s="128"/>
       <c r="M25" s="42" t="s">
         <v>9</v>
       </c>
       <c r="N25" s="43"/>
       <c r="O25" s="43"/>
       <c r="P25" s="44"/>
-      <c r="Q25" s="81" t="s">
+      <c r="Q25" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="R25" s="82"/>
-      <c r="S25" s="82"/>
-      <c r="T25" s="82"/>
-      <c r="U25" s="82"/>
-      <c r="V25" s="82"/>
-      <c r="W25" s="82"/>
-      <c r="X25" s="82"/>
-      <c r="Y25" s="82"/>
-      <c r="Z25" s="82"/>
-      <c r="AA25" s="169"/>
-      <c r="AB25" s="170" t="s">
+      <c r="R25" s="130"/>
+      <c r="S25" s="130"/>
+      <c r="T25" s="130"/>
+      <c r="U25" s="130"/>
+      <c r="V25" s="130"/>
+      <c r="W25" s="130"/>
+      <c r="X25" s="130"/>
+      <c r="Y25" s="130"/>
+      <c r="Z25" s="130"/>
+      <c r="AA25" s="131"/>
+      <c r="AB25" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="AC25" s="171"/>
-      <c r="AD25" s="171"/>
-      <c r="AE25" s="171"/>
-      <c r="AF25" s="171"/>
-      <c r="AG25" s="172"/>
-      <c r="AH25" s="173" t="s">
+      <c r="AC25" s="133"/>
+      <c r="AD25" s="133"/>
+      <c r="AE25" s="133"/>
+      <c r="AF25" s="133"/>
+      <c r="AG25" s="134"/>
+      <c r="AH25" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="AI25" s="174"/>
-      <c r="AJ25" s="174"/>
-      <c r="AK25" s="174"/>
-      <c r="AL25" s="174"/>
-      <c r="AM25" s="174"/>
-      <c r="AN25" s="174"/>
-      <c r="AO25" s="174"/>
-      <c r="AP25" s="175"/>
-      <c r="AQ25" s="176" t="s">
+      <c r="AI25" s="114"/>
+      <c r="AJ25" s="114"/>
+      <c r="AK25" s="114"/>
+      <c r="AL25" s="114"/>
+      <c r="AM25" s="114"/>
+      <c r="AN25" s="114"/>
+      <c r="AO25" s="114"/>
+      <c r="AP25" s="115"/>
+      <c r="AQ25" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="AR25" s="177"/>
-      <c r="AS25" s="177"/>
-      <c r="AT25" s="178"/>
-      <c r="AU25" s="179" t="s">
+      <c r="AR25" s="136"/>
+      <c r="AS25" s="136"/>
+      <c r="AT25" s="137"/>
+      <c r="AU25" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="AV25" s="180"/>
-      <c r="AW25" s="180"/>
-      <c r="AX25" s="181"/>
-      <c r="AY25" s="103" t="s">
+      <c r="AV25" s="139"/>
+      <c r="AW25" s="139"/>
+      <c r="AX25" s="140"/>
+      <c r="AY25" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="AZ25" s="164"/>
-      <c r="BA25" s="164"/>
-      <c r="BB25" s="164"/>
-      <c r="BC25" s="165"/>
+      <c r="AZ25" s="124"/>
+      <c r="BA25" s="124"/>
+      <c r="BB25" s="124"/>
+      <c r="BC25" s="125"/>
       <c r="BD25" s="36"/>
       <c r="BE25" s="1">
         <v>4</v>
@@ -3931,74 +3917,74 @@
       <c r="B26" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="100" t="s">
+      <c r="D26" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="155" t="s">
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="117"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="N26" s="156"/>
-      <c r="O26" s="156"/>
-      <c r="P26" s="157"/>
-      <c r="Q26" s="158" t="s">
+      <c r="N26" s="151"/>
+      <c r="O26" s="151"/>
+      <c r="P26" s="152"/>
+      <c r="Q26" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="R26" s="159"/>
-      <c r="S26" s="159"/>
-      <c r="T26" s="160"/>
-      <c r="U26" s="154" t="s">
+      <c r="R26" s="154"/>
+      <c r="S26" s="154"/>
+      <c r="T26" s="155"/>
+      <c r="U26" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="V26" s="154"/>
-      <c r="W26" s="154"/>
-      <c r="X26" s="154"/>
-      <c r="Y26" s="154"/>
-      <c r="Z26" s="154"/>
-      <c r="AA26" s="154"/>
-      <c r="AB26" s="85" t="s">
+      <c r="V26" s="88"/>
+      <c r="W26" s="88"/>
+      <c r="X26" s="88"/>
+      <c r="Y26" s="88"/>
+      <c r="Z26" s="88"/>
+      <c r="AA26" s="88"/>
+      <c r="AB26" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="AC26" s="86"/>
-      <c r="AD26" s="86"/>
-      <c r="AE26" s="86"/>
-      <c r="AF26" s="86"/>
-      <c r="AG26" s="90"/>
-      <c r="AH26" s="153" t="s">
+      <c r="AC26" s="90"/>
+      <c r="AD26" s="90"/>
+      <c r="AE26" s="90"/>
+      <c r="AF26" s="90"/>
+      <c r="AG26" s="99"/>
+      <c r="AH26" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="AI26" s="153"/>
-      <c r="AJ26" s="153"/>
-      <c r="AK26" s="153"/>
-      <c r="AL26" s="144" t="s">
+      <c r="AI26" s="149"/>
+      <c r="AJ26" s="149"/>
+      <c r="AK26" s="149"/>
+      <c r="AL26" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="AM26" s="145"/>
-      <c r="AN26" s="145"/>
-      <c r="AO26" s="146"/>
-      <c r="AP26" s="147" t="s">
+      <c r="AM26" s="143"/>
+      <c r="AN26" s="143"/>
+      <c r="AO26" s="144"/>
+      <c r="AP26" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="AQ26" s="147"/>
-      <c r="AR26" s="147"/>
-      <c r="AS26" s="147"/>
-      <c r="AT26" s="147"/>
-      <c r="AU26" s="147"/>
-      <c r="AV26" s="147"/>
-      <c r="AW26" s="147"/>
-      <c r="AX26" s="147"/>
-      <c r="AY26" s="147"/>
-      <c r="AZ26" s="147"/>
-      <c r="BA26" s="147"/>
-      <c r="BB26" s="147"/>
-      <c r="BC26" s="147"/>
+      <c r="AQ26" s="79"/>
+      <c r="AR26" s="79"/>
+      <c r="AS26" s="79"/>
+      <c r="AT26" s="79"/>
+      <c r="AU26" s="79"/>
+      <c r="AV26" s="79"/>
+      <c r="AW26" s="79"/>
+      <c r="AX26" s="79"/>
+      <c r="AY26" s="79"/>
+      <c r="AZ26" s="79"/>
+      <c r="BA26" s="79"/>
+      <c r="BB26" s="79"/>
+      <c r="BC26" s="79"/>
       <c r="BD26" s="23"/>
       <c r="BE26" s="1">
         <v>4</v>
@@ -4031,72 +4017,72 @@
       <c r="B27" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="148" t="s">
+      <c r="D27" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="148"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="148"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="148"/>
-      <c r="K27" s="148"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="148"/>
-      <c r="N27" s="148"/>
-      <c r="O27" s="148"/>
-      <c r="P27" s="148"/>
-      <c r="Q27" s="149" t="s">
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="145"/>
+      <c r="K27" s="145"/>
+      <c r="L27" s="145"/>
+      <c r="M27" s="145"/>
+      <c r="N27" s="145"/>
+      <c r="O27" s="145"/>
+      <c r="P27" s="145"/>
+      <c r="Q27" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="R27" s="149"/>
-      <c r="S27" s="149"/>
-      <c r="T27" s="149"/>
-      <c r="U27" s="150" t="s">
+      <c r="R27" s="146"/>
+      <c r="S27" s="146"/>
+      <c r="T27" s="146"/>
+      <c r="U27" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="V27" s="150"/>
-      <c r="W27" s="150"/>
-      <c r="X27" s="150"/>
-      <c r="Y27" s="150"/>
-      <c r="Z27" s="150"/>
-      <c r="AA27" s="150"/>
-      <c r="AB27" s="150"/>
-      <c r="AC27" s="150"/>
-      <c r="AD27" s="150"/>
-      <c r="AE27" s="150"/>
-      <c r="AF27" s="151" t="s">
+      <c r="V27" s="147"/>
+      <c r="W27" s="147"/>
+      <c r="X27" s="147"/>
+      <c r="Y27" s="147"/>
+      <c r="Z27" s="147"/>
+      <c r="AA27" s="147"/>
+      <c r="AB27" s="147"/>
+      <c r="AC27" s="147"/>
+      <c r="AD27" s="147"/>
+      <c r="AE27" s="147"/>
+      <c r="AF27" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="AG27" s="151"/>
-      <c r="AH27" s="151"/>
-      <c r="AI27" s="151"/>
-      <c r="AJ27" s="151"/>
-      <c r="AK27" s="151"/>
-      <c r="AL27" s="151"/>
-      <c r="AM27" s="152" t="s">
+      <c r="AG27" s="80"/>
+      <c r="AH27" s="80"/>
+      <c r="AI27" s="80"/>
+      <c r="AJ27" s="80"/>
+      <c r="AK27" s="80"/>
+      <c r="AL27" s="80"/>
+      <c r="AM27" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="AN27" s="152"/>
-      <c r="AO27" s="152"/>
-      <c r="AP27" s="152"/>
-      <c r="AQ27" s="152"/>
-      <c r="AR27" s="152"/>
-      <c r="AS27" s="152"/>
-      <c r="AT27" s="153" t="s">
+      <c r="AN27" s="148"/>
+      <c r="AO27" s="148"/>
+      <c r="AP27" s="148"/>
+      <c r="AQ27" s="148"/>
+      <c r="AR27" s="148"/>
+      <c r="AS27" s="148"/>
+      <c r="AT27" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="AU27" s="153"/>
-      <c r="AV27" s="153"/>
-      <c r="AW27" s="153"/>
-      <c r="AX27" s="154" t="s">
+      <c r="AU27" s="149"/>
+      <c r="AV27" s="149"/>
+      <c r="AW27" s="149"/>
+      <c r="AX27" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="AY27" s="154"/>
-      <c r="AZ27" s="154"/>
-      <c r="BA27" s="154"/>
-      <c r="BB27" s="154"/>
-      <c r="BC27" s="154"/>
+      <c r="AY27" s="88"/>
+      <c r="AZ27" s="88"/>
+      <c r="BA27" s="88"/>
+      <c r="BB27" s="88"/>
+      <c r="BC27" s="88"/>
       <c r="BD27" s="24"/>
       <c r="BE27" s="1">
         <v>4</v>
@@ -4212,76 +4198,76 @@
         <v>47</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="141" t="s">
+      <c r="D30" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="142"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="142"/>
-      <c r="K30" s="142"/>
-      <c r="L30" s="142"/>
-      <c r="M30" s="142"/>
-      <c r="N30" s="142"/>
-      <c r="O30" s="142"/>
-      <c r="P30" s="143"/>
-      <c r="Q30" s="94" t="s">
+      <c r="E30" s="181"/>
+      <c r="F30" s="181"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="181"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="181"/>
+      <c r="K30" s="181"/>
+      <c r="L30" s="181"/>
+      <c r="M30" s="181"/>
+      <c r="N30" s="181"/>
+      <c r="O30" s="181"/>
+      <c r="P30" s="182"/>
+      <c r="Q30" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="95"/>
-      <c r="U30" s="122"/>
-      <c r="V30" s="114" t="s">
+      <c r="R30" s="169"/>
+      <c r="S30" s="169"/>
+      <c r="T30" s="169"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="179" t="s">
         <v>39</v>
       </c>
-      <c r="W30" s="115"/>
-      <c r="X30" s="115"/>
-      <c r="Y30" s="116"/>
-      <c r="Z30" s="133" t="s">
+      <c r="W30" s="174"/>
+      <c r="X30" s="174"/>
+      <c r="Y30" s="175"/>
+      <c r="Z30" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="AA30" s="134"/>
-      <c r="AB30" s="134"/>
-      <c r="AC30" s="134"/>
-      <c r="AD30" s="134"/>
-      <c r="AE30" s="135"/>
-      <c r="AF30" s="92" t="s">
+      <c r="AA30" s="157"/>
+      <c r="AB30" s="157"/>
+      <c r="AC30" s="157"/>
+      <c r="AD30" s="157"/>
+      <c r="AE30" s="158"/>
+      <c r="AF30" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="AG30" s="93"/>
-      <c r="AH30" s="93"/>
-      <c r="AI30" s="93"/>
-      <c r="AJ30" s="93"/>
-      <c r="AK30" s="138"/>
-      <c r="AL30" s="114" t="s">
+      <c r="AG30" s="166"/>
+      <c r="AH30" s="166"/>
+      <c r="AI30" s="166"/>
+      <c r="AJ30" s="166"/>
+      <c r="AK30" s="167"/>
+      <c r="AL30" s="179" t="s">
         <v>39</v>
       </c>
-      <c r="AM30" s="115"/>
-      <c r="AN30" s="115"/>
-      <c r="AO30" s="116"/>
-      <c r="AP30" s="133" t="s">
+      <c r="AM30" s="174"/>
+      <c r="AN30" s="174"/>
+      <c r="AO30" s="175"/>
+      <c r="AP30" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="AQ30" s="134"/>
-      <c r="AR30" s="134"/>
-      <c r="AS30" s="135"/>
-      <c r="AT30" s="136" t="s">
+      <c r="AQ30" s="157"/>
+      <c r="AR30" s="157"/>
+      <c r="AS30" s="158"/>
+      <c r="AT30" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="AU30" s="126"/>
-      <c r="AV30" s="126"/>
-      <c r="AW30" s="126"/>
-      <c r="AX30" s="127"/>
-      <c r="AY30" s="137" t="s">
+      <c r="AU30" s="160"/>
+      <c r="AV30" s="160"/>
+      <c r="AW30" s="160"/>
+      <c r="AX30" s="161"/>
+      <c r="AY30" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="AZ30" s="131"/>
-      <c r="BA30" s="131"/>
-      <c r="BB30" s="131"/>
-      <c r="BC30" s="132"/>
+      <c r="AZ30" s="163"/>
+      <c r="BA30" s="163"/>
+      <c r="BB30" s="163"/>
+      <c r="BC30" s="164"/>
       <c r="BD30" s="27"/>
       <c r="BE30" s="49">
         <v>8</v>
@@ -4318,76 +4304,76 @@
         <v>48</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="92" t="s">
+      <c r="D31" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="121" t="s">
+      <c r="E31" s="166"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="167"/>
+      <c r="H31" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="139"/>
-      <c r="M31" s="140" t="s">
+      <c r="I31" s="169"/>
+      <c r="J31" s="169"/>
+      <c r="K31" s="169"/>
+      <c r="L31" s="170"/>
+      <c r="M31" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="N31" s="103"/>
-      <c r="O31" s="103"/>
-      <c r="P31" s="103"/>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="103"/>
-      <c r="S31" s="103"/>
-      <c r="T31" s="103"/>
-      <c r="U31" s="109" t="s">
+      <c r="N31" s="141"/>
+      <c r="O31" s="141"/>
+      <c r="P31" s="141"/>
+      <c r="Q31" s="141"/>
+      <c r="R31" s="141"/>
+      <c r="S31" s="141"/>
+      <c r="T31" s="141"/>
+      <c r="U31" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="V31" s="109"/>
-      <c r="W31" s="109"/>
-      <c r="X31" s="109"/>
-      <c r="Y31" s="110"/>
-      <c r="Z31" s="115" t="s">
+      <c r="V31" s="172"/>
+      <c r="W31" s="172"/>
+      <c r="X31" s="172"/>
+      <c r="Y31" s="173"/>
+      <c r="Z31" s="174" t="s">
         <v>39</v>
       </c>
-      <c r="AA31" s="115"/>
-      <c r="AB31" s="115"/>
-      <c r="AC31" s="116"/>
-      <c r="AD31" s="117" t="s">
+      <c r="AA31" s="174"/>
+      <c r="AB31" s="174"/>
+      <c r="AC31" s="175"/>
+      <c r="AD31" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="AE31" s="112"/>
-      <c r="AF31" s="112"/>
-      <c r="AG31" s="112"/>
-      <c r="AH31" s="112"/>
-      <c r="AI31" s="112"/>
-      <c r="AJ31" s="112"/>
-      <c r="AK31" s="112"/>
-      <c r="AL31" s="112"/>
-      <c r="AM31" s="112"/>
-      <c r="AN31" s="112"/>
-      <c r="AO31" s="113"/>
-      <c r="AP31" s="114" t="s">
+      <c r="AE31" s="177"/>
+      <c r="AF31" s="177"/>
+      <c r="AG31" s="177"/>
+      <c r="AH31" s="177"/>
+      <c r="AI31" s="177"/>
+      <c r="AJ31" s="177"/>
+      <c r="AK31" s="177"/>
+      <c r="AL31" s="177"/>
+      <c r="AM31" s="177"/>
+      <c r="AN31" s="177"/>
+      <c r="AO31" s="178"/>
+      <c r="AP31" s="179" t="s">
         <v>39</v>
       </c>
-      <c r="AQ31" s="115"/>
-      <c r="AR31" s="115"/>
-      <c r="AS31" s="116"/>
-      <c r="AT31" s="102" t="s">
+      <c r="AQ31" s="174"/>
+      <c r="AR31" s="174"/>
+      <c r="AS31" s="175"/>
+      <c r="AT31" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="AU31" s="103"/>
-      <c r="AV31" s="103"/>
-      <c r="AW31" s="103"/>
-      <c r="AX31" s="118"/>
-      <c r="AY31" s="119" t="s">
+      <c r="AU31" s="141"/>
+      <c r="AV31" s="141"/>
+      <c r="AW31" s="141"/>
+      <c r="AX31" s="186"/>
+      <c r="AY31" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="AZ31" s="120"/>
-      <c r="BA31" s="120"/>
-      <c r="BB31" s="120"/>
-      <c r="BC31" s="120"/>
+      <c r="AZ31" s="188"/>
+      <c r="BA31" s="188"/>
+      <c r="BB31" s="188"/>
+      <c r="BC31" s="188"/>
       <c r="BD31" s="28"/>
       <c r="BE31" s="49">
         <v>8</v>
@@ -4424,76 +4410,76 @@
         <v>49</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="102" t="s">
+      <c r="D32" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="121" t="s">
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="141"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="186"/>
+      <c r="M32" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="117" t="s">
+      <c r="N32" s="169"/>
+      <c r="O32" s="169"/>
+      <c r="P32" s="184"/>
+      <c r="Q32" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="R32" s="112"/>
-      <c r="S32" s="112"/>
-      <c r="T32" s="112"/>
-      <c r="U32" s="112"/>
-      <c r="V32" s="112"/>
-      <c r="W32" s="112"/>
-      <c r="X32" s="112"/>
-      <c r="Y32" s="112"/>
-      <c r="Z32" s="112"/>
-      <c r="AA32" s="112"/>
-      <c r="AB32" s="112"/>
-      <c r="AC32" s="123"/>
-      <c r="AD32" s="124" t="s">
+      <c r="R32" s="177"/>
+      <c r="S32" s="177"/>
+      <c r="T32" s="177"/>
+      <c r="U32" s="177"/>
+      <c r="V32" s="177"/>
+      <c r="W32" s="177"/>
+      <c r="X32" s="177"/>
+      <c r="Y32" s="177"/>
+      <c r="Z32" s="177"/>
+      <c r="AA32" s="177"/>
+      <c r="AB32" s="177"/>
+      <c r="AC32" s="189"/>
+      <c r="AD32" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="AE32" s="115"/>
-      <c r="AF32" s="115"/>
-      <c r="AG32" s="115"/>
-      <c r="AH32" s="125" t="s">
+      <c r="AE32" s="174"/>
+      <c r="AF32" s="174"/>
+      <c r="AG32" s="174"/>
+      <c r="AH32" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="AI32" s="126"/>
-      <c r="AJ32" s="126"/>
-      <c r="AK32" s="126"/>
-      <c r="AL32" s="127"/>
-      <c r="AM32" s="128" t="s">
+      <c r="AI32" s="160"/>
+      <c r="AJ32" s="160"/>
+      <c r="AK32" s="160"/>
+      <c r="AL32" s="161"/>
+      <c r="AM32" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="AN32" s="129"/>
-      <c r="AO32" s="130"/>
-      <c r="AP32" s="131" t="s">
+      <c r="AN32" s="193"/>
+      <c r="AO32" s="194"/>
+      <c r="AP32" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="AQ32" s="131"/>
-      <c r="AR32" s="131"/>
-      <c r="AS32" s="132"/>
-      <c r="AT32" s="124" t="s">
+      <c r="AQ32" s="163"/>
+      <c r="AR32" s="163"/>
+      <c r="AS32" s="164"/>
+      <c r="AT32" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="AU32" s="115"/>
-      <c r="AV32" s="115"/>
-      <c r="AW32" s="116"/>
-      <c r="AX32" s="92" t="s">
+      <c r="AU32" s="174"/>
+      <c r="AV32" s="174"/>
+      <c r="AW32" s="175"/>
+      <c r="AX32" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="AY32" s="93"/>
-      <c r="AZ32" s="93"/>
-      <c r="BA32" s="93"/>
-      <c r="BB32" s="93"/>
-      <c r="BC32" s="93"/>
+      <c r="AY32" s="166"/>
+      <c r="AZ32" s="166"/>
+      <c r="BA32" s="166"/>
+      <c r="BB32" s="166"/>
+      <c r="BC32" s="166"/>
       <c r="BD32" s="24"/>
       <c r="BE32" s="49">
         <v>8</v>
@@ -4530,76 +4516,76 @@
         <v>50</v>
       </c>
       <c r="C33" s="48"/>
-      <c r="D33" s="94" t="s">
+      <c r="D33" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="96" t="s">
+      <c r="E33" s="169"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="169"/>
+      <c r="H33" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="97"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="97"/>
-      <c r="L33" s="98"/>
-      <c r="M33" s="99" t="s">
+      <c r="I33" s="196"/>
+      <c r="J33" s="196"/>
+      <c r="K33" s="196"/>
+      <c r="L33" s="197"/>
+      <c r="M33" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="N33" s="100"/>
-      <c r="O33" s="100"/>
-      <c r="P33" s="100"/>
-      <c r="Q33" s="100"/>
-      <c r="R33" s="100"/>
-      <c r="S33" s="100"/>
-      <c r="T33" s="101"/>
-      <c r="U33" s="102" t="s">
+      <c r="N33" s="117"/>
+      <c r="O33" s="117"/>
+      <c r="P33" s="117"/>
+      <c r="Q33" s="117"/>
+      <c r="R33" s="117"/>
+      <c r="S33" s="117"/>
+      <c r="T33" s="118"/>
+      <c r="U33" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="V33" s="103"/>
-      <c r="W33" s="103"/>
-      <c r="X33" s="103"/>
-      <c r="Y33" s="103"/>
-      <c r="Z33" s="103"/>
-      <c r="AA33" s="103"/>
-      <c r="AB33" s="103"/>
-      <c r="AC33" s="103"/>
-      <c r="AD33" s="103"/>
-      <c r="AE33" s="103"/>
-      <c r="AF33" s="103"/>
-      <c r="AG33" s="104"/>
-      <c r="AH33" s="105" t="s">
+      <c r="V33" s="141"/>
+      <c r="W33" s="141"/>
+      <c r="X33" s="141"/>
+      <c r="Y33" s="141"/>
+      <c r="Z33" s="141"/>
+      <c r="AA33" s="141"/>
+      <c r="AB33" s="141"/>
+      <c r="AC33" s="141"/>
+      <c r="AD33" s="141"/>
+      <c r="AE33" s="141"/>
+      <c r="AF33" s="141"/>
+      <c r="AG33" s="199"/>
+      <c r="AH33" s="200" t="s">
         <v>39</v>
       </c>
-      <c r="AI33" s="106"/>
-      <c r="AJ33" s="106"/>
-      <c r="AK33" s="107"/>
-      <c r="AL33" s="108" t="s">
+      <c r="AI33" s="201"/>
+      <c r="AJ33" s="201"/>
+      <c r="AK33" s="202"/>
+      <c r="AL33" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="AM33" s="109"/>
-      <c r="AN33" s="109"/>
-      <c r="AO33" s="110"/>
-      <c r="AP33" s="111" t="s">
+      <c r="AM33" s="172"/>
+      <c r="AN33" s="172"/>
+      <c r="AO33" s="173"/>
+      <c r="AP33" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="AQ33" s="112"/>
-      <c r="AR33" s="112"/>
-      <c r="AS33" s="112"/>
-      <c r="AT33" s="112"/>
-      <c r="AU33" s="112"/>
-      <c r="AV33" s="112"/>
-      <c r="AW33" s="113"/>
-      <c r="AX33" s="114" t="s">
+      <c r="AQ33" s="177"/>
+      <c r="AR33" s="177"/>
+      <c r="AS33" s="177"/>
+      <c r="AT33" s="177"/>
+      <c r="AU33" s="177"/>
+      <c r="AV33" s="177"/>
+      <c r="AW33" s="178"/>
+      <c r="AX33" s="179" t="s">
         <v>39</v>
       </c>
-      <c r="AY33" s="115"/>
-      <c r="AZ33" s="115"/>
-      <c r="BA33" s="116"/>
-      <c r="BB33" s="117" t="s">
+      <c r="AY33" s="174"/>
+      <c r="AZ33" s="174"/>
+      <c r="BA33" s="175"/>
+      <c r="BB33" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="BC33" s="112"/>
+      <c r="BC33" s="177"/>
       <c r="BD33" s="37"/>
       <c r="BE33" s="49">
         <v>8</v>
@@ -4858,66 +4844,66 @@
       <c r="B36" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="77"/>
-      <c r="N36" s="77"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="77"/>
-      <c r="Q36" s="77"/>
-      <c r="R36" s="77"/>
-      <c r="S36" s="77"/>
-      <c r="T36" s="77"/>
-      <c r="U36" s="77"/>
-      <c r="V36" s="77"/>
-      <c r="W36" s="78" t="s">
+      <c r="C36" s="207"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="207"/>
+      <c r="F36" s="207"/>
+      <c r="G36" s="205"/>
+      <c r="H36" s="206"/>
+      <c r="I36" s="206"/>
+      <c r="J36" s="208"/>
+      <c r="K36" s="207"/>
+      <c r="L36" s="207"/>
+      <c r="M36" s="207"/>
+      <c r="N36" s="207"/>
+      <c r="O36" s="207"/>
+      <c r="P36" s="207"/>
+      <c r="Q36" s="207"/>
+      <c r="R36" s="207"/>
+      <c r="S36" s="207"/>
+      <c r="T36" s="207"/>
+      <c r="U36" s="207"/>
+      <c r="V36" s="207"/>
+      <c r="W36" s="209" t="s">
         <v>54</v>
       </c>
-      <c r="X36" s="79"/>
-      <c r="Y36" s="79"/>
-      <c r="Z36" s="80"/>
-      <c r="AA36" s="78" t="s">
+      <c r="X36" s="210"/>
+      <c r="Y36" s="210"/>
+      <c r="Z36" s="212"/>
+      <c r="AA36" s="209" t="s">
         <v>54</v>
       </c>
-      <c r="AB36" s="79"/>
-      <c r="AC36" s="79"/>
-      <c r="AD36" s="91"/>
-      <c r="AE36" s="77"/>
-      <c r="AF36" s="77"/>
-      <c r="AG36" s="77"/>
-      <c r="AH36" s="77"/>
-      <c r="AI36" s="77"/>
-      <c r="AJ36" s="77"/>
-      <c r="AK36" s="77"/>
-      <c r="AL36" s="77"/>
-      <c r="AM36" s="85" t="s">
+      <c r="AB36" s="210"/>
+      <c r="AC36" s="210"/>
+      <c r="AD36" s="211"/>
+      <c r="AE36" s="207"/>
+      <c r="AF36" s="207"/>
+      <c r="AG36" s="207"/>
+      <c r="AH36" s="207"/>
+      <c r="AI36" s="207"/>
+      <c r="AJ36" s="207"/>
+      <c r="AK36" s="207"/>
+      <c r="AL36" s="207"/>
+      <c r="AM36" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="AN36" s="86"/>
-      <c r="AO36" s="86"/>
-      <c r="AP36" s="90"/>
-      <c r="AQ36" s="85" t="s">
+      <c r="AN36" s="90"/>
+      <c r="AO36" s="90"/>
+      <c r="AP36" s="99"/>
+      <c r="AQ36" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="AR36" s="86"/>
-      <c r="AS36" s="86"/>
-      <c r="AT36" s="90"/>
-      <c r="AU36" s="77"/>
-      <c r="AV36" s="77"/>
-      <c r="AW36" s="77"/>
-      <c r="AX36" s="77"/>
-      <c r="AY36" s="87"/>
-      <c r="AZ36" s="88"/>
-      <c r="BA36" s="88"/>
-      <c r="BB36" s="88"/>
+      <c r="AR36" s="90"/>
+      <c r="AS36" s="90"/>
+      <c r="AT36" s="99"/>
+      <c r="AU36" s="207"/>
+      <c r="AV36" s="207"/>
+      <c r="AW36" s="207"/>
+      <c r="AX36" s="207"/>
+      <c r="AY36" s="205"/>
+      <c r="AZ36" s="206"/>
+      <c r="BA36" s="206"/>
+      <c r="BB36" s="206"/>
       <c r="BC36" s="1"/>
     </row>
     <row r="37" spans="1:67">
@@ -4925,280 +4911,280 @@
       <c r="B37" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="77"/>
-      <c r="O37" s="77"/>
-      <c r="P37" s="77"/>
-      <c r="Q37" s="77"/>
-      <c r="R37" s="77"/>
-      <c r="S37" s="77"/>
-      <c r="T37" s="77"/>
-      <c r="U37" s="77"/>
-      <c r="V37" s="77"/>
-      <c r="W37" s="85" t="s">
+      <c r="C37" s="207"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="207"/>
+      <c r="F37" s="207"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="206"/>
+      <c r="I37" s="206"/>
+      <c r="J37" s="208"/>
+      <c r="K37" s="207"/>
+      <c r="L37" s="207"/>
+      <c r="M37" s="207"/>
+      <c r="N37" s="207"/>
+      <c r="O37" s="207"/>
+      <c r="P37" s="207"/>
+      <c r="Q37" s="207"/>
+      <c r="R37" s="207"/>
+      <c r="S37" s="207"/>
+      <c r="T37" s="207"/>
+      <c r="U37" s="207"/>
+      <c r="V37" s="207"/>
+      <c r="W37" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="X37" s="86"/>
-      <c r="Y37" s="86"/>
-      <c r="Z37" s="90"/>
-      <c r="AA37" s="85" t="s">
+      <c r="X37" s="90"/>
+      <c r="Y37" s="90"/>
+      <c r="Z37" s="99"/>
+      <c r="AA37" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="AB37" s="86"/>
-      <c r="AC37" s="86"/>
-      <c r="AD37" s="90"/>
-      <c r="AE37" s="77"/>
-      <c r="AF37" s="77"/>
-      <c r="AG37" s="77"/>
-      <c r="AH37" s="77"/>
-      <c r="AI37" s="77"/>
-      <c r="AJ37" s="77"/>
-      <c r="AK37" s="77"/>
-      <c r="AL37" s="77"/>
-      <c r="AM37" s="78" t="s">
+      <c r="AB37" s="90"/>
+      <c r="AC37" s="90"/>
+      <c r="AD37" s="99"/>
+      <c r="AE37" s="207"/>
+      <c r="AF37" s="207"/>
+      <c r="AG37" s="207"/>
+      <c r="AH37" s="207"/>
+      <c r="AI37" s="207"/>
+      <c r="AJ37" s="207"/>
+      <c r="AK37" s="207"/>
+      <c r="AL37" s="207"/>
+      <c r="AM37" s="209" t="s">
         <v>54</v>
       </c>
-      <c r="AN37" s="79"/>
-      <c r="AO37" s="79"/>
-      <c r="AP37" s="80"/>
-      <c r="AQ37" s="78" t="s">
+      <c r="AN37" s="210"/>
+      <c r="AO37" s="210"/>
+      <c r="AP37" s="212"/>
+      <c r="AQ37" s="209" t="s">
         <v>54</v>
       </c>
-      <c r="AR37" s="79"/>
-      <c r="AS37" s="79"/>
-      <c r="AT37" s="80"/>
-      <c r="AU37" s="77"/>
-      <c r="AV37" s="77"/>
-      <c r="AW37" s="77"/>
-      <c r="AX37" s="77"/>
-      <c r="AY37" s="87"/>
-      <c r="AZ37" s="88"/>
-      <c r="BA37" s="88"/>
-      <c r="BB37" s="88"/>
+      <c r="AR37" s="210"/>
+      <c r="AS37" s="210"/>
+      <c r="AT37" s="212"/>
+      <c r="AU37" s="207"/>
+      <c r="AV37" s="207"/>
+      <c r="AW37" s="207"/>
+      <c r="AX37" s="207"/>
+      <c r="AY37" s="205"/>
+      <c r="AZ37" s="206"/>
+      <c r="BA37" s="206"/>
+      <c r="BB37" s="206"/>
     </row>
     <row r="38" spans="1:67">
       <c r="A38" s="25"/>
       <c r="B38" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="77"/>
-      <c r="N38" s="77"/>
-      <c r="O38" s="77"/>
-      <c r="P38" s="77"/>
-      <c r="Q38" s="77"/>
-      <c r="R38" s="77"/>
-      <c r="S38" s="77"/>
-      <c r="T38" s="77"/>
-      <c r="U38" s="77"/>
-      <c r="V38" s="77"/>
-      <c r="W38" s="77"/>
-      <c r="X38" s="77"/>
-      <c r="Y38" s="77"/>
-      <c r="Z38" s="77"/>
-      <c r="AA38" s="77"/>
-      <c r="AB38" s="77"/>
-      <c r="AC38" s="77"/>
-      <c r="AD38" s="77"/>
-      <c r="AE38" s="78" t="s">
+      <c r="C38" s="207"/>
+      <c r="D38" s="207"/>
+      <c r="E38" s="207"/>
+      <c r="F38" s="207"/>
+      <c r="G38" s="205"/>
+      <c r="H38" s="206"/>
+      <c r="I38" s="206"/>
+      <c r="J38" s="208"/>
+      <c r="K38" s="207"/>
+      <c r="L38" s="207"/>
+      <c r="M38" s="207"/>
+      <c r="N38" s="207"/>
+      <c r="O38" s="207"/>
+      <c r="P38" s="207"/>
+      <c r="Q38" s="207"/>
+      <c r="R38" s="207"/>
+      <c r="S38" s="207"/>
+      <c r="T38" s="207"/>
+      <c r="U38" s="207"/>
+      <c r="V38" s="207"/>
+      <c r="W38" s="207"/>
+      <c r="X38" s="207"/>
+      <c r="Y38" s="207"/>
+      <c r="Z38" s="207"/>
+      <c r="AA38" s="207"/>
+      <c r="AB38" s="207"/>
+      <c r="AC38" s="207"/>
+      <c r="AD38" s="207"/>
+      <c r="AE38" s="209" t="s">
         <v>54</v>
       </c>
-      <c r="AF38" s="79"/>
-      <c r="AG38" s="79"/>
-      <c r="AH38" s="80"/>
-      <c r="AI38" s="78" t="s">
+      <c r="AF38" s="210"/>
+      <c r="AG38" s="210"/>
+      <c r="AH38" s="212"/>
+      <c r="AI38" s="209" t="s">
         <v>54</v>
       </c>
-      <c r="AJ38" s="79"/>
-      <c r="AK38" s="79"/>
-      <c r="AL38" s="80"/>
-      <c r="AM38" s="77"/>
-      <c r="AN38" s="77"/>
-      <c r="AO38" s="77"/>
-      <c r="AP38" s="77"/>
-      <c r="AQ38" s="77"/>
-      <c r="AR38" s="77"/>
-      <c r="AS38" s="77"/>
-      <c r="AT38" s="77"/>
-      <c r="AU38" s="85" t="s">
+      <c r="AJ38" s="210"/>
+      <c r="AK38" s="210"/>
+      <c r="AL38" s="212"/>
+      <c r="AM38" s="207"/>
+      <c r="AN38" s="207"/>
+      <c r="AO38" s="207"/>
+      <c r="AP38" s="207"/>
+      <c r="AQ38" s="207"/>
+      <c r="AR38" s="207"/>
+      <c r="AS38" s="207"/>
+      <c r="AT38" s="207"/>
+      <c r="AU38" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="AV38" s="86"/>
-      <c r="AW38" s="86"/>
-      <c r="AX38" s="90"/>
-      <c r="AY38" s="85" t="s">
+      <c r="AV38" s="90"/>
+      <c r="AW38" s="90"/>
+      <c r="AX38" s="99"/>
+      <c r="AY38" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="AZ38" s="86"/>
-      <c r="BA38" s="86"/>
-      <c r="BB38" s="86"/>
+      <c r="AZ38" s="90"/>
+      <c r="BA38" s="90"/>
+      <c r="BB38" s="90"/>
     </row>
     <row r="39" spans="1:67">
       <c r="A39" s="25"/>
       <c r="B39" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="77"/>
-      <c r="O39" s="77"/>
-      <c r="P39" s="77"/>
-      <c r="Q39" s="77"/>
-      <c r="R39" s="77"/>
-      <c r="S39" s="77"/>
-      <c r="T39" s="77"/>
-      <c r="U39" s="77"/>
-      <c r="V39" s="77"/>
-      <c r="W39" s="77"/>
-      <c r="X39" s="77"/>
-      <c r="Y39" s="77"/>
-      <c r="Z39" s="77"/>
-      <c r="AA39" s="77"/>
-      <c r="AB39" s="77"/>
-      <c r="AC39" s="77"/>
-      <c r="AD39" s="77"/>
-      <c r="AE39" s="85" t="s">
+      <c r="C39" s="207"/>
+      <c r="D39" s="207"/>
+      <c r="E39" s="207"/>
+      <c r="F39" s="207"/>
+      <c r="G39" s="205"/>
+      <c r="H39" s="206"/>
+      <c r="I39" s="206"/>
+      <c r="J39" s="208"/>
+      <c r="K39" s="207"/>
+      <c r="L39" s="207"/>
+      <c r="M39" s="207"/>
+      <c r="N39" s="207"/>
+      <c r="O39" s="207"/>
+      <c r="P39" s="207"/>
+      <c r="Q39" s="207"/>
+      <c r="R39" s="207"/>
+      <c r="S39" s="207"/>
+      <c r="T39" s="207"/>
+      <c r="U39" s="207"/>
+      <c r="V39" s="207"/>
+      <c r="W39" s="207"/>
+      <c r="X39" s="207"/>
+      <c r="Y39" s="207"/>
+      <c r="Z39" s="207"/>
+      <c r="AA39" s="207"/>
+      <c r="AB39" s="207"/>
+      <c r="AC39" s="207"/>
+      <c r="AD39" s="207"/>
+      <c r="AE39" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="AF39" s="86"/>
-      <c r="AG39" s="86"/>
-      <c r="AH39" s="90"/>
-      <c r="AI39" s="85" t="s">
+      <c r="AF39" s="90"/>
+      <c r="AG39" s="90"/>
+      <c r="AH39" s="99"/>
+      <c r="AI39" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="AJ39" s="86"/>
-      <c r="AK39" s="86"/>
-      <c r="AL39" s="90"/>
-      <c r="AM39" s="77"/>
-      <c r="AN39" s="77"/>
-      <c r="AO39" s="77"/>
-      <c r="AP39" s="77"/>
-      <c r="AQ39" s="77"/>
-      <c r="AR39" s="77"/>
-      <c r="AS39" s="77"/>
-      <c r="AT39" s="77"/>
-      <c r="AU39" s="78" t="s">
+      <c r="AJ39" s="90"/>
+      <c r="AK39" s="90"/>
+      <c r="AL39" s="99"/>
+      <c r="AM39" s="207"/>
+      <c r="AN39" s="207"/>
+      <c r="AO39" s="207"/>
+      <c r="AP39" s="207"/>
+      <c r="AQ39" s="207"/>
+      <c r="AR39" s="207"/>
+      <c r="AS39" s="207"/>
+      <c r="AT39" s="207"/>
+      <c r="AU39" s="209" t="s">
         <v>54</v>
       </c>
-      <c r="AV39" s="79"/>
-      <c r="AW39" s="79"/>
-      <c r="AX39" s="80"/>
-      <c r="AY39" s="81" t="s">
+      <c r="AV39" s="210"/>
+      <c r="AW39" s="210"/>
+      <c r="AX39" s="212"/>
+      <c r="AY39" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="AZ39" s="82"/>
-      <c r="BA39" s="82"/>
-      <c r="BB39" s="82"/>
+      <c r="AZ39" s="130"/>
+      <c r="BA39" s="130"/>
+      <c r="BB39" s="130"/>
     </row>
     <row r="40" spans="1:67">
       <c r="A40" s="25"/>
       <c r="B40" s="22"/>
-      <c r="C40" s="83" t="s">
+      <c r="C40" s="213" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="84" t="s">
+      <c r="D40" s="213"/>
+      <c r="E40" s="213"/>
+      <c r="F40" s="213"/>
+      <c r="G40" s="214" t="s">
         <v>58</v>
       </c>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="76" t="s">
+      <c r="H40" s="214"/>
+      <c r="I40" s="214"/>
+      <c r="J40" s="214"/>
+      <c r="K40" s="215" t="s">
         <v>59</v>
       </c>
-      <c r="L40" s="76"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="76"/>
-      <c r="O40" s="76" t="s">
+      <c r="L40" s="215"/>
+      <c r="M40" s="215"/>
+      <c r="N40" s="215"/>
+      <c r="O40" s="215" t="s">
         <v>60</v>
       </c>
-      <c r="P40" s="76"/>
-      <c r="Q40" s="76"/>
-      <c r="R40" s="76"/>
-      <c r="S40" s="76" t="s">
+      <c r="P40" s="215"/>
+      <c r="Q40" s="215"/>
+      <c r="R40" s="215"/>
+      <c r="S40" s="215" t="s">
         <v>61</v>
       </c>
-      <c r="T40" s="76"/>
-      <c r="U40" s="76"/>
-      <c r="V40" s="76"/>
-      <c r="W40" s="76" t="s">
+      <c r="T40" s="215"/>
+      <c r="U40" s="215"/>
+      <c r="V40" s="215"/>
+      <c r="W40" s="215" t="s">
         <v>62</v>
       </c>
-      <c r="X40" s="76"/>
-      <c r="Y40" s="76"/>
-      <c r="Z40" s="76"/>
-      <c r="AA40" s="76" t="s">
+      <c r="X40" s="215"/>
+      <c r="Y40" s="215"/>
+      <c r="Z40" s="215"/>
+      <c r="AA40" s="215" t="s">
         <v>63</v>
       </c>
-      <c r="AB40" s="76"/>
-      <c r="AC40" s="76"/>
-      <c r="AD40" s="76"/>
-      <c r="AE40" s="76" t="s">
+      <c r="AB40" s="215"/>
+      <c r="AC40" s="215"/>
+      <c r="AD40" s="215"/>
+      <c r="AE40" s="215" t="s">
         <v>64</v>
       </c>
-      <c r="AF40" s="76"/>
-      <c r="AG40" s="76"/>
-      <c r="AH40" s="76"/>
-      <c r="AI40" s="76" t="s">
+      <c r="AF40" s="215"/>
+      <c r="AG40" s="215"/>
+      <c r="AH40" s="215"/>
+      <c r="AI40" s="215" t="s">
         <v>65</v>
       </c>
-      <c r="AJ40" s="76"/>
-      <c r="AK40" s="76"/>
-      <c r="AL40" s="76"/>
-      <c r="AM40" s="76" t="s">
+      <c r="AJ40" s="215"/>
+      <c r="AK40" s="215"/>
+      <c r="AL40" s="215"/>
+      <c r="AM40" s="215" t="s">
         <v>66</v>
       </c>
-      <c r="AN40" s="76"/>
-      <c r="AO40" s="76"/>
-      <c r="AP40" s="76"/>
-      <c r="AQ40" s="76" t="s">
+      <c r="AN40" s="215"/>
+      <c r="AO40" s="215"/>
+      <c r="AP40" s="215"/>
+      <c r="AQ40" s="215" t="s">
         <v>67</v>
       </c>
-      <c r="AR40" s="76"/>
-      <c r="AS40" s="76"/>
-      <c r="AT40" s="76"/>
-      <c r="AU40" s="76" t="s">
+      <c r="AR40" s="215"/>
+      <c r="AS40" s="215"/>
+      <c r="AT40" s="215"/>
+      <c r="AU40" s="215" t="s">
         <v>68</v>
       </c>
-      <c r="AV40" s="76"/>
-      <c r="AW40" s="76"/>
-      <c r="AX40" s="76"/>
-      <c r="AY40" s="75" t="s">
+      <c r="AV40" s="215"/>
+      <c r="AW40" s="215"/>
+      <c r="AX40" s="215"/>
+      <c r="AY40" s="216" t="s">
         <v>69</v>
       </c>
-      <c r="AZ40" s="75"/>
-      <c r="BA40" s="75"/>
-      <c r="BB40" s="75"/>
+      <c r="AZ40" s="216"/>
+      <c r="BA40" s="216"/>
+      <c r="BB40" s="216"/>
     </row>
     <row r="41" spans="1:67" ht="32.1" customHeight="1"/>
     <row r="42" spans="1:67">
@@ -5482,121 +5468,47 @@
     </row>
   </sheetData>
   <mergeCells count="180">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D11:P11"/>
-    <mergeCell ref="Q11:AC11"/>
-    <mergeCell ref="AD11:AK11"/>
-    <mergeCell ref="AL11:AP11"/>
-    <mergeCell ref="AQ13:BC13"/>
-    <mergeCell ref="D14:P14"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="V14:AC14"/>
-    <mergeCell ref="AD14:AP14"/>
-    <mergeCell ref="AQ14:BC14"/>
-    <mergeCell ref="AQ11:BC11"/>
-    <mergeCell ref="D12:P12"/>
-    <mergeCell ref="Q12:AC12"/>
-    <mergeCell ref="AD12:AP12"/>
-    <mergeCell ref="AQ12:AW12"/>
-    <mergeCell ref="AX12:BC12"/>
-    <mergeCell ref="W15:AB15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="O16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AK16"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:AC13"/>
-    <mergeCell ref="AD13:AP13"/>
-    <mergeCell ref="AU17:BC17"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:U18"/>
-    <mergeCell ref="V18:AC18"/>
-    <mergeCell ref="AD18:AK18"/>
-    <mergeCell ref="AL18:BC18"/>
-    <mergeCell ref="AL16:AT16"/>
-    <mergeCell ref="AU16:AW16"/>
-    <mergeCell ref="AX16:BC16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="N17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="AH17:AK17"/>
-    <mergeCell ref="AL17:AP17"/>
-    <mergeCell ref="AQ17:AT17"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="M20:Y20"/>
-    <mergeCell ref="AD20:AP20"/>
-    <mergeCell ref="AQ20:BA20"/>
-    <mergeCell ref="BB20:BC20"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:N24"/>
-    <mergeCell ref="O24:T24"/>
-    <mergeCell ref="U24:AA24"/>
-    <mergeCell ref="AB24:AO24"/>
-    <mergeCell ref="AZ24:BC24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="Q25:AA25"/>
-    <mergeCell ref="AB25:AG25"/>
-    <mergeCell ref="AH25:AP25"/>
-    <mergeCell ref="AQ25:AT25"/>
-    <mergeCell ref="AU25:AX25"/>
-    <mergeCell ref="AY25:BC25"/>
-    <mergeCell ref="AL26:AO26"/>
-    <mergeCell ref="AP26:BC26"/>
-    <mergeCell ref="D27:P27"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="U27:AE27"/>
-    <mergeCell ref="AF27:AL27"/>
-    <mergeCell ref="AM27:AS27"/>
-    <mergeCell ref="AT27:AW27"/>
-    <mergeCell ref="AX27:BC27"/>
-    <mergeCell ref="D26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="U26:AA26"/>
-    <mergeCell ref="AB26:AG26"/>
-    <mergeCell ref="AH26:AK26"/>
-    <mergeCell ref="AP30:AS30"/>
-    <mergeCell ref="AT30:AX30"/>
-    <mergeCell ref="AY30:BC30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="M31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AC31"/>
-    <mergeCell ref="AD31:AO31"/>
-    <mergeCell ref="AP31:AS31"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="V30:Y30"/>
-    <mergeCell ref="Z30:AE30"/>
-    <mergeCell ref="AF30:AK30"/>
-    <mergeCell ref="AL30:AO30"/>
-    <mergeCell ref="AT31:AX31"/>
-    <mergeCell ref="AY31:BC31"/>
-    <mergeCell ref="D32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="Q32:AC32"/>
-    <mergeCell ref="AD32:AG32"/>
-    <mergeCell ref="AH32:AL32"/>
-    <mergeCell ref="AM32:AO32"/>
-    <mergeCell ref="AP32:AS32"/>
-    <mergeCell ref="AT32:AW32"/>
-    <mergeCell ref="AX32:BC32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="M33:T33"/>
-    <mergeCell ref="U33:AG33"/>
-    <mergeCell ref="AH33:AK33"/>
-    <mergeCell ref="AL33:AO33"/>
-    <mergeCell ref="AP33:AW33"/>
-    <mergeCell ref="AX33:BA33"/>
-    <mergeCell ref="BB33:BC33"/>
+    <mergeCell ref="AA38:AD38"/>
+    <mergeCell ref="AE38:AH38"/>
+    <mergeCell ref="AI38:AL38"/>
+    <mergeCell ref="AM38:AP38"/>
+    <mergeCell ref="AQ38:AT38"/>
+    <mergeCell ref="AU38:AX38"/>
+    <mergeCell ref="AY40:BB40"/>
+    <mergeCell ref="AA40:AD40"/>
+    <mergeCell ref="AE40:AH40"/>
+    <mergeCell ref="AI40:AL40"/>
+    <mergeCell ref="AM40:AP40"/>
+    <mergeCell ref="AQ40:AT40"/>
+    <mergeCell ref="AU40:AX40"/>
+    <mergeCell ref="AM39:AP39"/>
+    <mergeCell ref="AQ39:AT39"/>
+    <mergeCell ref="AU39:AX39"/>
+    <mergeCell ref="AY39:BB39"/>
+    <mergeCell ref="AU37:AX37"/>
+    <mergeCell ref="AY37:BB37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="W38:Z38"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="O40:R40"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="W40:Z40"/>
+    <mergeCell ref="AY38:BB38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="W39:Z39"/>
+    <mergeCell ref="AA39:AD39"/>
+    <mergeCell ref="AE39:AH39"/>
+    <mergeCell ref="AI39:AL39"/>
     <mergeCell ref="AY36:BB36"/>
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="G37:J37"/>
@@ -5621,47 +5533,121 @@
     <mergeCell ref="W36:Z36"/>
     <mergeCell ref="AM37:AP37"/>
     <mergeCell ref="AQ37:AT37"/>
-    <mergeCell ref="AU37:AX37"/>
-    <mergeCell ref="AY37:BB37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="W38:Z38"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="O40:R40"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="W40:Z40"/>
-    <mergeCell ref="AY38:BB38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="W39:Z39"/>
-    <mergeCell ref="AA39:AD39"/>
-    <mergeCell ref="AE39:AH39"/>
-    <mergeCell ref="AI39:AL39"/>
-    <mergeCell ref="AA38:AD38"/>
-    <mergeCell ref="AE38:AH38"/>
-    <mergeCell ref="AI38:AL38"/>
-    <mergeCell ref="AM38:AP38"/>
-    <mergeCell ref="AQ38:AT38"/>
-    <mergeCell ref="AU38:AX38"/>
-    <mergeCell ref="AY40:BB40"/>
-    <mergeCell ref="AA40:AD40"/>
-    <mergeCell ref="AE40:AH40"/>
-    <mergeCell ref="AI40:AL40"/>
-    <mergeCell ref="AM40:AP40"/>
-    <mergeCell ref="AQ40:AT40"/>
-    <mergeCell ref="AU40:AX40"/>
-    <mergeCell ref="AM39:AP39"/>
-    <mergeCell ref="AQ39:AT39"/>
-    <mergeCell ref="AU39:AX39"/>
-    <mergeCell ref="AY39:BB39"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="M33:T33"/>
+    <mergeCell ref="U33:AG33"/>
+    <mergeCell ref="AH33:AK33"/>
+    <mergeCell ref="AL33:AO33"/>
+    <mergeCell ref="AP33:AW33"/>
+    <mergeCell ref="AX33:BA33"/>
+    <mergeCell ref="BB33:BC33"/>
+    <mergeCell ref="D32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="Q32:AC32"/>
+    <mergeCell ref="AD32:AG32"/>
+    <mergeCell ref="AH32:AL32"/>
+    <mergeCell ref="AM32:AO32"/>
+    <mergeCell ref="AP32:AS32"/>
+    <mergeCell ref="AT32:AW32"/>
+    <mergeCell ref="AX32:BC32"/>
+    <mergeCell ref="AP30:AS30"/>
+    <mergeCell ref="AT30:AX30"/>
+    <mergeCell ref="AY30:BC30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="M31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="Z31:AC31"/>
+    <mergeCell ref="AD31:AO31"/>
+    <mergeCell ref="AP31:AS31"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="V30:Y30"/>
+    <mergeCell ref="Z30:AE30"/>
+    <mergeCell ref="AF30:AK30"/>
+    <mergeCell ref="AL30:AO30"/>
+    <mergeCell ref="AT31:AX31"/>
+    <mergeCell ref="AY31:BC31"/>
+    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="U27:AE27"/>
+    <mergeCell ref="AF27:AL27"/>
+    <mergeCell ref="AM27:AS27"/>
+    <mergeCell ref="AT27:AW27"/>
+    <mergeCell ref="AX27:BC27"/>
+    <mergeCell ref="D26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="U26:AA26"/>
+    <mergeCell ref="AB26:AG26"/>
+    <mergeCell ref="AH26:AK26"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="Q25:AA25"/>
+    <mergeCell ref="AB25:AG25"/>
+    <mergeCell ref="AH25:AP25"/>
+    <mergeCell ref="AQ25:AT25"/>
+    <mergeCell ref="AU25:AX25"/>
+    <mergeCell ref="AY25:BC25"/>
+    <mergeCell ref="AL26:AO26"/>
+    <mergeCell ref="AP26:BC26"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="M20:Y20"/>
+    <mergeCell ref="AD20:AP20"/>
+    <mergeCell ref="AQ20:BA20"/>
+    <mergeCell ref="BB20:BC20"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:N24"/>
+    <mergeCell ref="O24:T24"/>
+    <mergeCell ref="U24:AA24"/>
+    <mergeCell ref="AB24:AO24"/>
+    <mergeCell ref="AZ24:BC24"/>
+    <mergeCell ref="AU17:BC17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:U18"/>
+    <mergeCell ref="V18:AC18"/>
+    <mergeCell ref="AD18:AK18"/>
+    <mergeCell ref="AL18:BC18"/>
+    <mergeCell ref="AL16:AT16"/>
+    <mergeCell ref="AU16:AW16"/>
+    <mergeCell ref="AX16:BC16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="N17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="AH17:AK17"/>
+    <mergeCell ref="AL17:AP17"/>
+    <mergeCell ref="AQ17:AT17"/>
+    <mergeCell ref="W15:AB15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="O16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AK16"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:AC13"/>
+    <mergeCell ref="AD13:AP13"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D11:P11"/>
+    <mergeCell ref="Q11:AC11"/>
+    <mergeCell ref="AD11:AK11"/>
+    <mergeCell ref="AL11:AP11"/>
+    <mergeCell ref="AQ13:BC13"/>
+    <mergeCell ref="D14:P14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="V14:AC14"/>
+    <mergeCell ref="AD14:AP14"/>
+    <mergeCell ref="AQ14:BC14"/>
+    <mergeCell ref="AQ11:BC11"/>
+    <mergeCell ref="D12:P12"/>
+    <mergeCell ref="Q12:AC12"/>
+    <mergeCell ref="AD12:AP12"/>
+    <mergeCell ref="AQ12:AW12"/>
+    <mergeCell ref="AX12:BC12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input-files/vacation scheduling.xlsx
+++ b/input-files/vacation scheduling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\stefan\dev\call-schedule\input-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisazhang/Desktop/Call schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B21CF2-4C96-4B2F-943E-693BC84B8339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6BF2DD-6904-C349-98C1-500E1F2CB17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17325" xr2:uid="{15015D36-1785-DC4E-8172-12441D53D08D}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="19280" windowHeight="18380" xr2:uid="{15015D36-1785-DC4E-8172-12441D53D08D}"/>
   </bookViews>
   <sheets>
     <sheet name="AY25 draft clean" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="132">
   <si>
     <t>July 1st</t>
   </si>
@@ -276,6 +276,9 @@
     <t>LX1</t>
   </si>
   <si>
+    <t>TB</t>
+  </si>
+  <si>
     <t>MB1</t>
   </si>
   <si>
@@ -288,6 +291,9 @@
     <t>TM1</t>
   </si>
   <si>
+    <t>HS</t>
+  </si>
+  <si>
     <t>KO (S1)</t>
   </si>
   <si>
@@ -427,26 +433,16 @@
   </si>
   <si>
     <t>CPu3</t>
-  </si>
-  <si>
-    <t>MAD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1048,174 +1044,173 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1224,37 +1219,37 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1263,37 +1258,37 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1314,43 +1309,43 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1362,43 +1357,43 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1407,40 +1402,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1461,16 +1456,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1479,133 +1474,133 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1945,229 +1940,227 @@
   <dimension ref="A1:BO49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="AW2" sqref="AW2"/>
+      <selection activeCell="AP9" sqref="AP9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" customWidth="1"/>
     <col min="4" max="55" width="2.5" customWidth="1"/>
-    <col min="56" max="56" width="22.125" style="1" customWidth="1"/>
+    <col min="56" max="56" width="22.1640625" style="1" customWidth="1"/>
     <col min="57" max="57" width="6.5" customWidth="1"/>
-    <col min="58" max="58" width="4.875" customWidth="1"/>
+    <col min="58" max="58" width="4.83203125" customWidth="1"/>
     <col min="59" max="59" width="5.5" customWidth="1"/>
-    <col min="60" max="60" width="6.375" customWidth="1"/>
-    <col min="61" max="61" width="5.375" customWidth="1"/>
-    <col min="62" max="62" width="5.125" customWidth="1"/>
-    <col min="63" max="63" width="5.625" customWidth="1"/>
-    <col min="64" max="64" width="5.375" customWidth="1"/>
-    <col min="65" max="65" width="5.625" customWidth="1"/>
-    <col min="66" max="66" width="6.375" customWidth="1"/>
-    <col min="67" max="67" width="8.125" customWidth="1"/>
+    <col min="60" max="60" width="6.33203125" customWidth="1"/>
+    <col min="61" max="61" width="5.33203125" customWidth="1"/>
+    <col min="62" max="62" width="5.1640625" customWidth="1"/>
+    <col min="63" max="63" width="5.6640625" customWidth="1"/>
+    <col min="64" max="64" width="5.33203125" customWidth="1"/>
+    <col min="65" max="65" width="5.6640625" customWidth="1"/>
+    <col min="66" max="66" width="6.33203125" customWidth="1"/>
+    <col min="67" max="67" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67">
       <c r="G1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="I1" t="s">
         <v>73</v>
       </c>
       <c r="J1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K1" t="s">
         <v>77</v>
       </c>
       <c r="L1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N1" t="s">
         <v>71</v>
       </c>
       <c r="O1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P1" t="s">
         <v>74</v>
       </c>
       <c r="Q1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="R1" t="s">
         <v>70</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="X1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y1" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC1" s="70" t="s">
         <v>89</v>
-      </c>
-      <c r="T1" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="V1" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="W1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y1" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC1" s="70" t="s">
-        <v>87</v>
       </c>
       <c r="AD1" s="70" t="s">
         <v>71</v>
       </c>
       <c r="AE1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF1" t="s">
         <v>72</v>
       </c>
       <c r="AJ1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK1" s="72" t="s">
-        <v>120</v>
+        <v>95</v>
+      </c>
+      <c r="AK1" s="71" t="s">
+        <v>122</v>
       </c>
       <c r="AL1" s="70" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AM1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN1" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="AN1" s="73" t="s">
+      <c r="AO1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT1" t="s">
         <v>113</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>90</v>
       </c>
       <c r="AV1" t="s">
         <v>76</v>
       </c>
       <c r="AW1" t="s">
-        <v>130</v>
+        <v>84</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>92</v>
       </c>
       <c r="AY1" t="s">
         <v>78</v>
       </c>
-      <c r="AZ1" s="72" t="s">
-        <v>98</v>
+      <c r="AZ1" s="71" t="s">
+        <v>100</v>
       </c>
       <c r="BA1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:67">
       <c r="N2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P2" s="70" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="Q2" s="71" t="s">
+        <v>123</v>
       </c>
       <c r="R2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AA2" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="AB2" s="73" t="s">
+        <v>106</v>
       </c>
       <c r="AC2" s="70" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AD2" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE2" s="73" t="s">
-        <v>126</v>
+        <v>94</v>
+      </c>
+      <c r="AE2" s="72" t="s">
+        <v>128</v>
       </c>
       <c r="AK2" s="70" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AN2" s="74" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="AN2" s="73" t="s">
+        <v>118</v>
       </c>
       <c r="AO2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AR2" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AV2" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="AX2" s="70" t="s">
-        <v>122</v>
+        <v>98</v>
+      </c>
+      <c r="AV2" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW2" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>93</v>
       </c>
       <c r="AY2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BA2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:67">
       <c r="P3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB3" s="74" t="s">
-        <v>104</v>
+        <v>130</v>
+      </c>
+      <c r="R3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB3" s="73" t="s">
+        <v>105</v>
       </c>
       <c r="AC3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AO3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AU3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:67">
-      <c r="P4" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC4" s="74" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE4" s="74"/>
+      <c r="AC4" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE4" s="73"/>
     </row>
-    <row r="5" spans="1:67">
-      <c r="AB5" s="74" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:67" ht="38.25" thickBot="1">
+    <row r="8" spans="1:67" ht="40" thickBot="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2380,8 +2373,8 @@
       <c r="BD8" s="3"/>
     </row>
     <row r="9" spans="1:67">
-      <c r="A9" s="75"/>
-      <c r="B9" s="76"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
         <v>0</v>
@@ -2446,8 +2439,8 @@
       <c r="BD9" s="2"/>
     </row>
     <row r="10" spans="1:67">
-      <c r="A10" s="77"/>
-      <c r="B10" s="78"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="12"/>
       <c r="D10" s="13">
         <v>1</v>
@@ -2646,68 +2639,68 @@
         <v>15</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="80" t="s">
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="80"/>
-      <c r="S11" s="80"/>
-      <c r="T11" s="80"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="80"/>
-      <c r="W11" s="80"/>
-      <c r="X11" s="80"/>
-      <c r="Y11" s="80"/>
-      <c r="Z11" s="80"/>
-      <c r="AA11" s="80"/>
-      <c r="AB11" s="80"/>
-      <c r="AC11" s="80"/>
-      <c r="AD11" s="81" t="s">
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AE11" s="82"/>
-      <c r="AF11" s="82"/>
-      <c r="AG11" s="82"/>
-      <c r="AH11" s="82"/>
-      <c r="AI11" s="82"/>
-      <c r="AJ11" s="82"/>
-      <c r="AK11" s="83"/>
-      <c r="AL11" s="84" t="s">
+      <c r="AE11" s="81"/>
+      <c r="AF11" s="81"/>
+      <c r="AG11" s="81"/>
+      <c r="AH11" s="81"/>
+      <c r="AI11" s="81"/>
+      <c r="AJ11" s="81"/>
+      <c r="AK11" s="82"/>
+      <c r="AL11" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="AM11" s="85"/>
-      <c r="AN11" s="85"/>
-      <c r="AO11" s="85"/>
-      <c r="AP11" s="86"/>
-      <c r="AQ11" s="80" t="s">
+      <c r="AM11" s="84"/>
+      <c r="AN11" s="84"/>
+      <c r="AO11" s="84"/>
+      <c r="AP11" s="85"/>
+      <c r="AQ11" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="AR11" s="80"/>
-      <c r="AS11" s="80"/>
-      <c r="AT11" s="80"/>
-      <c r="AU11" s="80"/>
-      <c r="AV11" s="80"/>
-      <c r="AW11" s="80"/>
-      <c r="AX11" s="80"/>
-      <c r="AY11" s="80"/>
-      <c r="AZ11" s="80"/>
-      <c r="BA11" s="80"/>
-      <c r="BB11" s="80"/>
-      <c r="BC11" s="80"/>
+      <c r="AR11" s="79"/>
+      <c r="AS11" s="79"/>
+      <c r="AT11" s="79"/>
+      <c r="AU11" s="79"/>
+      <c r="AV11" s="79"/>
+      <c r="AW11" s="79"/>
+      <c r="AX11" s="79"/>
+      <c r="AY11" s="79"/>
+      <c r="AZ11" s="79"/>
+      <c r="BA11" s="79"/>
+      <c r="BB11" s="79"/>
+      <c r="BC11" s="79"/>
       <c r="BD11" s="23"/>
       <c r="BF11" s="20">
         <v>26</v>
@@ -2743,68 +2736,68 @@
         <v>21</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="80" t="s">
+      <c r="D12" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="79" t="s">
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="R12" s="79"/>
-      <c r="S12" s="79"/>
-      <c r="T12" s="79"/>
-      <c r="U12" s="79"/>
-      <c r="V12" s="79"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="79"/>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="79"/>
-      <c r="AC12" s="79"/>
-      <c r="AD12" s="80" t="s">
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="78"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="AE12" s="80"/>
-      <c r="AF12" s="80"/>
-      <c r="AG12" s="80"/>
-      <c r="AH12" s="80"/>
-      <c r="AI12" s="80"/>
-      <c r="AJ12" s="80"/>
-      <c r="AK12" s="80"/>
-      <c r="AL12" s="80"/>
-      <c r="AM12" s="80"/>
-      <c r="AN12" s="80"/>
-      <c r="AO12" s="80"/>
-      <c r="AP12" s="80"/>
-      <c r="AQ12" s="81" t="s">
+      <c r="AE12" s="79"/>
+      <c r="AF12" s="79"/>
+      <c r="AG12" s="79"/>
+      <c r="AH12" s="79"/>
+      <c r="AI12" s="79"/>
+      <c r="AJ12" s="79"/>
+      <c r="AK12" s="79"/>
+      <c r="AL12" s="79"/>
+      <c r="AM12" s="79"/>
+      <c r="AN12" s="79"/>
+      <c r="AO12" s="79"/>
+      <c r="AP12" s="79"/>
+      <c r="AQ12" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AR12" s="82"/>
-      <c r="AS12" s="82"/>
-      <c r="AT12" s="82"/>
-      <c r="AU12" s="82"/>
-      <c r="AV12" s="82"/>
-      <c r="AW12" s="83"/>
-      <c r="AX12" s="84" t="s">
+      <c r="AR12" s="81"/>
+      <c r="AS12" s="81"/>
+      <c r="AT12" s="81"/>
+      <c r="AU12" s="81"/>
+      <c r="AV12" s="81"/>
+      <c r="AW12" s="82"/>
+      <c r="AX12" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="AY12" s="85"/>
-      <c r="AZ12" s="85"/>
-      <c r="BA12" s="85"/>
-      <c r="BB12" s="85"/>
-      <c r="BC12" s="86"/>
+      <c r="AY12" s="84"/>
+      <c r="AZ12" s="84"/>
+      <c r="BA12" s="84"/>
+      <c r="BB12" s="84"/>
+      <c r="BC12" s="85"/>
       <c r="BD12" s="26"/>
       <c r="BF12" s="20">
         <v>26</v>
@@ -2838,68 +2831,68 @@
         <v>22</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="81" t="s">
+      <c r="D13" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="84" t="s">
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="80" t="s">
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="80"/>
-      <c r="Y13" s="80"/>
-      <c r="Z13" s="80"/>
-      <c r="AA13" s="80"/>
-      <c r="AB13" s="80"/>
-      <c r="AC13" s="80"/>
-      <c r="AD13" s="79" t="s">
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="79"/>
+      <c r="Z13" s="79"/>
+      <c r="AA13" s="79"/>
+      <c r="AB13" s="79"/>
+      <c r="AC13" s="79"/>
+      <c r="AD13" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="AE13" s="79"/>
-      <c r="AF13" s="79"/>
-      <c r="AG13" s="79"/>
-      <c r="AH13" s="79"/>
-      <c r="AI13" s="79"/>
-      <c r="AJ13" s="79"/>
-      <c r="AK13" s="79"/>
-      <c r="AL13" s="79"/>
-      <c r="AM13" s="79"/>
-      <c r="AN13" s="79"/>
-      <c r="AO13" s="79"/>
-      <c r="AP13" s="79"/>
-      <c r="AQ13" s="80" t="s">
+      <c r="AE13" s="78"/>
+      <c r="AF13" s="78"/>
+      <c r="AG13" s="78"/>
+      <c r="AH13" s="78"/>
+      <c r="AI13" s="78"/>
+      <c r="AJ13" s="78"/>
+      <c r="AK13" s="78"/>
+      <c r="AL13" s="78"/>
+      <c r="AM13" s="78"/>
+      <c r="AN13" s="78"/>
+      <c r="AO13" s="78"/>
+      <c r="AP13" s="78"/>
+      <c r="AQ13" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="AR13" s="80"/>
-      <c r="AS13" s="80"/>
-      <c r="AT13" s="80"/>
-      <c r="AU13" s="80"/>
-      <c r="AV13" s="80"/>
-      <c r="AW13" s="80"/>
-      <c r="AX13" s="80"/>
-      <c r="AY13" s="80"/>
-      <c r="AZ13" s="80"/>
-      <c r="BA13" s="80"/>
-      <c r="BB13" s="80"/>
-      <c r="BC13" s="80"/>
+      <c r="AR13" s="79"/>
+      <c r="AS13" s="79"/>
+      <c r="AT13" s="79"/>
+      <c r="AU13" s="79"/>
+      <c r="AV13" s="79"/>
+      <c r="AW13" s="79"/>
+      <c r="AX13" s="79"/>
+      <c r="AY13" s="79"/>
+      <c r="AZ13" s="79"/>
+      <c r="BA13" s="79"/>
+      <c r="BB13" s="79"/>
+      <c r="BC13" s="79"/>
       <c r="BD13" s="23"/>
       <c r="BF13" s="20">
         <v>26</v>
@@ -2933,68 +2926,68 @@
         <v>23</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="84" t="s">
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="R14" s="85"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="81" t="s">
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="W14" s="82"/>
-      <c r="X14" s="82"/>
-      <c r="Y14" s="82"/>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="82"/>
-      <c r="AB14" s="82"/>
-      <c r="AC14" s="83"/>
-      <c r="AD14" s="80" t="s">
+      <c r="W14" s="81"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="81"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="AE14" s="80"/>
-      <c r="AF14" s="80"/>
-      <c r="AG14" s="80"/>
-      <c r="AH14" s="80"/>
-      <c r="AI14" s="80"/>
-      <c r="AJ14" s="80"/>
-      <c r="AK14" s="80"/>
-      <c r="AL14" s="80"/>
-      <c r="AM14" s="80"/>
-      <c r="AN14" s="80"/>
-      <c r="AO14" s="80"/>
-      <c r="AP14" s="80"/>
-      <c r="AQ14" s="79" t="s">
+      <c r="AE14" s="79"/>
+      <c r="AF14" s="79"/>
+      <c r="AG14" s="79"/>
+      <c r="AH14" s="79"/>
+      <c r="AI14" s="79"/>
+      <c r="AJ14" s="79"/>
+      <c r="AK14" s="79"/>
+      <c r="AL14" s="79"/>
+      <c r="AM14" s="79"/>
+      <c r="AN14" s="79"/>
+      <c r="AO14" s="79"/>
+      <c r="AP14" s="79"/>
+      <c r="AQ14" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="AR14" s="79"/>
-      <c r="AS14" s="79"/>
-      <c r="AT14" s="79"/>
-      <c r="AU14" s="79"/>
-      <c r="AV14" s="79"/>
-      <c r="AW14" s="79"/>
-      <c r="AX14" s="79"/>
-      <c r="AY14" s="79"/>
-      <c r="AZ14" s="79"/>
-      <c r="BA14" s="79"/>
-      <c r="BB14" s="79"/>
-      <c r="BC14" s="79"/>
+      <c r="AR14" s="78"/>
+      <c r="AS14" s="78"/>
+      <c r="AT14" s="78"/>
+      <c r="AU14" s="78"/>
+      <c r="AV14" s="78"/>
+      <c r="AW14" s="78"/>
+      <c r="AX14" s="78"/>
+      <c r="AY14" s="78"/>
+      <c r="AZ14" s="78"/>
+      <c r="BA14" s="78"/>
+      <c r="BB14" s="78"/>
+      <c r="BC14" s="78"/>
       <c r="BD14" s="23"/>
       <c r="BF14" s="20">
         <v>26</v>
@@ -3044,12 +3037,12 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="87"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="87"/>
-      <c r="AB15" s="87"/>
+      <c r="W15" s="86"/>
+      <c r="X15" s="86"/>
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="86"/>
+      <c r="AA15" s="86"/>
+      <c r="AB15" s="86"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
@@ -3086,74 +3079,74 @@
         <v>25</v>
       </c>
       <c r="C16" s="27"/>
-      <c r="D16" s="80" t="s">
+      <c r="D16" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="88" t="s">
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="89" t="s">
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="90"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="90"/>
-      <c r="AA16" s="90"/>
-      <c r="AB16" s="91" t="s">
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="89"/>
+      <c r="Z16" s="89"/>
+      <c r="AA16" s="89"/>
+      <c r="AB16" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="AC16" s="92"/>
-      <c r="AD16" s="93" t="s">
+      <c r="AC16" s="91"/>
+      <c r="AD16" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="93"/>
-      <c r="AJ16" s="93"/>
-      <c r="AK16" s="93"/>
-      <c r="AL16" s="94" t="s">
+      <c r="AE16" s="92"/>
+      <c r="AF16" s="92"/>
+      <c r="AG16" s="92"/>
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="92"/>
+      <c r="AJ16" s="92"/>
+      <c r="AK16" s="92"/>
+      <c r="AL16" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="AM16" s="94"/>
-      <c r="AN16" s="94"/>
-      <c r="AO16" s="94"/>
-      <c r="AP16" s="94"/>
-      <c r="AQ16" s="94"/>
-      <c r="AR16" s="94"/>
-      <c r="AS16" s="94"/>
-      <c r="AT16" s="94"/>
-      <c r="AU16" s="98" t="s">
+      <c r="AM16" s="93"/>
+      <c r="AN16" s="93"/>
+      <c r="AO16" s="93"/>
+      <c r="AP16" s="93"/>
+      <c r="AQ16" s="93"/>
+      <c r="AR16" s="93"/>
+      <c r="AS16" s="93"/>
+      <c r="AT16" s="93"/>
+      <c r="AU16" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="AV16" s="98"/>
-      <c r="AW16" s="98"/>
-      <c r="AX16" s="97" t="s">
+      <c r="AV16" s="97"/>
+      <c r="AW16" s="97"/>
+      <c r="AX16" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="AY16" s="97"/>
-      <c r="AZ16" s="97"/>
-      <c r="BA16" s="97"/>
-      <c r="BB16" s="97"/>
-      <c r="BC16" s="97"/>
+      <c r="AY16" s="96"/>
+      <c r="AZ16" s="96"/>
+      <c r="BA16" s="96"/>
+      <c r="BB16" s="96"/>
+      <c r="BC16" s="96"/>
       <c r="BD16" s="28"/>
       <c r="BF16" s="20">
         <v>17</v>
@@ -3191,76 +3184,76 @@
         <v>27</v>
       </c>
       <c r="C17" s="27"/>
-      <c r="D17" s="93" t="s">
+      <c r="D17" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
       <c r="K17" s="29" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
-      <c r="N17" s="89" t="s">
+      <c r="N17" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="90"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="99"/>
-      <c r="Z17" s="91" t="s">
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="AA17" s="92"/>
-      <c r="AB17" s="88" t="s">
+      <c r="AA17" s="91"/>
+      <c r="AB17" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="AC17" s="88"/>
-      <c r="AD17" s="88"/>
-      <c r="AE17" s="88"/>
-      <c r="AF17" s="88"/>
-      <c r="AG17" s="88"/>
-      <c r="AH17" s="80" t="s">
+      <c r="AC17" s="87"/>
+      <c r="AD17" s="87"/>
+      <c r="AE17" s="87"/>
+      <c r="AF17" s="87"/>
+      <c r="AG17" s="87"/>
+      <c r="AH17" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="AI17" s="80"/>
-      <c r="AJ17" s="80"/>
-      <c r="AK17" s="80"/>
-      <c r="AL17" s="97" t="s">
+      <c r="AI17" s="79"/>
+      <c r="AJ17" s="79"/>
+      <c r="AK17" s="79"/>
+      <c r="AL17" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="AM17" s="97"/>
-      <c r="AN17" s="97"/>
-      <c r="AO17" s="97"/>
-      <c r="AP17" s="97"/>
-      <c r="AQ17" s="98" t="s">
+      <c r="AM17" s="96"/>
+      <c r="AN17" s="96"/>
+      <c r="AO17" s="96"/>
+      <c r="AP17" s="96"/>
+      <c r="AQ17" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="AR17" s="98"/>
-      <c r="AS17" s="98"/>
-      <c r="AT17" s="98"/>
-      <c r="AU17" s="94" t="s">
+      <c r="AR17" s="97"/>
+      <c r="AS17" s="97"/>
+      <c r="AT17" s="97"/>
+      <c r="AU17" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="AV17" s="94"/>
-      <c r="AW17" s="94"/>
-      <c r="AX17" s="94"/>
-      <c r="AY17" s="94"/>
-      <c r="AZ17" s="94"/>
-      <c r="BA17" s="94"/>
-      <c r="BB17" s="94"/>
-      <c r="BC17" s="94"/>
+      <c r="AV17" s="93"/>
+      <c r="AW17" s="93"/>
+      <c r="AX17" s="93"/>
+      <c r="AY17" s="93"/>
+      <c r="AZ17" s="93"/>
+      <c r="BA17" s="93"/>
+      <c r="BB17" s="93"/>
+      <c r="BC17" s="93"/>
       <c r="BD17" s="24"/>
       <c r="BF17" s="20">
         <v>18</v>
@@ -3295,70 +3288,70 @@
         <v>28</v>
       </c>
       <c r="C18" s="27"/>
-      <c r="D18" s="95" t="s">
+      <c r="D18" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="96" t="s">
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="97" t="s">
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="97"/>
-      <c r="S18" s="97"/>
-      <c r="T18" s="97"/>
-      <c r="U18" s="97"/>
-      <c r="V18" s="93" t="s">
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="96"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="96"/>
+      <c r="U18" s="96"/>
+      <c r="V18" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
-      <c r="Z18" s="93"/>
-      <c r="AA18" s="93"/>
-      <c r="AB18" s="93"/>
-      <c r="AC18" s="93"/>
-      <c r="AD18" s="94" t="s">
+      <c r="W18" s="92"/>
+      <c r="X18" s="92"/>
+      <c r="Y18" s="92"/>
+      <c r="Z18" s="92"/>
+      <c r="AA18" s="92"/>
+      <c r="AB18" s="92"/>
+      <c r="AC18" s="92"/>
+      <c r="AD18" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="AE18" s="94"/>
-      <c r="AF18" s="94"/>
-      <c r="AG18" s="94"/>
-      <c r="AH18" s="94"/>
-      <c r="AI18" s="94"/>
-      <c r="AJ18" s="94"/>
-      <c r="AK18" s="94"/>
-      <c r="AL18" s="80" t="s">
+      <c r="AE18" s="93"/>
+      <c r="AF18" s="93"/>
+      <c r="AG18" s="93"/>
+      <c r="AH18" s="93"/>
+      <c r="AI18" s="93"/>
+      <c r="AJ18" s="93"/>
+      <c r="AK18" s="93"/>
+      <c r="AL18" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="AM18" s="80"/>
-      <c r="AN18" s="80"/>
-      <c r="AO18" s="80"/>
-      <c r="AP18" s="80"/>
-      <c r="AQ18" s="80"/>
-      <c r="AR18" s="80"/>
-      <c r="AS18" s="80"/>
-      <c r="AT18" s="80"/>
-      <c r="AU18" s="80"/>
-      <c r="AV18" s="80"/>
-      <c r="AW18" s="80"/>
-      <c r="AX18" s="80"/>
-      <c r="AY18" s="80"/>
-      <c r="AZ18" s="80"/>
-      <c r="BA18" s="80"/>
-      <c r="BB18" s="80"/>
-      <c r="BC18" s="80"/>
+      <c r="AM18" s="79"/>
+      <c r="AN18" s="79"/>
+      <c r="AO18" s="79"/>
+      <c r="AP18" s="79"/>
+      <c r="AQ18" s="79"/>
+      <c r="AR18" s="79"/>
+      <c r="AS18" s="79"/>
+      <c r="AT18" s="79"/>
+      <c r="AU18" s="79"/>
+      <c r="AV18" s="79"/>
+      <c r="AW18" s="79"/>
+      <c r="AX18" s="79"/>
+      <c r="AY18" s="79"/>
+      <c r="AZ18" s="79"/>
+      <c r="BA18" s="79"/>
+      <c r="BB18" s="79"/>
+      <c r="BC18" s="79"/>
       <c r="BD18" s="26"/>
       <c r="BF18" s="20">
         <v>18</v>
@@ -3438,68 +3431,68 @@
         <v>30</v>
       </c>
       <c r="C20" s="32"/>
-      <c r="D20" s="81" t="s">
+      <c r="D20" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="100" t="s">
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="N20" s="100"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="101"/>
-      <c r="S20" s="100"/>
-      <c r="T20" s="100"/>
-      <c r="U20" s="100"/>
-      <c r="V20" s="100"/>
-      <c r="W20" s="100"/>
-      <c r="X20" s="100"/>
-      <c r="Y20" s="100"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="100"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="99"/>
+      <c r="U20" s="99"/>
+      <c r="V20" s="99"/>
+      <c r="W20" s="99"/>
+      <c r="X20" s="99"/>
+      <c r="Y20" s="99"/>
       <c r="Z20" s="32"/>
       <c r="AA20" s="32"/>
       <c r="AB20" s="32"/>
       <c r="AC20" s="32"/>
-      <c r="AD20" s="102" t="s">
+      <c r="AD20" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="AE20" s="103"/>
-      <c r="AF20" s="103"/>
-      <c r="AG20" s="103"/>
-      <c r="AH20" s="103"/>
-      <c r="AI20" s="103"/>
-      <c r="AJ20" s="103"/>
-      <c r="AK20" s="103"/>
-      <c r="AL20" s="103"/>
-      <c r="AM20" s="103"/>
-      <c r="AN20" s="103"/>
-      <c r="AO20" s="103"/>
-      <c r="AP20" s="104"/>
-      <c r="AQ20" s="105" t="s">
+      <c r="AE20" s="102"/>
+      <c r="AF20" s="102"/>
+      <c r="AG20" s="102"/>
+      <c r="AH20" s="102"/>
+      <c r="AI20" s="102"/>
+      <c r="AJ20" s="102"/>
+      <c r="AK20" s="102"/>
+      <c r="AL20" s="102"/>
+      <c r="AM20" s="102"/>
+      <c r="AN20" s="102"/>
+      <c r="AO20" s="102"/>
+      <c r="AP20" s="103"/>
+      <c r="AQ20" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="AR20" s="106"/>
-      <c r="AS20" s="106"/>
-      <c r="AT20" s="106"/>
-      <c r="AU20" s="106"/>
-      <c r="AV20" s="106"/>
-      <c r="AW20" s="106"/>
-      <c r="AX20" s="106"/>
-      <c r="AY20" s="106"/>
-      <c r="AZ20" s="106"/>
-      <c r="BA20" s="107"/>
-      <c r="BB20" s="108" t="s">
+      <c r="AR20" s="105"/>
+      <c r="AS20" s="105"/>
+      <c r="AT20" s="105"/>
+      <c r="AU20" s="105"/>
+      <c r="AV20" s="105"/>
+      <c r="AW20" s="105"/>
+      <c r="AX20" s="105"/>
+      <c r="AY20" s="105"/>
+      <c r="AZ20" s="105"/>
+      <c r="BA20" s="106"/>
+      <c r="BB20" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="BC20" s="109"/>
+      <c r="BC20" s="108"/>
       <c r="BD20" s="33"/>
     </row>
     <row r="21" spans="1:67" s="1" customFormat="1">
@@ -3717,54 +3710,54 @@
       <c r="B24" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="110" t="s">
+      <c r="D24" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="89" t="s">
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="113" t="s">
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="P24" s="114"/>
-      <c r="Q24" s="114"/>
-      <c r="R24" s="114"/>
-      <c r="S24" s="114"/>
-      <c r="T24" s="115"/>
-      <c r="U24" s="116" t="s">
+      <c r="P24" s="113"/>
+      <c r="Q24" s="113"/>
+      <c r="R24" s="113"/>
+      <c r="S24" s="113"/>
+      <c r="T24" s="114"/>
+      <c r="U24" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="V24" s="117"/>
-      <c r="W24" s="117"/>
-      <c r="X24" s="117"/>
-      <c r="Y24" s="117"/>
-      <c r="Z24" s="117"/>
-      <c r="AA24" s="118"/>
-      <c r="AB24" s="119" t="s">
+      <c r="V24" s="116"/>
+      <c r="W24" s="116"/>
+      <c r="X24" s="116"/>
+      <c r="Y24" s="116"/>
+      <c r="Z24" s="116"/>
+      <c r="AA24" s="117"/>
+      <c r="AB24" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="AC24" s="120"/>
-      <c r="AD24" s="120"/>
-      <c r="AE24" s="120"/>
-      <c r="AF24" s="120"/>
-      <c r="AG24" s="120"/>
-      <c r="AH24" s="120"/>
-      <c r="AI24" s="120"/>
-      <c r="AJ24" s="120"/>
-      <c r="AK24" s="120"/>
-      <c r="AL24" s="120"/>
-      <c r="AM24" s="120"/>
-      <c r="AN24" s="120"/>
-      <c r="AO24" s="121"/>
+      <c r="AC24" s="119"/>
+      <c r="AD24" s="119"/>
+      <c r="AE24" s="119"/>
+      <c r="AF24" s="119"/>
+      <c r="AG24" s="119"/>
+      <c r="AH24" s="119"/>
+      <c r="AI24" s="119"/>
+      <c r="AJ24" s="119"/>
+      <c r="AK24" s="119"/>
+      <c r="AL24" s="119"/>
+      <c r="AM24" s="119"/>
+      <c r="AN24" s="119"/>
+      <c r="AO24" s="120"/>
       <c r="AP24" s="38" t="s">
         <v>41</v>
       </c>
@@ -3777,12 +3770,12 @@
       <c r="AW24" s="39"/>
       <c r="AX24" s="39"/>
       <c r="AY24" s="40"/>
-      <c r="AZ24" s="96" t="s">
+      <c r="AZ24" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="BA24" s="96"/>
-      <c r="BB24" s="96"/>
-      <c r="BC24" s="122"/>
+      <c r="BA24" s="95"/>
+      <c r="BB24" s="95"/>
+      <c r="BC24" s="121"/>
       <c r="BD24" s="41"/>
       <c r="BE24" s="1">
         <v>4</v>
@@ -3815,76 +3808,76 @@
       <c r="B25" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="123" t="s">
+      <c r="D25" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="124"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="126" t="s">
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="127"/>
-      <c r="K25" s="127"/>
-      <c r="L25" s="128"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="127"/>
       <c r="M25" s="42" t="s">
         <v>9</v>
       </c>
       <c r="N25" s="43"/>
       <c r="O25" s="43"/>
       <c r="P25" s="44"/>
-      <c r="Q25" s="129" t="s">
+      <c r="Q25" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="R25" s="130"/>
-      <c r="S25" s="130"/>
-      <c r="T25" s="130"/>
-      <c r="U25" s="130"/>
-      <c r="V25" s="130"/>
-      <c r="W25" s="130"/>
-      <c r="X25" s="130"/>
-      <c r="Y25" s="130"/>
-      <c r="Z25" s="130"/>
-      <c r="AA25" s="131"/>
-      <c r="AB25" s="132" t="s">
+      <c r="R25" s="129"/>
+      <c r="S25" s="129"/>
+      <c r="T25" s="129"/>
+      <c r="U25" s="129"/>
+      <c r="V25" s="129"/>
+      <c r="W25" s="129"/>
+      <c r="X25" s="129"/>
+      <c r="Y25" s="129"/>
+      <c r="Z25" s="129"/>
+      <c r="AA25" s="130"/>
+      <c r="AB25" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="AC25" s="133"/>
-      <c r="AD25" s="133"/>
-      <c r="AE25" s="133"/>
-      <c r="AF25" s="133"/>
-      <c r="AG25" s="134"/>
-      <c r="AH25" s="113" t="s">
+      <c r="AC25" s="132"/>
+      <c r="AD25" s="132"/>
+      <c r="AE25" s="132"/>
+      <c r="AF25" s="132"/>
+      <c r="AG25" s="133"/>
+      <c r="AH25" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="AI25" s="114"/>
-      <c r="AJ25" s="114"/>
-      <c r="AK25" s="114"/>
-      <c r="AL25" s="114"/>
-      <c r="AM25" s="114"/>
-      <c r="AN25" s="114"/>
-      <c r="AO25" s="114"/>
-      <c r="AP25" s="115"/>
-      <c r="AQ25" s="135" t="s">
+      <c r="AI25" s="113"/>
+      <c r="AJ25" s="113"/>
+      <c r="AK25" s="113"/>
+      <c r="AL25" s="113"/>
+      <c r="AM25" s="113"/>
+      <c r="AN25" s="113"/>
+      <c r="AO25" s="113"/>
+      <c r="AP25" s="114"/>
+      <c r="AQ25" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="AR25" s="136"/>
-      <c r="AS25" s="136"/>
-      <c r="AT25" s="137"/>
-      <c r="AU25" s="138" t="s">
+      <c r="AR25" s="135"/>
+      <c r="AS25" s="135"/>
+      <c r="AT25" s="136"/>
+      <c r="AU25" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="AV25" s="139"/>
-      <c r="AW25" s="139"/>
-      <c r="AX25" s="140"/>
-      <c r="AY25" s="141" t="s">
+      <c r="AV25" s="138"/>
+      <c r="AW25" s="138"/>
+      <c r="AX25" s="139"/>
+      <c r="AY25" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="AZ25" s="124"/>
-      <c r="BA25" s="124"/>
-      <c r="BB25" s="124"/>
-      <c r="BC25" s="125"/>
+      <c r="AZ25" s="123"/>
+      <c r="BA25" s="123"/>
+      <c r="BB25" s="123"/>
+      <c r="BC25" s="124"/>
       <c r="BD25" s="36"/>
       <c r="BE25" s="1">
         <v>4</v>
@@ -3917,74 +3910,74 @@
       <c r="B26" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="117" t="s">
+      <c r="D26" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="117"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="150" t="s">
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="116"/>
+      <c r="K26" s="116"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="N26" s="151"/>
-      <c r="O26" s="151"/>
-      <c r="P26" s="152"/>
-      <c r="Q26" s="153" t="s">
+      <c r="N26" s="150"/>
+      <c r="O26" s="150"/>
+      <c r="P26" s="151"/>
+      <c r="Q26" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="R26" s="154"/>
-      <c r="S26" s="154"/>
-      <c r="T26" s="155"/>
-      <c r="U26" s="88" t="s">
+      <c r="R26" s="153"/>
+      <c r="S26" s="153"/>
+      <c r="T26" s="154"/>
+      <c r="U26" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="V26" s="88"/>
-      <c r="W26" s="88"/>
-      <c r="X26" s="88"/>
-      <c r="Y26" s="88"/>
-      <c r="Z26" s="88"/>
-      <c r="AA26" s="88"/>
-      <c r="AB26" s="89" t="s">
+      <c r="V26" s="87"/>
+      <c r="W26" s="87"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="87"/>
+      <c r="AA26" s="87"/>
+      <c r="AB26" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="AC26" s="90"/>
-      <c r="AD26" s="90"/>
-      <c r="AE26" s="90"/>
-      <c r="AF26" s="90"/>
-      <c r="AG26" s="99"/>
-      <c r="AH26" s="149" t="s">
+      <c r="AC26" s="89"/>
+      <c r="AD26" s="89"/>
+      <c r="AE26" s="89"/>
+      <c r="AF26" s="89"/>
+      <c r="AG26" s="98"/>
+      <c r="AH26" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="AI26" s="149"/>
-      <c r="AJ26" s="149"/>
-      <c r="AK26" s="149"/>
-      <c r="AL26" s="142" t="s">
+      <c r="AI26" s="148"/>
+      <c r="AJ26" s="148"/>
+      <c r="AK26" s="148"/>
+      <c r="AL26" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="AM26" s="143"/>
-      <c r="AN26" s="143"/>
-      <c r="AO26" s="144"/>
-      <c r="AP26" s="79" t="s">
+      <c r="AM26" s="142"/>
+      <c r="AN26" s="142"/>
+      <c r="AO26" s="143"/>
+      <c r="AP26" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="AQ26" s="79"/>
-      <c r="AR26" s="79"/>
-      <c r="AS26" s="79"/>
-      <c r="AT26" s="79"/>
-      <c r="AU26" s="79"/>
-      <c r="AV26" s="79"/>
-      <c r="AW26" s="79"/>
-      <c r="AX26" s="79"/>
-      <c r="AY26" s="79"/>
-      <c r="AZ26" s="79"/>
-      <c r="BA26" s="79"/>
-      <c r="BB26" s="79"/>
-      <c r="BC26" s="79"/>
+      <c r="AQ26" s="78"/>
+      <c r="AR26" s="78"/>
+      <c r="AS26" s="78"/>
+      <c r="AT26" s="78"/>
+      <c r="AU26" s="78"/>
+      <c r="AV26" s="78"/>
+      <c r="AW26" s="78"/>
+      <c r="AX26" s="78"/>
+      <c r="AY26" s="78"/>
+      <c r="AZ26" s="78"/>
+      <c r="BA26" s="78"/>
+      <c r="BB26" s="78"/>
+      <c r="BC26" s="78"/>
       <c r="BD26" s="23"/>
       <c r="BE26" s="1">
         <v>4</v>
@@ -4017,72 +4010,72 @@
       <c r="B27" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="145" t="s">
+      <c r="D27" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="145"/>
-      <c r="M27" s="145"/>
-      <c r="N27" s="145"/>
-      <c r="O27" s="145"/>
-      <c r="P27" s="145"/>
-      <c r="Q27" s="146" t="s">
+      <c r="E27" s="144"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="144"/>
+      <c r="M27" s="144"/>
+      <c r="N27" s="144"/>
+      <c r="O27" s="144"/>
+      <c r="P27" s="144"/>
+      <c r="Q27" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="R27" s="146"/>
-      <c r="S27" s="146"/>
-      <c r="T27" s="146"/>
-      <c r="U27" s="147" t="s">
+      <c r="R27" s="145"/>
+      <c r="S27" s="145"/>
+      <c r="T27" s="145"/>
+      <c r="U27" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="V27" s="147"/>
-      <c r="W27" s="147"/>
-      <c r="X27" s="147"/>
-      <c r="Y27" s="147"/>
-      <c r="Z27" s="147"/>
-      <c r="AA27" s="147"/>
-      <c r="AB27" s="147"/>
-      <c r="AC27" s="147"/>
-      <c r="AD27" s="147"/>
-      <c r="AE27" s="147"/>
-      <c r="AF27" s="80" t="s">
+      <c r="V27" s="146"/>
+      <c r="W27" s="146"/>
+      <c r="X27" s="146"/>
+      <c r="Y27" s="146"/>
+      <c r="Z27" s="146"/>
+      <c r="AA27" s="146"/>
+      <c r="AB27" s="146"/>
+      <c r="AC27" s="146"/>
+      <c r="AD27" s="146"/>
+      <c r="AE27" s="146"/>
+      <c r="AF27" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="AG27" s="80"/>
-      <c r="AH27" s="80"/>
-      <c r="AI27" s="80"/>
-      <c r="AJ27" s="80"/>
-      <c r="AK27" s="80"/>
-      <c r="AL27" s="80"/>
-      <c r="AM27" s="148" t="s">
+      <c r="AG27" s="79"/>
+      <c r="AH27" s="79"/>
+      <c r="AI27" s="79"/>
+      <c r="AJ27" s="79"/>
+      <c r="AK27" s="79"/>
+      <c r="AL27" s="79"/>
+      <c r="AM27" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="AN27" s="148"/>
-      <c r="AO27" s="148"/>
-      <c r="AP27" s="148"/>
-      <c r="AQ27" s="148"/>
-      <c r="AR27" s="148"/>
-      <c r="AS27" s="148"/>
-      <c r="AT27" s="149" t="s">
+      <c r="AN27" s="147"/>
+      <c r="AO27" s="147"/>
+      <c r="AP27" s="147"/>
+      <c r="AQ27" s="147"/>
+      <c r="AR27" s="147"/>
+      <c r="AS27" s="147"/>
+      <c r="AT27" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="AU27" s="149"/>
-      <c r="AV27" s="149"/>
-      <c r="AW27" s="149"/>
-      <c r="AX27" s="88" t="s">
+      <c r="AU27" s="148"/>
+      <c r="AV27" s="148"/>
+      <c r="AW27" s="148"/>
+      <c r="AX27" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="AY27" s="88"/>
-      <c r="AZ27" s="88"/>
-      <c r="BA27" s="88"/>
-      <c r="BB27" s="88"/>
-      <c r="BC27" s="88"/>
+      <c r="AY27" s="87"/>
+      <c r="AZ27" s="87"/>
+      <c r="BA27" s="87"/>
+      <c r="BB27" s="87"/>
+      <c r="BC27" s="87"/>
       <c r="BD27" s="24"/>
       <c r="BE27" s="1">
         <v>4</v>
@@ -4198,76 +4191,76 @@
         <v>47</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="180" t="s">
+      <c r="D30" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="181"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="181"/>
-      <c r="I30" s="181"/>
-      <c r="J30" s="181"/>
-      <c r="K30" s="181"/>
-      <c r="L30" s="181"/>
-      <c r="M30" s="181"/>
-      <c r="N30" s="181"/>
-      <c r="O30" s="181"/>
-      <c r="P30" s="182"/>
-      <c r="Q30" s="183" t="s">
+      <c r="E30" s="180"/>
+      <c r="F30" s="180"/>
+      <c r="G30" s="180"/>
+      <c r="H30" s="180"/>
+      <c r="I30" s="180"/>
+      <c r="J30" s="180"/>
+      <c r="K30" s="180"/>
+      <c r="L30" s="180"/>
+      <c r="M30" s="180"/>
+      <c r="N30" s="180"/>
+      <c r="O30" s="180"/>
+      <c r="P30" s="181"/>
+      <c r="Q30" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="R30" s="169"/>
-      <c r="S30" s="169"/>
-      <c r="T30" s="169"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="179" t="s">
+      <c r="R30" s="168"/>
+      <c r="S30" s="168"/>
+      <c r="T30" s="168"/>
+      <c r="U30" s="183"/>
+      <c r="V30" s="178" t="s">
         <v>39</v>
       </c>
-      <c r="W30" s="174"/>
-      <c r="X30" s="174"/>
-      <c r="Y30" s="175"/>
-      <c r="Z30" s="156" t="s">
+      <c r="W30" s="173"/>
+      <c r="X30" s="173"/>
+      <c r="Y30" s="174"/>
+      <c r="Z30" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="AA30" s="157"/>
-      <c r="AB30" s="157"/>
-      <c r="AC30" s="157"/>
-      <c r="AD30" s="157"/>
-      <c r="AE30" s="158"/>
-      <c r="AF30" s="165" t="s">
+      <c r="AA30" s="156"/>
+      <c r="AB30" s="156"/>
+      <c r="AC30" s="156"/>
+      <c r="AD30" s="156"/>
+      <c r="AE30" s="157"/>
+      <c r="AF30" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="AG30" s="166"/>
-      <c r="AH30" s="166"/>
-      <c r="AI30" s="166"/>
-      <c r="AJ30" s="166"/>
-      <c r="AK30" s="167"/>
-      <c r="AL30" s="179" t="s">
+      <c r="AG30" s="165"/>
+      <c r="AH30" s="165"/>
+      <c r="AI30" s="165"/>
+      <c r="AJ30" s="165"/>
+      <c r="AK30" s="166"/>
+      <c r="AL30" s="178" t="s">
         <v>39</v>
       </c>
-      <c r="AM30" s="174"/>
-      <c r="AN30" s="174"/>
-      <c r="AO30" s="175"/>
-      <c r="AP30" s="156" t="s">
+      <c r="AM30" s="173"/>
+      <c r="AN30" s="173"/>
+      <c r="AO30" s="174"/>
+      <c r="AP30" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="AQ30" s="157"/>
-      <c r="AR30" s="157"/>
-      <c r="AS30" s="158"/>
-      <c r="AT30" s="159" t="s">
+      <c r="AQ30" s="156"/>
+      <c r="AR30" s="156"/>
+      <c r="AS30" s="157"/>
+      <c r="AT30" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="AU30" s="160"/>
-      <c r="AV30" s="160"/>
-      <c r="AW30" s="160"/>
-      <c r="AX30" s="161"/>
-      <c r="AY30" s="162" t="s">
+      <c r="AU30" s="159"/>
+      <c r="AV30" s="159"/>
+      <c r="AW30" s="159"/>
+      <c r="AX30" s="160"/>
+      <c r="AY30" s="161" t="s">
         <v>8</v>
       </c>
-      <c r="AZ30" s="163"/>
-      <c r="BA30" s="163"/>
-      <c r="BB30" s="163"/>
-      <c r="BC30" s="164"/>
+      <c r="AZ30" s="162"/>
+      <c r="BA30" s="162"/>
+      <c r="BB30" s="162"/>
+      <c r="BC30" s="163"/>
       <c r="BD30" s="27"/>
       <c r="BE30" s="49">
         <v>8</v>
@@ -4298,82 +4291,82 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:67" ht="16.5" thickBot="1">
+    <row r="31" spans="1:67" ht="17" thickBot="1">
       <c r="A31" s="50"/>
       <c r="B31" s="48" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="165" t="s">
+      <c r="D31" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="166"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="167"/>
-      <c r="H31" s="168" t="s">
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="166"/>
+      <c r="H31" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="169"/>
-      <c r="J31" s="169"/>
-      <c r="K31" s="169"/>
-      <c r="L31" s="170"/>
-      <c r="M31" s="171" t="s">
+      <c r="I31" s="168"/>
+      <c r="J31" s="168"/>
+      <c r="K31" s="168"/>
+      <c r="L31" s="169"/>
+      <c r="M31" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="N31" s="141"/>
-      <c r="O31" s="141"/>
-      <c r="P31" s="141"/>
-      <c r="Q31" s="141"/>
-      <c r="R31" s="141"/>
-      <c r="S31" s="141"/>
-      <c r="T31" s="141"/>
-      <c r="U31" s="172" t="s">
+      <c r="N31" s="140"/>
+      <c r="O31" s="140"/>
+      <c r="P31" s="140"/>
+      <c r="Q31" s="140"/>
+      <c r="R31" s="140"/>
+      <c r="S31" s="140"/>
+      <c r="T31" s="140"/>
+      <c r="U31" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="V31" s="172"/>
-      <c r="W31" s="172"/>
-      <c r="X31" s="172"/>
-      <c r="Y31" s="173"/>
-      <c r="Z31" s="174" t="s">
+      <c r="V31" s="171"/>
+      <c r="W31" s="171"/>
+      <c r="X31" s="171"/>
+      <c r="Y31" s="172"/>
+      <c r="Z31" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="AA31" s="174"/>
-      <c r="AB31" s="174"/>
-      <c r="AC31" s="175"/>
-      <c r="AD31" s="176" t="s">
+      <c r="AA31" s="173"/>
+      <c r="AB31" s="173"/>
+      <c r="AC31" s="174"/>
+      <c r="AD31" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="AE31" s="177"/>
-      <c r="AF31" s="177"/>
-      <c r="AG31" s="177"/>
-      <c r="AH31" s="177"/>
-      <c r="AI31" s="177"/>
-      <c r="AJ31" s="177"/>
-      <c r="AK31" s="177"/>
-      <c r="AL31" s="177"/>
-      <c r="AM31" s="177"/>
-      <c r="AN31" s="177"/>
-      <c r="AO31" s="178"/>
-      <c r="AP31" s="179" t="s">
+      <c r="AE31" s="176"/>
+      <c r="AF31" s="176"/>
+      <c r="AG31" s="176"/>
+      <c r="AH31" s="176"/>
+      <c r="AI31" s="176"/>
+      <c r="AJ31" s="176"/>
+      <c r="AK31" s="176"/>
+      <c r="AL31" s="176"/>
+      <c r="AM31" s="176"/>
+      <c r="AN31" s="176"/>
+      <c r="AO31" s="177"/>
+      <c r="AP31" s="178" t="s">
         <v>39</v>
       </c>
-      <c r="AQ31" s="174"/>
-      <c r="AR31" s="174"/>
-      <c r="AS31" s="175"/>
-      <c r="AT31" s="185" t="s">
+      <c r="AQ31" s="173"/>
+      <c r="AR31" s="173"/>
+      <c r="AS31" s="174"/>
+      <c r="AT31" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="AU31" s="141"/>
-      <c r="AV31" s="141"/>
-      <c r="AW31" s="141"/>
-      <c r="AX31" s="186"/>
-      <c r="AY31" s="187" t="s">
+      <c r="AU31" s="140"/>
+      <c r="AV31" s="140"/>
+      <c r="AW31" s="140"/>
+      <c r="AX31" s="185"/>
+      <c r="AY31" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="AZ31" s="188"/>
-      <c r="BA31" s="188"/>
-      <c r="BB31" s="188"/>
-      <c r="BC31" s="188"/>
+      <c r="AZ31" s="187"/>
+      <c r="BA31" s="187"/>
+      <c r="BB31" s="187"/>
+      <c r="BC31" s="187"/>
       <c r="BD31" s="28"/>
       <c r="BE31" s="49">
         <v>8</v>
@@ -4404,82 +4397,82 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:67" ht="16.5" thickBot="1">
+    <row r="32" spans="1:67" ht="17" thickBot="1">
       <c r="A32" s="50"/>
       <c r="B32" s="48" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="185" t="s">
+      <c r="D32" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="186"/>
-      <c r="M32" s="168" t="s">
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="185"/>
+      <c r="M32" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="N32" s="169"/>
-      <c r="O32" s="169"/>
-      <c r="P32" s="184"/>
-      <c r="Q32" s="176" t="s">
+      <c r="N32" s="168"/>
+      <c r="O32" s="168"/>
+      <c r="P32" s="183"/>
+      <c r="Q32" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="R32" s="177"/>
-      <c r="S32" s="177"/>
-      <c r="T32" s="177"/>
-      <c r="U32" s="177"/>
-      <c r="V32" s="177"/>
-      <c r="W32" s="177"/>
-      <c r="X32" s="177"/>
-      <c r="Y32" s="177"/>
-      <c r="Z32" s="177"/>
-      <c r="AA32" s="177"/>
-      <c r="AB32" s="177"/>
-      <c r="AC32" s="189"/>
-      <c r="AD32" s="190" t="s">
+      <c r="R32" s="176"/>
+      <c r="S32" s="176"/>
+      <c r="T32" s="176"/>
+      <c r="U32" s="176"/>
+      <c r="V32" s="176"/>
+      <c r="W32" s="176"/>
+      <c r="X32" s="176"/>
+      <c r="Y32" s="176"/>
+      <c r="Z32" s="176"/>
+      <c r="AA32" s="176"/>
+      <c r="AB32" s="176"/>
+      <c r="AC32" s="188"/>
+      <c r="AD32" s="189" t="s">
         <v>39</v>
       </c>
-      <c r="AE32" s="174"/>
-      <c r="AF32" s="174"/>
-      <c r="AG32" s="174"/>
-      <c r="AH32" s="191" t="s">
+      <c r="AE32" s="173"/>
+      <c r="AF32" s="173"/>
+      <c r="AG32" s="173"/>
+      <c r="AH32" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="AI32" s="160"/>
-      <c r="AJ32" s="160"/>
-      <c r="AK32" s="160"/>
-      <c r="AL32" s="161"/>
-      <c r="AM32" s="192" t="s">
+      <c r="AI32" s="159"/>
+      <c r="AJ32" s="159"/>
+      <c r="AK32" s="159"/>
+      <c r="AL32" s="160"/>
+      <c r="AM32" s="191" t="s">
         <v>5</v>
       </c>
-      <c r="AN32" s="193"/>
-      <c r="AO32" s="194"/>
-      <c r="AP32" s="163" t="s">
+      <c r="AN32" s="192"/>
+      <c r="AO32" s="193"/>
+      <c r="AP32" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="AQ32" s="163"/>
-      <c r="AR32" s="163"/>
-      <c r="AS32" s="164"/>
-      <c r="AT32" s="190" t="s">
+      <c r="AQ32" s="162"/>
+      <c r="AR32" s="162"/>
+      <c r="AS32" s="163"/>
+      <c r="AT32" s="189" t="s">
         <v>39</v>
       </c>
-      <c r="AU32" s="174"/>
-      <c r="AV32" s="174"/>
-      <c r="AW32" s="175"/>
-      <c r="AX32" s="165" t="s">
+      <c r="AU32" s="173"/>
+      <c r="AV32" s="173"/>
+      <c r="AW32" s="174"/>
+      <c r="AX32" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="AY32" s="166"/>
-      <c r="AZ32" s="166"/>
-      <c r="BA32" s="166"/>
-      <c r="BB32" s="166"/>
-      <c r="BC32" s="166"/>
+      <c r="AY32" s="165"/>
+      <c r="AZ32" s="165"/>
+      <c r="BA32" s="165"/>
+      <c r="BB32" s="165"/>
+      <c r="BC32" s="165"/>
       <c r="BD32" s="24"/>
       <c r="BE32" s="49">
         <v>8</v>
@@ -4516,76 +4509,76 @@
         <v>50</v>
       </c>
       <c r="C33" s="48"/>
-      <c r="D33" s="183" t="s">
+      <c r="D33" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="169"/>
-      <c r="F33" s="169"/>
-      <c r="G33" s="169"/>
-      <c r="H33" s="195" t="s">
+      <c r="E33" s="168"/>
+      <c r="F33" s="168"/>
+      <c r="G33" s="168"/>
+      <c r="H33" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="196"/>
-      <c r="J33" s="196"/>
-      <c r="K33" s="196"/>
-      <c r="L33" s="197"/>
-      <c r="M33" s="198" t="s">
+      <c r="I33" s="195"/>
+      <c r="J33" s="195"/>
+      <c r="K33" s="195"/>
+      <c r="L33" s="196"/>
+      <c r="M33" s="197" t="s">
         <v>10</v>
       </c>
-      <c r="N33" s="117"/>
-      <c r="O33" s="117"/>
-      <c r="P33" s="117"/>
-      <c r="Q33" s="117"/>
-      <c r="R33" s="117"/>
-      <c r="S33" s="117"/>
-      <c r="T33" s="118"/>
-      <c r="U33" s="185" t="s">
+      <c r="N33" s="116"/>
+      <c r="O33" s="116"/>
+      <c r="P33" s="116"/>
+      <c r="Q33" s="116"/>
+      <c r="R33" s="116"/>
+      <c r="S33" s="116"/>
+      <c r="T33" s="117"/>
+      <c r="U33" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="V33" s="141"/>
-      <c r="W33" s="141"/>
-      <c r="X33" s="141"/>
-      <c r="Y33" s="141"/>
-      <c r="Z33" s="141"/>
-      <c r="AA33" s="141"/>
-      <c r="AB33" s="141"/>
-      <c r="AC33" s="141"/>
-      <c r="AD33" s="141"/>
-      <c r="AE33" s="141"/>
-      <c r="AF33" s="141"/>
-      <c r="AG33" s="199"/>
-      <c r="AH33" s="200" t="s">
+      <c r="V33" s="140"/>
+      <c r="W33" s="140"/>
+      <c r="X33" s="140"/>
+      <c r="Y33" s="140"/>
+      <c r="Z33" s="140"/>
+      <c r="AA33" s="140"/>
+      <c r="AB33" s="140"/>
+      <c r="AC33" s="140"/>
+      <c r="AD33" s="140"/>
+      <c r="AE33" s="140"/>
+      <c r="AF33" s="140"/>
+      <c r="AG33" s="198"/>
+      <c r="AH33" s="199" t="s">
         <v>39</v>
       </c>
-      <c r="AI33" s="201"/>
-      <c r="AJ33" s="201"/>
-      <c r="AK33" s="202"/>
-      <c r="AL33" s="203" t="s">
+      <c r="AI33" s="200"/>
+      <c r="AJ33" s="200"/>
+      <c r="AK33" s="201"/>
+      <c r="AL33" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="AM33" s="172"/>
-      <c r="AN33" s="172"/>
-      <c r="AO33" s="173"/>
-      <c r="AP33" s="204" t="s">
+      <c r="AM33" s="171"/>
+      <c r="AN33" s="171"/>
+      <c r="AO33" s="172"/>
+      <c r="AP33" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="AQ33" s="177"/>
-      <c r="AR33" s="177"/>
-      <c r="AS33" s="177"/>
-      <c r="AT33" s="177"/>
-      <c r="AU33" s="177"/>
-      <c r="AV33" s="177"/>
-      <c r="AW33" s="178"/>
-      <c r="AX33" s="179" t="s">
+      <c r="AQ33" s="176"/>
+      <c r="AR33" s="176"/>
+      <c r="AS33" s="176"/>
+      <c r="AT33" s="176"/>
+      <c r="AU33" s="176"/>
+      <c r="AV33" s="176"/>
+      <c r="AW33" s="177"/>
+      <c r="AX33" s="178" t="s">
         <v>39</v>
       </c>
-      <c r="AY33" s="174"/>
-      <c r="AZ33" s="174"/>
-      <c r="BA33" s="175"/>
-      <c r="BB33" s="176" t="s">
+      <c r="AY33" s="173"/>
+      <c r="AZ33" s="173"/>
+      <c r="BA33" s="174"/>
+      <c r="BB33" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="BC33" s="177"/>
+      <c r="BC33" s="176"/>
       <c r="BD33" s="37"/>
       <c r="BE33" s="49">
         <v>8</v>
@@ -4674,7 +4667,7 @@
       <c r="BN34" s="57"/>
       <c r="BO34" s="57"/>
     </row>
-    <row r="35" spans="1:67" ht="3.95" customHeight="1">
+    <row r="35" spans="1:67" ht="4" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="22" t="s">
@@ -4844,66 +4837,66 @@
       <c r="B36" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="207"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="207"/>
-      <c r="F36" s="207"/>
-      <c r="G36" s="205"/>
-      <c r="H36" s="206"/>
-      <c r="I36" s="206"/>
-      <c r="J36" s="208"/>
-      <c r="K36" s="207"/>
-      <c r="L36" s="207"/>
-      <c r="M36" s="207"/>
-      <c r="N36" s="207"/>
-      <c r="O36" s="207"/>
-      <c r="P36" s="207"/>
-      <c r="Q36" s="207"/>
-      <c r="R36" s="207"/>
-      <c r="S36" s="207"/>
-      <c r="T36" s="207"/>
-      <c r="U36" s="207"/>
-      <c r="V36" s="207"/>
-      <c r="W36" s="209" t="s">
+      <c r="C36" s="206"/>
+      <c r="D36" s="206"/>
+      <c r="E36" s="206"/>
+      <c r="F36" s="206"/>
+      <c r="G36" s="204"/>
+      <c r="H36" s="205"/>
+      <c r="I36" s="205"/>
+      <c r="J36" s="207"/>
+      <c r="K36" s="206"/>
+      <c r="L36" s="206"/>
+      <c r="M36" s="206"/>
+      <c r="N36" s="206"/>
+      <c r="O36" s="206"/>
+      <c r="P36" s="206"/>
+      <c r="Q36" s="206"/>
+      <c r="R36" s="206"/>
+      <c r="S36" s="206"/>
+      <c r="T36" s="206"/>
+      <c r="U36" s="206"/>
+      <c r="V36" s="206"/>
+      <c r="W36" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="X36" s="210"/>
-      <c r="Y36" s="210"/>
-      <c r="Z36" s="212"/>
-      <c r="AA36" s="209" t="s">
+      <c r="X36" s="209"/>
+      <c r="Y36" s="209"/>
+      <c r="Z36" s="211"/>
+      <c r="AA36" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="AB36" s="210"/>
-      <c r="AC36" s="210"/>
-      <c r="AD36" s="211"/>
-      <c r="AE36" s="207"/>
-      <c r="AF36" s="207"/>
-      <c r="AG36" s="207"/>
-      <c r="AH36" s="207"/>
-      <c r="AI36" s="207"/>
-      <c r="AJ36" s="207"/>
-      <c r="AK36" s="207"/>
-      <c r="AL36" s="207"/>
-      <c r="AM36" s="89" t="s">
+      <c r="AB36" s="209"/>
+      <c r="AC36" s="209"/>
+      <c r="AD36" s="210"/>
+      <c r="AE36" s="206"/>
+      <c r="AF36" s="206"/>
+      <c r="AG36" s="206"/>
+      <c r="AH36" s="206"/>
+      <c r="AI36" s="206"/>
+      <c r="AJ36" s="206"/>
+      <c r="AK36" s="206"/>
+      <c r="AL36" s="206"/>
+      <c r="AM36" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="AN36" s="90"/>
-      <c r="AO36" s="90"/>
-      <c r="AP36" s="99"/>
-      <c r="AQ36" s="89" t="s">
+      <c r="AN36" s="89"/>
+      <c r="AO36" s="89"/>
+      <c r="AP36" s="98"/>
+      <c r="AQ36" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="AR36" s="90"/>
-      <c r="AS36" s="90"/>
-      <c r="AT36" s="99"/>
-      <c r="AU36" s="207"/>
-      <c r="AV36" s="207"/>
-      <c r="AW36" s="207"/>
-      <c r="AX36" s="207"/>
-      <c r="AY36" s="205"/>
-      <c r="AZ36" s="206"/>
-      <c r="BA36" s="206"/>
-      <c r="BB36" s="206"/>
+      <c r="AR36" s="89"/>
+      <c r="AS36" s="89"/>
+      <c r="AT36" s="98"/>
+      <c r="AU36" s="206"/>
+      <c r="AV36" s="206"/>
+      <c r="AW36" s="206"/>
+      <c r="AX36" s="206"/>
+      <c r="AY36" s="204"/>
+      <c r="AZ36" s="205"/>
+      <c r="BA36" s="205"/>
+      <c r="BB36" s="205"/>
       <c r="BC36" s="1"/>
     </row>
     <row r="37" spans="1:67">
@@ -4911,282 +4904,282 @@
       <c r="B37" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="207"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="207"/>
-      <c r="F37" s="207"/>
-      <c r="G37" s="205"/>
-      <c r="H37" s="206"/>
-      <c r="I37" s="206"/>
-      <c r="J37" s="208"/>
-      <c r="K37" s="207"/>
-      <c r="L37" s="207"/>
-      <c r="M37" s="207"/>
-      <c r="N37" s="207"/>
-      <c r="O37" s="207"/>
-      <c r="P37" s="207"/>
-      <c r="Q37" s="207"/>
-      <c r="R37" s="207"/>
-      <c r="S37" s="207"/>
-      <c r="T37" s="207"/>
-      <c r="U37" s="207"/>
-      <c r="V37" s="207"/>
-      <c r="W37" s="89" t="s">
+      <c r="C37" s="206"/>
+      <c r="D37" s="206"/>
+      <c r="E37" s="206"/>
+      <c r="F37" s="206"/>
+      <c r="G37" s="204"/>
+      <c r="H37" s="205"/>
+      <c r="I37" s="205"/>
+      <c r="J37" s="207"/>
+      <c r="K37" s="206"/>
+      <c r="L37" s="206"/>
+      <c r="M37" s="206"/>
+      <c r="N37" s="206"/>
+      <c r="O37" s="206"/>
+      <c r="P37" s="206"/>
+      <c r="Q37" s="206"/>
+      <c r="R37" s="206"/>
+      <c r="S37" s="206"/>
+      <c r="T37" s="206"/>
+      <c r="U37" s="206"/>
+      <c r="V37" s="206"/>
+      <c r="W37" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="X37" s="90"/>
-      <c r="Y37" s="90"/>
-      <c r="Z37" s="99"/>
-      <c r="AA37" s="89" t="s">
+      <c r="X37" s="89"/>
+      <c r="Y37" s="89"/>
+      <c r="Z37" s="98"/>
+      <c r="AA37" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="AB37" s="90"/>
-      <c r="AC37" s="90"/>
-      <c r="AD37" s="99"/>
-      <c r="AE37" s="207"/>
-      <c r="AF37" s="207"/>
-      <c r="AG37" s="207"/>
-      <c r="AH37" s="207"/>
-      <c r="AI37" s="207"/>
-      <c r="AJ37" s="207"/>
-      <c r="AK37" s="207"/>
-      <c r="AL37" s="207"/>
-      <c r="AM37" s="209" t="s">
+      <c r="AB37" s="89"/>
+      <c r="AC37" s="89"/>
+      <c r="AD37" s="98"/>
+      <c r="AE37" s="206"/>
+      <c r="AF37" s="206"/>
+      <c r="AG37" s="206"/>
+      <c r="AH37" s="206"/>
+      <c r="AI37" s="206"/>
+      <c r="AJ37" s="206"/>
+      <c r="AK37" s="206"/>
+      <c r="AL37" s="206"/>
+      <c r="AM37" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="AN37" s="210"/>
-      <c r="AO37" s="210"/>
-      <c r="AP37" s="212"/>
-      <c r="AQ37" s="209" t="s">
+      <c r="AN37" s="209"/>
+      <c r="AO37" s="209"/>
+      <c r="AP37" s="211"/>
+      <c r="AQ37" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="AR37" s="210"/>
-      <c r="AS37" s="210"/>
-      <c r="AT37" s="212"/>
-      <c r="AU37" s="207"/>
-      <c r="AV37" s="207"/>
-      <c r="AW37" s="207"/>
-      <c r="AX37" s="207"/>
-      <c r="AY37" s="205"/>
-      <c r="AZ37" s="206"/>
-      <c r="BA37" s="206"/>
-      <c r="BB37" s="206"/>
+      <c r="AR37" s="209"/>
+      <c r="AS37" s="209"/>
+      <c r="AT37" s="211"/>
+      <c r="AU37" s="206"/>
+      <c r="AV37" s="206"/>
+      <c r="AW37" s="206"/>
+      <c r="AX37" s="206"/>
+      <c r="AY37" s="204"/>
+      <c r="AZ37" s="205"/>
+      <c r="BA37" s="205"/>
+      <c r="BB37" s="205"/>
     </row>
     <row r="38" spans="1:67">
       <c r="A38" s="25"/>
       <c r="B38" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="207"/>
-      <c r="D38" s="207"/>
-      <c r="E38" s="207"/>
-      <c r="F38" s="207"/>
-      <c r="G38" s="205"/>
-      <c r="H38" s="206"/>
-      <c r="I38" s="206"/>
-      <c r="J38" s="208"/>
-      <c r="K38" s="207"/>
-      <c r="L38" s="207"/>
-      <c r="M38" s="207"/>
-      <c r="N38" s="207"/>
-      <c r="O38" s="207"/>
-      <c r="P38" s="207"/>
-      <c r="Q38" s="207"/>
-      <c r="R38" s="207"/>
-      <c r="S38" s="207"/>
-      <c r="T38" s="207"/>
-      <c r="U38" s="207"/>
-      <c r="V38" s="207"/>
-      <c r="W38" s="207"/>
-      <c r="X38" s="207"/>
-      <c r="Y38" s="207"/>
-      <c r="Z38" s="207"/>
-      <c r="AA38" s="207"/>
-      <c r="AB38" s="207"/>
-      <c r="AC38" s="207"/>
-      <c r="AD38" s="207"/>
-      <c r="AE38" s="209" t="s">
+      <c r="C38" s="206"/>
+      <c r="D38" s="206"/>
+      <c r="E38" s="206"/>
+      <c r="F38" s="206"/>
+      <c r="G38" s="204"/>
+      <c r="H38" s="205"/>
+      <c r="I38" s="205"/>
+      <c r="J38" s="207"/>
+      <c r="K38" s="206"/>
+      <c r="L38" s="206"/>
+      <c r="M38" s="206"/>
+      <c r="N38" s="206"/>
+      <c r="O38" s="206"/>
+      <c r="P38" s="206"/>
+      <c r="Q38" s="206"/>
+      <c r="R38" s="206"/>
+      <c r="S38" s="206"/>
+      <c r="T38" s="206"/>
+      <c r="U38" s="206"/>
+      <c r="V38" s="206"/>
+      <c r="W38" s="206"/>
+      <c r="X38" s="206"/>
+      <c r="Y38" s="206"/>
+      <c r="Z38" s="206"/>
+      <c r="AA38" s="206"/>
+      <c r="AB38" s="206"/>
+      <c r="AC38" s="206"/>
+      <c r="AD38" s="206"/>
+      <c r="AE38" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="AF38" s="210"/>
-      <c r="AG38" s="210"/>
-      <c r="AH38" s="212"/>
-      <c r="AI38" s="209" t="s">
+      <c r="AF38" s="209"/>
+      <c r="AG38" s="209"/>
+      <c r="AH38" s="211"/>
+      <c r="AI38" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="AJ38" s="210"/>
-      <c r="AK38" s="210"/>
-      <c r="AL38" s="212"/>
-      <c r="AM38" s="207"/>
-      <c r="AN38" s="207"/>
-      <c r="AO38" s="207"/>
-      <c r="AP38" s="207"/>
-      <c r="AQ38" s="207"/>
-      <c r="AR38" s="207"/>
-      <c r="AS38" s="207"/>
-      <c r="AT38" s="207"/>
-      <c r="AU38" s="89" t="s">
+      <c r="AJ38" s="209"/>
+      <c r="AK38" s="209"/>
+      <c r="AL38" s="211"/>
+      <c r="AM38" s="206"/>
+      <c r="AN38" s="206"/>
+      <c r="AO38" s="206"/>
+      <c r="AP38" s="206"/>
+      <c r="AQ38" s="206"/>
+      <c r="AR38" s="206"/>
+      <c r="AS38" s="206"/>
+      <c r="AT38" s="206"/>
+      <c r="AU38" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="AV38" s="90"/>
-      <c r="AW38" s="90"/>
-      <c r="AX38" s="99"/>
-      <c r="AY38" s="89" t="s">
+      <c r="AV38" s="89"/>
+      <c r="AW38" s="89"/>
+      <c r="AX38" s="98"/>
+      <c r="AY38" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="AZ38" s="90"/>
-      <c r="BA38" s="90"/>
-      <c r="BB38" s="90"/>
+      <c r="AZ38" s="89"/>
+      <c r="BA38" s="89"/>
+      <c r="BB38" s="89"/>
     </row>
     <row r="39" spans="1:67">
       <c r="A39" s="25"/>
       <c r="B39" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="207"/>
-      <c r="D39" s="207"/>
-      <c r="E39" s="207"/>
-      <c r="F39" s="207"/>
-      <c r="G39" s="205"/>
-      <c r="H39" s="206"/>
-      <c r="I39" s="206"/>
-      <c r="J39" s="208"/>
-      <c r="K39" s="207"/>
-      <c r="L39" s="207"/>
-      <c r="M39" s="207"/>
-      <c r="N39" s="207"/>
-      <c r="O39" s="207"/>
-      <c r="P39" s="207"/>
-      <c r="Q39" s="207"/>
-      <c r="R39" s="207"/>
-      <c r="S39" s="207"/>
-      <c r="T39" s="207"/>
-      <c r="U39" s="207"/>
-      <c r="V39" s="207"/>
-      <c r="W39" s="207"/>
-      <c r="X39" s="207"/>
-      <c r="Y39" s="207"/>
-      <c r="Z39" s="207"/>
-      <c r="AA39" s="207"/>
-      <c r="AB39" s="207"/>
-      <c r="AC39" s="207"/>
-      <c r="AD39" s="207"/>
-      <c r="AE39" s="89" t="s">
+      <c r="C39" s="206"/>
+      <c r="D39" s="206"/>
+      <c r="E39" s="206"/>
+      <c r="F39" s="206"/>
+      <c r="G39" s="204"/>
+      <c r="H39" s="205"/>
+      <c r="I39" s="205"/>
+      <c r="J39" s="207"/>
+      <c r="K39" s="206"/>
+      <c r="L39" s="206"/>
+      <c r="M39" s="206"/>
+      <c r="N39" s="206"/>
+      <c r="O39" s="206"/>
+      <c r="P39" s="206"/>
+      <c r="Q39" s="206"/>
+      <c r="R39" s="206"/>
+      <c r="S39" s="206"/>
+      <c r="T39" s="206"/>
+      <c r="U39" s="206"/>
+      <c r="V39" s="206"/>
+      <c r="W39" s="206"/>
+      <c r="X39" s="206"/>
+      <c r="Y39" s="206"/>
+      <c r="Z39" s="206"/>
+      <c r="AA39" s="206"/>
+      <c r="AB39" s="206"/>
+      <c r="AC39" s="206"/>
+      <c r="AD39" s="206"/>
+      <c r="AE39" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="AF39" s="90"/>
-      <c r="AG39" s="90"/>
-      <c r="AH39" s="99"/>
-      <c r="AI39" s="89" t="s">
+      <c r="AF39" s="89"/>
+      <c r="AG39" s="89"/>
+      <c r="AH39" s="98"/>
+      <c r="AI39" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="AJ39" s="90"/>
-      <c r="AK39" s="90"/>
-      <c r="AL39" s="99"/>
-      <c r="AM39" s="207"/>
-      <c r="AN39" s="207"/>
-      <c r="AO39" s="207"/>
-      <c r="AP39" s="207"/>
-      <c r="AQ39" s="207"/>
-      <c r="AR39" s="207"/>
-      <c r="AS39" s="207"/>
-      <c r="AT39" s="207"/>
-      <c r="AU39" s="209" t="s">
+      <c r="AJ39" s="89"/>
+      <c r="AK39" s="89"/>
+      <c r="AL39" s="98"/>
+      <c r="AM39" s="206"/>
+      <c r="AN39" s="206"/>
+      <c r="AO39" s="206"/>
+      <c r="AP39" s="206"/>
+      <c r="AQ39" s="206"/>
+      <c r="AR39" s="206"/>
+      <c r="AS39" s="206"/>
+      <c r="AT39" s="206"/>
+      <c r="AU39" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="AV39" s="210"/>
-      <c r="AW39" s="210"/>
-      <c r="AX39" s="212"/>
-      <c r="AY39" s="129" t="s">
+      <c r="AV39" s="209"/>
+      <c r="AW39" s="209"/>
+      <c r="AX39" s="211"/>
+      <c r="AY39" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="AZ39" s="130"/>
-      <c r="BA39" s="130"/>
-      <c r="BB39" s="130"/>
+      <c r="AZ39" s="129"/>
+      <c r="BA39" s="129"/>
+      <c r="BB39" s="129"/>
     </row>
     <row r="40" spans="1:67">
       <c r="A40" s="25"/>
       <c r="B40" s="22"/>
-      <c r="C40" s="213" t="s">
+      <c r="C40" s="212" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="213"/>
-      <c r="E40" s="213"/>
-      <c r="F40" s="213"/>
-      <c r="G40" s="214" t="s">
+      <c r="D40" s="212"/>
+      <c r="E40" s="212"/>
+      <c r="F40" s="212"/>
+      <c r="G40" s="213" t="s">
         <v>58</v>
       </c>
-      <c r="H40" s="214"/>
-      <c r="I40" s="214"/>
-      <c r="J40" s="214"/>
-      <c r="K40" s="215" t="s">
+      <c r="H40" s="213"/>
+      <c r="I40" s="213"/>
+      <c r="J40" s="213"/>
+      <c r="K40" s="214" t="s">
         <v>59</v>
       </c>
-      <c r="L40" s="215"/>
-      <c r="M40" s="215"/>
-      <c r="N40" s="215"/>
-      <c r="O40" s="215" t="s">
+      <c r="L40" s="214"/>
+      <c r="M40" s="214"/>
+      <c r="N40" s="214"/>
+      <c r="O40" s="214" t="s">
         <v>60</v>
       </c>
-      <c r="P40" s="215"/>
-      <c r="Q40" s="215"/>
-      <c r="R40" s="215"/>
-      <c r="S40" s="215" t="s">
+      <c r="P40" s="214"/>
+      <c r="Q40" s="214"/>
+      <c r="R40" s="214"/>
+      <c r="S40" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="T40" s="215"/>
-      <c r="U40" s="215"/>
-      <c r="V40" s="215"/>
-      <c r="W40" s="215" t="s">
+      <c r="T40" s="214"/>
+      <c r="U40" s="214"/>
+      <c r="V40" s="214"/>
+      <c r="W40" s="214" t="s">
         <v>62</v>
       </c>
-      <c r="X40" s="215"/>
-      <c r="Y40" s="215"/>
-      <c r="Z40" s="215"/>
-      <c r="AA40" s="215" t="s">
+      <c r="X40" s="214"/>
+      <c r="Y40" s="214"/>
+      <c r="Z40" s="214"/>
+      <c r="AA40" s="214" t="s">
         <v>63</v>
       </c>
-      <c r="AB40" s="215"/>
-      <c r="AC40" s="215"/>
-      <c r="AD40" s="215"/>
-      <c r="AE40" s="215" t="s">
+      <c r="AB40" s="214"/>
+      <c r="AC40" s="214"/>
+      <c r="AD40" s="214"/>
+      <c r="AE40" s="214" t="s">
         <v>64</v>
       </c>
-      <c r="AF40" s="215"/>
-      <c r="AG40" s="215"/>
-      <c r="AH40" s="215"/>
-      <c r="AI40" s="215" t="s">
+      <c r="AF40" s="214"/>
+      <c r="AG40" s="214"/>
+      <c r="AH40" s="214"/>
+      <c r="AI40" s="214" t="s">
         <v>65</v>
       </c>
-      <c r="AJ40" s="215"/>
-      <c r="AK40" s="215"/>
-      <c r="AL40" s="215"/>
-      <c r="AM40" s="215" t="s">
+      <c r="AJ40" s="214"/>
+      <c r="AK40" s="214"/>
+      <c r="AL40" s="214"/>
+      <c r="AM40" s="214" t="s">
         <v>66</v>
       </c>
-      <c r="AN40" s="215"/>
-      <c r="AO40" s="215"/>
-      <c r="AP40" s="215"/>
-      <c r="AQ40" s="215" t="s">
+      <c r="AN40" s="214"/>
+      <c r="AO40" s="214"/>
+      <c r="AP40" s="214"/>
+      <c r="AQ40" s="214" t="s">
         <v>67</v>
       </c>
-      <c r="AR40" s="215"/>
-      <c r="AS40" s="215"/>
-      <c r="AT40" s="215"/>
-      <c r="AU40" s="215" t="s">
+      <c r="AR40" s="214"/>
+      <c r="AS40" s="214"/>
+      <c r="AT40" s="214"/>
+      <c r="AU40" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="AV40" s="215"/>
-      <c r="AW40" s="215"/>
-      <c r="AX40" s="215"/>
-      <c r="AY40" s="216" t="s">
+      <c r="AV40" s="214"/>
+      <c r="AW40" s="214"/>
+      <c r="AX40" s="214"/>
+      <c r="AY40" s="215" t="s">
         <v>69</v>
       </c>
-      <c r="AZ40" s="216"/>
-      <c r="BA40" s="216"/>
-      <c r="BB40" s="216"/>
+      <c r="AZ40" s="215"/>
+      <c r="BA40" s="215"/>
+      <c r="BB40" s="215"/>
     </row>
-    <row r="41" spans="1:67" ht="32.1" customHeight="1"/>
+    <row r="41" spans="1:67" ht="32" customHeight="1"/>
     <row r="42" spans="1:67">
       <c r="D42" s="63"/>
       <c r="E42" s="63"/>
@@ -5659,7 +5652,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input-files/vacation scheduling.xlsx
+++ b/input-files/vacation scheduling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisazhang/Desktop/Call schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6BF2DD-6904-C349-98C1-500E1F2CB17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F6AA69-2138-C941-8FC1-3FE4FE5BF774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="19280" windowHeight="18380" xr2:uid="{15015D36-1785-DC4E-8172-12441D53D08D}"/>
+    <workbookView xWindow="1520" yWindow="740" windowWidth="19280" windowHeight="18380" xr2:uid="{15015D36-1785-DC4E-8172-12441D53D08D}"/>
   </bookViews>
   <sheets>
     <sheet name="AY25 draft clean" sheetId="2" r:id="rId1"/>
@@ -1177,6 +1177,420 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1187,420 +1601,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1940,7 +1940,7 @@
   <dimension ref="A1:BO49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="AP9" sqref="AP9"/>
+      <selection activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1990,11 +1990,11 @@
       <c r="O1" t="s">
         <v>126</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" t="s">
         <v>74</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>101</v>
       </c>
       <c r="R1" t="s">
         <v>70</v>
@@ -2079,11 +2079,11 @@
       <c r="N2" t="s">
         <v>86</v>
       </c>
-      <c r="P2" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" s="71" t="s">
-        <v>123</v>
+      <c r="P2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>101</v>
       </c>
       <c r="R2" t="s">
         <v>91</v>
@@ -2135,8 +2135,8 @@
       </c>
     </row>
     <row r="3" spans="1:67">
-      <c r="P3" t="s">
-        <v>130</v>
+      <c r="Q3" s="71" t="s">
+        <v>123</v>
       </c>
       <c r="R3" t="s">
         <v>80</v>
@@ -2155,7 +2155,7 @@
       </c>
     </row>
     <row r="4" spans="1:67">
-      <c r="AC4" s="73" t="s">
+      <c r="AC4" s="71" t="s">
         <v>104</v>
       </c>
       <c r="AE4" s="73"/>
@@ -2373,8 +2373,8 @@
       <c r="BD8" s="3"/>
     </row>
     <row r="9" spans="1:67">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75"/>
+      <c r="A9" s="212"/>
+      <c r="B9" s="213"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
         <v>0</v>
@@ -2439,8 +2439,8 @@
       <c r="BD9" s="2"/>
     </row>
     <row r="10" spans="1:67">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77"/>
+      <c r="A10" s="214"/>
+      <c r="B10" s="215"/>
       <c r="C10" s="12"/>
       <c r="D10" s="13">
         <v>1</v>
@@ -2639,68 +2639,68 @@
         <v>15</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="79" t="s">
+      <c r="E11" s="178"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="178"/>
+      <c r="M11" s="178"/>
+      <c r="N11" s="178"/>
+      <c r="O11" s="178"/>
+      <c r="P11" s="178"/>
+      <c r="Q11" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="79"/>
-      <c r="AD11" s="80" t="s">
+      <c r="R11" s="146"/>
+      <c r="S11" s="146"/>
+      <c r="T11" s="146"/>
+      <c r="U11" s="146"/>
+      <c r="V11" s="146"/>
+      <c r="W11" s="146"/>
+      <c r="X11" s="146"/>
+      <c r="Y11" s="146"/>
+      <c r="Z11" s="146"/>
+      <c r="AA11" s="146"/>
+      <c r="AB11" s="146"/>
+      <c r="AC11" s="146"/>
+      <c r="AD11" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="AE11" s="81"/>
-      <c r="AF11" s="81"/>
-      <c r="AG11" s="81"/>
-      <c r="AH11" s="81"/>
-      <c r="AI11" s="81"/>
-      <c r="AJ11" s="81"/>
-      <c r="AK11" s="82"/>
-      <c r="AL11" s="83" t="s">
+      <c r="AE11" s="180"/>
+      <c r="AF11" s="180"/>
+      <c r="AG11" s="180"/>
+      <c r="AH11" s="180"/>
+      <c r="AI11" s="180"/>
+      <c r="AJ11" s="180"/>
+      <c r="AK11" s="181"/>
+      <c r="AL11" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="AM11" s="84"/>
-      <c r="AN11" s="84"/>
-      <c r="AO11" s="84"/>
-      <c r="AP11" s="85"/>
-      <c r="AQ11" s="79" t="s">
+      <c r="AM11" s="210"/>
+      <c r="AN11" s="210"/>
+      <c r="AO11" s="210"/>
+      <c r="AP11" s="211"/>
+      <c r="AQ11" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="AR11" s="79"/>
-      <c r="AS11" s="79"/>
-      <c r="AT11" s="79"/>
-      <c r="AU11" s="79"/>
-      <c r="AV11" s="79"/>
-      <c r="AW11" s="79"/>
-      <c r="AX11" s="79"/>
-      <c r="AY11" s="79"/>
-      <c r="AZ11" s="79"/>
-      <c r="BA11" s="79"/>
-      <c r="BB11" s="79"/>
-      <c r="BC11" s="79"/>
+      <c r="AR11" s="146"/>
+      <c r="AS11" s="146"/>
+      <c r="AT11" s="146"/>
+      <c r="AU11" s="146"/>
+      <c r="AV11" s="146"/>
+      <c r="AW11" s="146"/>
+      <c r="AX11" s="146"/>
+      <c r="AY11" s="146"/>
+      <c r="AZ11" s="146"/>
+      <c r="BA11" s="146"/>
+      <c r="BB11" s="146"/>
+      <c r="BC11" s="146"/>
       <c r="BD11" s="23"/>
       <c r="BF11" s="20">
         <v>26</v>
@@ -2736,68 +2736,68 @@
         <v>21</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="79"/>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="78" t="s">
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="146"/>
+      <c r="N12" s="146"/>
+      <c r="O12" s="146"/>
+      <c r="P12" s="146"/>
+      <c r="Q12" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="78"/>
-      <c r="AB12" s="78"/>
-      <c r="AC12" s="78"/>
-      <c r="AD12" s="79" t="s">
+      <c r="R12" s="178"/>
+      <c r="S12" s="178"/>
+      <c r="T12" s="178"/>
+      <c r="U12" s="178"/>
+      <c r="V12" s="178"/>
+      <c r="W12" s="178"/>
+      <c r="X12" s="178"/>
+      <c r="Y12" s="178"/>
+      <c r="Z12" s="178"/>
+      <c r="AA12" s="178"/>
+      <c r="AB12" s="178"/>
+      <c r="AC12" s="178"/>
+      <c r="AD12" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="AE12" s="79"/>
-      <c r="AF12" s="79"/>
-      <c r="AG12" s="79"/>
-      <c r="AH12" s="79"/>
-      <c r="AI12" s="79"/>
-      <c r="AJ12" s="79"/>
-      <c r="AK12" s="79"/>
-      <c r="AL12" s="79"/>
-      <c r="AM12" s="79"/>
-      <c r="AN12" s="79"/>
-      <c r="AO12" s="79"/>
-      <c r="AP12" s="79"/>
-      <c r="AQ12" s="80" t="s">
+      <c r="AE12" s="146"/>
+      <c r="AF12" s="146"/>
+      <c r="AG12" s="146"/>
+      <c r="AH12" s="146"/>
+      <c r="AI12" s="146"/>
+      <c r="AJ12" s="146"/>
+      <c r="AK12" s="146"/>
+      <c r="AL12" s="146"/>
+      <c r="AM12" s="146"/>
+      <c r="AN12" s="146"/>
+      <c r="AO12" s="146"/>
+      <c r="AP12" s="146"/>
+      <c r="AQ12" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="AR12" s="81"/>
-      <c r="AS12" s="81"/>
-      <c r="AT12" s="81"/>
-      <c r="AU12" s="81"/>
-      <c r="AV12" s="81"/>
-      <c r="AW12" s="82"/>
-      <c r="AX12" s="83" t="s">
+      <c r="AR12" s="180"/>
+      <c r="AS12" s="180"/>
+      <c r="AT12" s="180"/>
+      <c r="AU12" s="180"/>
+      <c r="AV12" s="180"/>
+      <c r="AW12" s="181"/>
+      <c r="AX12" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="AY12" s="84"/>
-      <c r="AZ12" s="84"/>
-      <c r="BA12" s="84"/>
-      <c r="BB12" s="84"/>
-      <c r="BC12" s="85"/>
+      <c r="AY12" s="210"/>
+      <c r="AZ12" s="210"/>
+      <c r="BA12" s="210"/>
+      <c r="BB12" s="210"/>
+      <c r="BC12" s="211"/>
       <c r="BD12" s="26"/>
       <c r="BF12" s="20">
         <v>26</v>
@@ -2831,68 +2831,68 @@
         <v>22</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="83" t="s">
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="181"/>
+      <c r="K13" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="79" t="s">
+      <c r="L13" s="210"/>
+      <c r="M13" s="210"/>
+      <c r="N13" s="210"/>
+      <c r="O13" s="210"/>
+      <c r="P13" s="211"/>
+      <c r="Q13" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="79"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="79"/>
-      <c r="Z13" s="79"/>
-      <c r="AA13" s="79"/>
-      <c r="AB13" s="79"/>
-      <c r="AC13" s="79"/>
-      <c r="AD13" s="78" t="s">
+      <c r="R13" s="146"/>
+      <c r="S13" s="146"/>
+      <c r="T13" s="146"/>
+      <c r="U13" s="146"/>
+      <c r="V13" s="146"/>
+      <c r="W13" s="146"/>
+      <c r="X13" s="146"/>
+      <c r="Y13" s="146"/>
+      <c r="Z13" s="146"/>
+      <c r="AA13" s="146"/>
+      <c r="AB13" s="146"/>
+      <c r="AC13" s="146"/>
+      <c r="AD13" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="AE13" s="78"/>
-      <c r="AF13" s="78"/>
-      <c r="AG13" s="78"/>
-      <c r="AH13" s="78"/>
-      <c r="AI13" s="78"/>
-      <c r="AJ13" s="78"/>
-      <c r="AK13" s="78"/>
-      <c r="AL13" s="78"/>
-      <c r="AM13" s="78"/>
-      <c r="AN13" s="78"/>
-      <c r="AO13" s="78"/>
-      <c r="AP13" s="78"/>
-      <c r="AQ13" s="79" t="s">
+      <c r="AE13" s="178"/>
+      <c r="AF13" s="178"/>
+      <c r="AG13" s="178"/>
+      <c r="AH13" s="178"/>
+      <c r="AI13" s="178"/>
+      <c r="AJ13" s="178"/>
+      <c r="AK13" s="178"/>
+      <c r="AL13" s="178"/>
+      <c r="AM13" s="178"/>
+      <c r="AN13" s="178"/>
+      <c r="AO13" s="178"/>
+      <c r="AP13" s="178"/>
+      <c r="AQ13" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="AR13" s="79"/>
-      <c r="AS13" s="79"/>
-      <c r="AT13" s="79"/>
-      <c r="AU13" s="79"/>
-      <c r="AV13" s="79"/>
-      <c r="AW13" s="79"/>
-      <c r="AX13" s="79"/>
-      <c r="AY13" s="79"/>
-      <c r="AZ13" s="79"/>
-      <c r="BA13" s="79"/>
-      <c r="BB13" s="79"/>
-      <c r="BC13" s="79"/>
+      <c r="AR13" s="146"/>
+      <c r="AS13" s="146"/>
+      <c r="AT13" s="146"/>
+      <c r="AU13" s="146"/>
+      <c r="AV13" s="146"/>
+      <c r="AW13" s="146"/>
+      <c r="AX13" s="146"/>
+      <c r="AY13" s="146"/>
+      <c r="AZ13" s="146"/>
+      <c r="BA13" s="146"/>
+      <c r="BB13" s="146"/>
+      <c r="BC13" s="146"/>
       <c r="BD13" s="23"/>
       <c r="BF13" s="20">
         <v>26</v>
@@ -2926,68 +2926,68 @@
         <v>23</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="83" t="s">
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="146"/>
+      <c r="N14" s="146"/>
+      <c r="O14" s="146"/>
+      <c r="P14" s="146"/>
+      <c r="Q14" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="80" t="s">
+      <c r="R14" s="210"/>
+      <c r="S14" s="210"/>
+      <c r="T14" s="210"/>
+      <c r="U14" s="211"/>
+      <c r="V14" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="W14" s="81"/>
-      <c r="X14" s="81"/>
-      <c r="Y14" s="81"/>
-      <c r="Z14" s="81"/>
-      <c r="AA14" s="81"/>
-      <c r="AB14" s="81"/>
-      <c r="AC14" s="82"/>
-      <c r="AD14" s="79" t="s">
+      <c r="W14" s="180"/>
+      <c r="X14" s="180"/>
+      <c r="Y14" s="180"/>
+      <c r="Z14" s="180"/>
+      <c r="AA14" s="180"/>
+      <c r="AB14" s="180"/>
+      <c r="AC14" s="181"/>
+      <c r="AD14" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="AE14" s="79"/>
-      <c r="AF14" s="79"/>
-      <c r="AG14" s="79"/>
-      <c r="AH14" s="79"/>
-      <c r="AI14" s="79"/>
-      <c r="AJ14" s="79"/>
-      <c r="AK14" s="79"/>
-      <c r="AL14" s="79"/>
-      <c r="AM14" s="79"/>
-      <c r="AN14" s="79"/>
-      <c r="AO14" s="79"/>
-      <c r="AP14" s="79"/>
-      <c r="AQ14" s="78" t="s">
+      <c r="AE14" s="146"/>
+      <c r="AF14" s="146"/>
+      <c r="AG14" s="146"/>
+      <c r="AH14" s="146"/>
+      <c r="AI14" s="146"/>
+      <c r="AJ14" s="146"/>
+      <c r="AK14" s="146"/>
+      <c r="AL14" s="146"/>
+      <c r="AM14" s="146"/>
+      <c r="AN14" s="146"/>
+      <c r="AO14" s="146"/>
+      <c r="AP14" s="146"/>
+      <c r="AQ14" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="AR14" s="78"/>
-      <c r="AS14" s="78"/>
-      <c r="AT14" s="78"/>
-      <c r="AU14" s="78"/>
-      <c r="AV14" s="78"/>
-      <c r="AW14" s="78"/>
-      <c r="AX14" s="78"/>
-      <c r="AY14" s="78"/>
-      <c r="AZ14" s="78"/>
-      <c r="BA14" s="78"/>
-      <c r="BB14" s="78"/>
-      <c r="BC14" s="78"/>
+      <c r="AR14" s="178"/>
+      <c r="AS14" s="178"/>
+      <c r="AT14" s="178"/>
+      <c r="AU14" s="178"/>
+      <c r="AV14" s="178"/>
+      <c r="AW14" s="178"/>
+      <c r="AX14" s="178"/>
+      <c r="AY14" s="178"/>
+      <c r="AZ14" s="178"/>
+      <c r="BA14" s="178"/>
+      <c r="BB14" s="178"/>
+      <c r="BC14" s="178"/>
       <c r="BD14" s="23"/>
       <c r="BF14" s="20">
         <v>26</v>
@@ -3037,12 +3037,12 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="86"/>
-      <c r="X15" s="86"/>
-      <c r="Y15" s="86"/>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="86"/>
-      <c r="AB15" s="86"/>
+      <c r="W15" s="208"/>
+      <c r="X15" s="208"/>
+      <c r="Y15" s="208"/>
+      <c r="Z15" s="208"/>
+      <c r="AA15" s="208"/>
+      <c r="AB15" s="208"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
@@ -3079,74 +3079,74 @@
         <v>25</v>
       </c>
       <c r="C16" s="27"/>
-      <c r="D16" s="79" t="s">
+      <c r="D16" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="87" t="s">
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="88" t="s">
+      <c r="K16" s="149"/>
+      <c r="L16" s="149"/>
+      <c r="M16" s="149"/>
+      <c r="N16" s="149"/>
+      <c r="O16" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="89"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="89"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="89"/>
-      <c r="Z16" s="89"/>
-      <c r="AA16" s="89"/>
-      <c r="AB16" s="90" t="s">
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="AC16" s="91"/>
-      <c r="AD16" s="92" t="s">
+      <c r="AC16" s="207"/>
+      <c r="AD16" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="AE16" s="92"/>
-      <c r="AF16" s="92"/>
-      <c r="AG16" s="92"/>
-      <c r="AH16" s="92"/>
-      <c r="AI16" s="92"/>
-      <c r="AJ16" s="92"/>
-      <c r="AK16" s="92"/>
-      <c r="AL16" s="93" t="s">
+      <c r="AE16" s="204"/>
+      <c r="AF16" s="204"/>
+      <c r="AG16" s="204"/>
+      <c r="AH16" s="204"/>
+      <c r="AI16" s="204"/>
+      <c r="AJ16" s="204"/>
+      <c r="AK16" s="204"/>
+      <c r="AL16" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="AM16" s="93"/>
-      <c r="AN16" s="93"/>
-      <c r="AO16" s="93"/>
-      <c r="AP16" s="93"/>
-      <c r="AQ16" s="93"/>
-      <c r="AR16" s="93"/>
-      <c r="AS16" s="93"/>
-      <c r="AT16" s="93"/>
-      <c r="AU16" s="97" t="s">
+      <c r="AM16" s="201"/>
+      <c r="AN16" s="201"/>
+      <c r="AO16" s="201"/>
+      <c r="AP16" s="201"/>
+      <c r="AQ16" s="201"/>
+      <c r="AR16" s="201"/>
+      <c r="AS16" s="201"/>
+      <c r="AT16" s="201"/>
+      <c r="AU16" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="AV16" s="97"/>
-      <c r="AW16" s="97"/>
-      <c r="AX16" s="96" t="s">
+      <c r="AV16" s="205"/>
+      <c r="AW16" s="205"/>
+      <c r="AX16" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="AY16" s="96"/>
-      <c r="AZ16" s="96"/>
-      <c r="BA16" s="96"/>
-      <c r="BB16" s="96"/>
-      <c r="BC16" s="96"/>
+      <c r="AY16" s="203"/>
+      <c r="AZ16" s="203"/>
+      <c r="BA16" s="203"/>
+      <c r="BB16" s="203"/>
+      <c r="BC16" s="203"/>
       <c r="BD16" s="28"/>
       <c r="BF16" s="20">
         <v>17</v>
@@ -3184,76 +3184,76 @@
         <v>27</v>
       </c>
       <c r="C17" s="27"/>
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="204"/>
+      <c r="G17" s="204"/>
+      <c r="H17" s="204"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="204"/>
       <c r="K17" s="29" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
-      <c r="N17" s="88" t="s">
+      <c r="N17" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="98"/>
-      <c r="Z17" s="90" t="s">
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="80"/>
+      <c r="Z17" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="AA17" s="91"/>
-      <c r="AB17" s="87" t="s">
+      <c r="AA17" s="207"/>
+      <c r="AB17" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="AC17" s="87"/>
-      <c r="AD17" s="87"/>
-      <c r="AE17" s="87"/>
-      <c r="AF17" s="87"/>
-      <c r="AG17" s="87"/>
-      <c r="AH17" s="79" t="s">
+      <c r="AC17" s="149"/>
+      <c r="AD17" s="149"/>
+      <c r="AE17" s="149"/>
+      <c r="AF17" s="149"/>
+      <c r="AG17" s="149"/>
+      <c r="AH17" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="AI17" s="79"/>
-      <c r="AJ17" s="79"/>
-      <c r="AK17" s="79"/>
-      <c r="AL17" s="96" t="s">
+      <c r="AI17" s="146"/>
+      <c r="AJ17" s="146"/>
+      <c r="AK17" s="146"/>
+      <c r="AL17" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="AM17" s="96"/>
-      <c r="AN17" s="96"/>
-      <c r="AO17" s="96"/>
-      <c r="AP17" s="96"/>
-      <c r="AQ17" s="97" t="s">
+      <c r="AM17" s="203"/>
+      <c r="AN17" s="203"/>
+      <c r="AO17" s="203"/>
+      <c r="AP17" s="203"/>
+      <c r="AQ17" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="AR17" s="97"/>
-      <c r="AS17" s="97"/>
-      <c r="AT17" s="97"/>
-      <c r="AU17" s="93" t="s">
+      <c r="AR17" s="205"/>
+      <c r="AS17" s="205"/>
+      <c r="AT17" s="205"/>
+      <c r="AU17" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="AV17" s="93"/>
-      <c r="AW17" s="93"/>
-      <c r="AX17" s="93"/>
-      <c r="AY17" s="93"/>
-      <c r="AZ17" s="93"/>
-      <c r="BA17" s="93"/>
-      <c r="BB17" s="93"/>
-      <c r="BC17" s="93"/>
+      <c r="AV17" s="201"/>
+      <c r="AW17" s="201"/>
+      <c r="AX17" s="201"/>
+      <c r="AY17" s="201"/>
+      <c r="AZ17" s="201"/>
+      <c r="BA17" s="201"/>
+      <c r="BB17" s="201"/>
+      <c r="BC17" s="201"/>
       <c r="BD17" s="24"/>
       <c r="BF17" s="20">
         <v>18</v>
@@ -3288,70 +3288,70 @@
         <v>28</v>
       </c>
       <c r="C18" s="27"/>
-      <c r="D18" s="94" t="s">
+      <c r="D18" s="202" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="95" t="s">
+      <c r="E18" s="202"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="96" t="s">
+      <c r="K18" s="199"/>
+      <c r="L18" s="199"/>
+      <c r="M18" s="199"/>
+      <c r="N18" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="96"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="96"/>
-      <c r="U18" s="96"/>
-      <c r="V18" s="92" t="s">
+      <c r="O18" s="203"/>
+      <c r="P18" s="203"/>
+      <c r="Q18" s="203"/>
+      <c r="R18" s="203"/>
+      <c r="S18" s="203"/>
+      <c r="T18" s="203"/>
+      <c r="U18" s="203"/>
+      <c r="V18" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="W18" s="92"/>
-      <c r="X18" s="92"/>
-      <c r="Y18" s="92"/>
-      <c r="Z18" s="92"/>
-      <c r="AA18" s="92"/>
-      <c r="AB18" s="92"/>
-      <c r="AC18" s="92"/>
-      <c r="AD18" s="93" t="s">
+      <c r="W18" s="204"/>
+      <c r="X18" s="204"/>
+      <c r="Y18" s="204"/>
+      <c r="Z18" s="204"/>
+      <c r="AA18" s="204"/>
+      <c r="AB18" s="204"/>
+      <c r="AC18" s="204"/>
+      <c r="AD18" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="AE18" s="93"/>
-      <c r="AF18" s="93"/>
-      <c r="AG18" s="93"/>
-      <c r="AH18" s="93"/>
-      <c r="AI18" s="93"/>
-      <c r="AJ18" s="93"/>
-      <c r="AK18" s="93"/>
-      <c r="AL18" s="79" t="s">
+      <c r="AE18" s="201"/>
+      <c r="AF18" s="201"/>
+      <c r="AG18" s="201"/>
+      <c r="AH18" s="201"/>
+      <c r="AI18" s="201"/>
+      <c r="AJ18" s="201"/>
+      <c r="AK18" s="201"/>
+      <c r="AL18" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="AM18" s="79"/>
-      <c r="AN18" s="79"/>
-      <c r="AO18" s="79"/>
-      <c r="AP18" s="79"/>
-      <c r="AQ18" s="79"/>
-      <c r="AR18" s="79"/>
-      <c r="AS18" s="79"/>
-      <c r="AT18" s="79"/>
-      <c r="AU18" s="79"/>
-      <c r="AV18" s="79"/>
-      <c r="AW18" s="79"/>
-      <c r="AX18" s="79"/>
-      <c r="AY18" s="79"/>
-      <c r="AZ18" s="79"/>
-      <c r="BA18" s="79"/>
-      <c r="BB18" s="79"/>
-      <c r="BC18" s="79"/>
+      <c r="AM18" s="146"/>
+      <c r="AN18" s="146"/>
+      <c r="AO18" s="146"/>
+      <c r="AP18" s="146"/>
+      <c r="AQ18" s="146"/>
+      <c r="AR18" s="146"/>
+      <c r="AS18" s="146"/>
+      <c r="AT18" s="146"/>
+      <c r="AU18" s="146"/>
+      <c r="AV18" s="146"/>
+      <c r="AW18" s="146"/>
+      <c r="AX18" s="146"/>
+      <c r="AY18" s="146"/>
+      <c r="AZ18" s="146"/>
+      <c r="BA18" s="146"/>
+      <c r="BB18" s="146"/>
+      <c r="BC18" s="146"/>
       <c r="BD18" s="26"/>
       <c r="BF18" s="20">
         <v>18</v>
@@ -3431,68 +3431,68 @@
         <v>30</v>
       </c>
       <c r="C20" s="32"/>
-      <c r="D20" s="80" t="s">
+      <c r="D20" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="99" t="s">
+      <c r="E20" s="180"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="180"/>
+      <c r="J20" s="180"/>
+      <c r="K20" s="180"/>
+      <c r="L20" s="181"/>
+      <c r="M20" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="N20" s="99"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="100"/>
-      <c r="S20" s="99"/>
-      <c r="T20" s="99"/>
-      <c r="U20" s="99"/>
-      <c r="V20" s="99"/>
-      <c r="W20" s="99"/>
-      <c r="X20" s="99"/>
-      <c r="Y20" s="99"/>
+      <c r="N20" s="182"/>
+      <c r="O20" s="183"/>
+      <c r="P20" s="183"/>
+      <c r="Q20" s="183"/>
+      <c r="R20" s="183"/>
+      <c r="S20" s="182"/>
+      <c r="T20" s="182"/>
+      <c r="U20" s="182"/>
+      <c r="V20" s="182"/>
+      <c r="W20" s="182"/>
+      <c r="X20" s="182"/>
+      <c r="Y20" s="182"/>
       <c r="Z20" s="32"/>
       <c r="AA20" s="32"/>
       <c r="AB20" s="32"/>
       <c r="AC20" s="32"/>
-      <c r="AD20" s="101" t="s">
+      <c r="AD20" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="AE20" s="102"/>
-      <c r="AF20" s="102"/>
-      <c r="AG20" s="102"/>
-      <c r="AH20" s="102"/>
-      <c r="AI20" s="102"/>
-      <c r="AJ20" s="102"/>
-      <c r="AK20" s="102"/>
-      <c r="AL20" s="102"/>
-      <c r="AM20" s="102"/>
-      <c r="AN20" s="102"/>
-      <c r="AO20" s="102"/>
-      <c r="AP20" s="103"/>
-      <c r="AQ20" s="104" t="s">
+      <c r="AE20" s="185"/>
+      <c r="AF20" s="185"/>
+      <c r="AG20" s="185"/>
+      <c r="AH20" s="185"/>
+      <c r="AI20" s="185"/>
+      <c r="AJ20" s="185"/>
+      <c r="AK20" s="185"/>
+      <c r="AL20" s="185"/>
+      <c r="AM20" s="185"/>
+      <c r="AN20" s="185"/>
+      <c r="AO20" s="185"/>
+      <c r="AP20" s="186"/>
+      <c r="AQ20" s="187" t="s">
         <v>34</v>
       </c>
-      <c r="AR20" s="105"/>
-      <c r="AS20" s="105"/>
-      <c r="AT20" s="105"/>
-      <c r="AU20" s="105"/>
-      <c r="AV20" s="105"/>
-      <c r="AW20" s="105"/>
-      <c r="AX20" s="105"/>
-      <c r="AY20" s="105"/>
-      <c r="AZ20" s="105"/>
-      <c r="BA20" s="106"/>
-      <c r="BB20" s="107" t="s">
+      <c r="AR20" s="188"/>
+      <c r="AS20" s="188"/>
+      <c r="AT20" s="188"/>
+      <c r="AU20" s="188"/>
+      <c r="AV20" s="188"/>
+      <c r="AW20" s="188"/>
+      <c r="AX20" s="188"/>
+      <c r="AY20" s="188"/>
+      <c r="AZ20" s="188"/>
+      <c r="BA20" s="189"/>
+      <c r="BB20" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="BC20" s="108"/>
+      <c r="BC20" s="191"/>
       <c r="BD20" s="33"/>
     </row>
     <row r="21" spans="1:67" s="1" customFormat="1">
@@ -3710,54 +3710,54 @@
       <c r="B24" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="109" t="s">
+      <c r="D24" s="192" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="88" t="s">
+      <c r="E24" s="193"/>
+      <c r="F24" s="193"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="112" t="s">
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="P24" s="113"/>
-      <c r="Q24" s="113"/>
-      <c r="R24" s="113"/>
-      <c r="S24" s="113"/>
-      <c r="T24" s="114"/>
-      <c r="U24" s="115" t="s">
+      <c r="P24" s="167"/>
+      <c r="Q24" s="167"/>
+      <c r="R24" s="167"/>
+      <c r="S24" s="167"/>
+      <c r="T24" s="168"/>
+      <c r="U24" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="V24" s="116"/>
-      <c r="W24" s="116"/>
-      <c r="X24" s="116"/>
-      <c r="Y24" s="116"/>
-      <c r="Z24" s="116"/>
-      <c r="AA24" s="117"/>
-      <c r="AB24" s="118" t="s">
+      <c r="V24" s="97"/>
+      <c r="W24" s="97"/>
+      <c r="X24" s="97"/>
+      <c r="Y24" s="97"/>
+      <c r="Z24" s="97"/>
+      <c r="AA24" s="98"/>
+      <c r="AB24" s="196" t="s">
         <v>12</v>
       </c>
-      <c r="AC24" s="119"/>
-      <c r="AD24" s="119"/>
-      <c r="AE24" s="119"/>
-      <c r="AF24" s="119"/>
-      <c r="AG24" s="119"/>
-      <c r="AH24" s="119"/>
-      <c r="AI24" s="119"/>
-      <c r="AJ24" s="119"/>
-      <c r="AK24" s="119"/>
-      <c r="AL24" s="119"/>
-      <c r="AM24" s="119"/>
-      <c r="AN24" s="119"/>
-      <c r="AO24" s="120"/>
+      <c r="AC24" s="197"/>
+      <c r="AD24" s="197"/>
+      <c r="AE24" s="197"/>
+      <c r="AF24" s="197"/>
+      <c r="AG24" s="197"/>
+      <c r="AH24" s="197"/>
+      <c r="AI24" s="197"/>
+      <c r="AJ24" s="197"/>
+      <c r="AK24" s="197"/>
+      <c r="AL24" s="197"/>
+      <c r="AM24" s="197"/>
+      <c r="AN24" s="197"/>
+      <c r="AO24" s="198"/>
       <c r="AP24" s="38" t="s">
         <v>41</v>
       </c>
@@ -3770,12 +3770,12 @@
       <c r="AW24" s="39"/>
       <c r="AX24" s="39"/>
       <c r="AY24" s="40"/>
-      <c r="AZ24" s="95" t="s">
+      <c r="AZ24" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="BA24" s="95"/>
-      <c r="BB24" s="95"/>
-      <c r="BC24" s="121"/>
+      <c r="BA24" s="199"/>
+      <c r="BB24" s="199"/>
+      <c r="BC24" s="200"/>
       <c r="BD24" s="41"/>
       <c r="BE24" s="1">
         <v>4</v>
@@ -3808,76 +3808,76 @@
       <c r="B25" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="122" t="s">
+      <c r="D25" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="125" t="s">
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="126"/>
-      <c r="K25" s="126"/>
-      <c r="L25" s="127"/>
+      <c r="J25" s="160"/>
+      <c r="K25" s="160"/>
+      <c r="L25" s="161"/>
       <c r="M25" s="42" t="s">
         <v>9</v>
       </c>
       <c r="N25" s="43"/>
       <c r="O25" s="43"/>
       <c r="P25" s="44"/>
-      <c r="Q25" s="128" t="s">
+      <c r="Q25" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="R25" s="129"/>
-      <c r="S25" s="129"/>
-      <c r="T25" s="129"/>
-      <c r="U25" s="129"/>
-      <c r="V25" s="129"/>
-      <c r="W25" s="129"/>
-      <c r="X25" s="129"/>
-      <c r="Y25" s="129"/>
-      <c r="Z25" s="129"/>
-      <c r="AA25" s="130"/>
-      <c r="AB25" s="131" t="s">
+      <c r="R25" s="84"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="84"/>
+      <c r="U25" s="84"/>
+      <c r="V25" s="84"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="84"/>
+      <c r="Y25" s="84"/>
+      <c r="Z25" s="84"/>
+      <c r="AA25" s="162"/>
+      <c r="AB25" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="AC25" s="132"/>
-      <c r="AD25" s="132"/>
-      <c r="AE25" s="132"/>
-      <c r="AF25" s="132"/>
-      <c r="AG25" s="133"/>
-      <c r="AH25" s="112" t="s">
+      <c r="AC25" s="164"/>
+      <c r="AD25" s="164"/>
+      <c r="AE25" s="164"/>
+      <c r="AF25" s="164"/>
+      <c r="AG25" s="165"/>
+      <c r="AH25" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="AI25" s="113"/>
-      <c r="AJ25" s="113"/>
-      <c r="AK25" s="113"/>
-      <c r="AL25" s="113"/>
-      <c r="AM25" s="113"/>
-      <c r="AN25" s="113"/>
-      <c r="AO25" s="113"/>
-      <c r="AP25" s="114"/>
-      <c r="AQ25" s="134" t="s">
+      <c r="AI25" s="167"/>
+      <c r="AJ25" s="167"/>
+      <c r="AK25" s="167"/>
+      <c r="AL25" s="167"/>
+      <c r="AM25" s="167"/>
+      <c r="AN25" s="167"/>
+      <c r="AO25" s="167"/>
+      <c r="AP25" s="168"/>
+      <c r="AQ25" s="169" t="s">
         <v>41</v>
       </c>
-      <c r="AR25" s="135"/>
-      <c r="AS25" s="135"/>
-      <c r="AT25" s="136"/>
-      <c r="AU25" s="137" t="s">
+      <c r="AR25" s="170"/>
+      <c r="AS25" s="170"/>
+      <c r="AT25" s="171"/>
+      <c r="AU25" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="AV25" s="138"/>
-      <c r="AW25" s="138"/>
-      <c r="AX25" s="139"/>
-      <c r="AY25" s="140" t="s">
+      <c r="AV25" s="173"/>
+      <c r="AW25" s="173"/>
+      <c r="AX25" s="174"/>
+      <c r="AY25" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="AZ25" s="123"/>
-      <c r="BA25" s="123"/>
-      <c r="BB25" s="123"/>
-      <c r="BC25" s="124"/>
+      <c r="AZ25" s="157"/>
+      <c r="BA25" s="157"/>
+      <c r="BB25" s="157"/>
+      <c r="BC25" s="158"/>
       <c r="BD25" s="36"/>
       <c r="BE25" s="1">
         <v>4</v>
@@ -3910,74 +3910,74 @@
       <c r="B26" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="116" t="s">
+      <c r="D26" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="117"/>
-      <c r="M26" s="149" t="s">
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="N26" s="150"/>
-      <c r="O26" s="150"/>
-      <c r="P26" s="151"/>
-      <c r="Q26" s="152" t="s">
+      <c r="N26" s="151"/>
+      <c r="O26" s="151"/>
+      <c r="P26" s="152"/>
+      <c r="Q26" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="R26" s="153"/>
-      <c r="S26" s="153"/>
-      <c r="T26" s="154"/>
-      <c r="U26" s="87" t="s">
+      <c r="R26" s="154"/>
+      <c r="S26" s="154"/>
+      <c r="T26" s="155"/>
+      <c r="U26" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="V26" s="87"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="87"/>
-      <c r="AA26" s="87"/>
-      <c r="AB26" s="88" t="s">
+      <c r="V26" s="149"/>
+      <c r="W26" s="149"/>
+      <c r="X26" s="149"/>
+      <c r="Y26" s="149"/>
+      <c r="Z26" s="149"/>
+      <c r="AA26" s="149"/>
+      <c r="AB26" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="AC26" s="89"/>
-      <c r="AD26" s="89"/>
-      <c r="AE26" s="89"/>
-      <c r="AF26" s="89"/>
-      <c r="AG26" s="98"/>
+      <c r="AC26" s="79"/>
+      <c r="AD26" s="79"/>
+      <c r="AE26" s="79"/>
+      <c r="AF26" s="79"/>
+      <c r="AG26" s="80"/>
       <c r="AH26" s="148" t="s">
         <v>8</v>
       </c>
       <c r="AI26" s="148"/>
       <c r="AJ26" s="148"/>
       <c r="AK26" s="148"/>
-      <c r="AL26" s="141" t="s">
+      <c r="AL26" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="AM26" s="142"/>
-      <c r="AN26" s="142"/>
-      <c r="AO26" s="143"/>
-      <c r="AP26" s="78" t="s">
+      <c r="AM26" s="176"/>
+      <c r="AN26" s="176"/>
+      <c r="AO26" s="177"/>
+      <c r="AP26" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="AQ26" s="78"/>
-      <c r="AR26" s="78"/>
-      <c r="AS26" s="78"/>
-      <c r="AT26" s="78"/>
-      <c r="AU26" s="78"/>
-      <c r="AV26" s="78"/>
-      <c r="AW26" s="78"/>
-      <c r="AX26" s="78"/>
-      <c r="AY26" s="78"/>
-      <c r="AZ26" s="78"/>
-      <c r="BA26" s="78"/>
-      <c r="BB26" s="78"/>
-      <c r="BC26" s="78"/>
+      <c r="AQ26" s="178"/>
+      <c r="AR26" s="178"/>
+      <c r="AS26" s="178"/>
+      <c r="AT26" s="178"/>
+      <c r="AU26" s="178"/>
+      <c r="AV26" s="178"/>
+      <c r="AW26" s="178"/>
+      <c r="AX26" s="178"/>
+      <c r="AY26" s="178"/>
+      <c r="AZ26" s="178"/>
+      <c r="BA26" s="178"/>
+      <c r="BB26" s="178"/>
+      <c r="BC26" s="178"/>
       <c r="BD26" s="23"/>
       <c r="BE26" s="1">
         <v>4</v>
@@ -4010,49 +4010,49 @@
       <c r="B27" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="144" t="s">
+      <c r="D27" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="144"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="144"/>
-      <c r="J27" s="144"/>
-      <c r="K27" s="144"/>
-      <c r="L27" s="144"/>
-      <c r="M27" s="144"/>
-      <c r="N27" s="144"/>
-      <c r="O27" s="144"/>
-      <c r="P27" s="144"/>
-      <c r="Q27" s="145" t="s">
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="143"/>
+      <c r="O27" s="143"/>
+      <c r="P27" s="143"/>
+      <c r="Q27" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="R27" s="145"/>
-      <c r="S27" s="145"/>
-      <c r="T27" s="145"/>
-      <c r="U27" s="146" t="s">
+      <c r="R27" s="144"/>
+      <c r="S27" s="144"/>
+      <c r="T27" s="144"/>
+      <c r="U27" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="V27" s="146"/>
-      <c r="W27" s="146"/>
-      <c r="X27" s="146"/>
-      <c r="Y27" s="146"/>
-      <c r="Z27" s="146"/>
-      <c r="AA27" s="146"/>
-      <c r="AB27" s="146"/>
-      <c r="AC27" s="146"/>
-      <c r="AD27" s="146"/>
-      <c r="AE27" s="146"/>
-      <c r="AF27" s="79" t="s">
+      <c r="V27" s="145"/>
+      <c r="W27" s="145"/>
+      <c r="X27" s="145"/>
+      <c r="Y27" s="145"/>
+      <c r="Z27" s="145"/>
+      <c r="AA27" s="145"/>
+      <c r="AB27" s="145"/>
+      <c r="AC27" s="145"/>
+      <c r="AD27" s="145"/>
+      <c r="AE27" s="145"/>
+      <c r="AF27" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="AG27" s="79"/>
-      <c r="AH27" s="79"/>
-      <c r="AI27" s="79"/>
-      <c r="AJ27" s="79"/>
-      <c r="AK27" s="79"/>
-      <c r="AL27" s="79"/>
+      <c r="AG27" s="146"/>
+      <c r="AH27" s="146"/>
+      <c r="AI27" s="146"/>
+      <c r="AJ27" s="146"/>
+      <c r="AK27" s="146"/>
+      <c r="AL27" s="146"/>
       <c r="AM27" s="147" t="s">
         <v>10</v>
       </c>
@@ -4068,14 +4068,14 @@
       <c r="AU27" s="148"/>
       <c r="AV27" s="148"/>
       <c r="AW27" s="148"/>
-      <c r="AX27" s="87" t="s">
+      <c r="AX27" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="AY27" s="87"/>
-      <c r="AZ27" s="87"/>
-      <c r="BA27" s="87"/>
-      <c r="BB27" s="87"/>
-      <c r="BC27" s="87"/>
+      <c r="AY27" s="149"/>
+      <c r="AZ27" s="149"/>
+      <c r="BA27" s="149"/>
+      <c r="BB27" s="149"/>
+      <c r="BC27" s="149"/>
       <c r="BD27" s="24"/>
       <c r="BE27" s="1">
         <v>4</v>
@@ -4191,76 +4191,76 @@
         <v>47</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="179" t="s">
+      <c r="D30" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="180"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="180"/>
-      <c r="H30" s="180"/>
-      <c r="I30" s="180"/>
-      <c r="J30" s="180"/>
-      <c r="K30" s="180"/>
-      <c r="L30" s="180"/>
-      <c r="M30" s="180"/>
-      <c r="N30" s="180"/>
-      <c r="O30" s="180"/>
-      <c r="P30" s="181"/>
-      <c r="Q30" s="182" t="s">
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="139"/>
+      <c r="L30" s="139"/>
+      <c r="M30" s="139"/>
+      <c r="N30" s="139"/>
+      <c r="O30" s="139"/>
+      <c r="P30" s="140"/>
+      <c r="Q30" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="R30" s="168"/>
-      <c r="S30" s="168"/>
-      <c r="T30" s="168"/>
-      <c r="U30" s="183"/>
-      <c r="V30" s="178" t="s">
+      <c r="R30" s="92"/>
+      <c r="S30" s="92"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="117"/>
+      <c r="V30" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="W30" s="173"/>
-      <c r="X30" s="173"/>
-      <c r="Y30" s="174"/>
-      <c r="Z30" s="155" t="s">
+      <c r="W30" s="112"/>
+      <c r="X30" s="112"/>
+      <c r="Y30" s="113"/>
+      <c r="Z30" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="AA30" s="156"/>
-      <c r="AB30" s="156"/>
-      <c r="AC30" s="156"/>
-      <c r="AD30" s="156"/>
-      <c r="AE30" s="157"/>
-      <c r="AF30" s="164" t="s">
+      <c r="AA30" s="131"/>
+      <c r="AB30" s="131"/>
+      <c r="AC30" s="131"/>
+      <c r="AD30" s="131"/>
+      <c r="AE30" s="132"/>
+      <c r="AF30" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="AG30" s="165"/>
-      <c r="AH30" s="165"/>
-      <c r="AI30" s="165"/>
-      <c r="AJ30" s="165"/>
-      <c r="AK30" s="166"/>
-      <c r="AL30" s="178" t="s">
+      <c r="AG30" s="129"/>
+      <c r="AH30" s="129"/>
+      <c r="AI30" s="129"/>
+      <c r="AJ30" s="129"/>
+      <c r="AK30" s="135"/>
+      <c r="AL30" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="AM30" s="173"/>
-      <c r="AN30" s="173"/>
-      <c r="AO30" s="174"/>
-      <c r="AP30" s="155" t="s">
+      <c r="AM30" s="112"/>
+      <c r="AN30" s="112"/>
+      <c r="AO30" s="113"/>
+      <c r="AP30" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="AQ30" s="156"/>
-      <c r="AR30" s="156"/>
-      <c r="AS30" s="157"/>
-      <c r="AT30" s="158" t="s">
+      <c r="AQ30" s="131"/>
+      <c r="AR30" s="131"/>
+      <c r="AS30" s="132"/>
+      <c r="AT30" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="AU30" s="159"/>
-      <c r="AV30" s="159"/>
-      <c r="AW30" s="159"/>
-      <c r="AX30" s="160"/>
-      <c r="AY30" s="161" t="s">
+      <c r="AU30" s="121"/>
+      <c r="AV30" s="121"/>
+      <c r="AW30" s="121"/>
+      <c r="AX30" s="122"/>
+      <c r="AY30" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="AZ30" s="162"/>
-      <c r="BA30" s="162"/>
-      <c r="BB30" s="162"/>
-      <c r="BC30" s="163"/>
+      <c r="AZ30" s="126"/>
+      <c r="BA30" s="126"/>
+      <c r="BB30" s="126"/>
+      <c r="BC30" s="127"/>
       <c r="BD30" s="27"/>
       <c r="BE30" s="49">
         <v>8</v>
@@ -4297,76 +4297,76 @@
         <v>48</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="164" t="s">
+      <c r="D31" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="165"/>
-      <c r="F31" s="165"/>
-      <c r="G31" s="166"/>
-      <c r="H31" s="167" t="s">
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="168"/>
-      <c r="J31" s="168"/>
-      <c r="K31" s="168"/>
-      <c r="L31" s="169"/>
-      <c r="M31" s="170" t="s">
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="N31" s="140"/>
-      <c r="O31" s="140"/>
-      <c r="P31" s="140"/>
-      <c r="Q31" s="140"/>
-      <c r="R31" s="140"/>
-      <c r="S31" s="140"/>
-      <c r="T31" s="140"/>
-      <c r="U31" s="171" t="s">
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="100"/>
+      <c r="R31" s="100"/>
+      <c r="S31" s="100"/>
+      <c r="T31" s="100"/>
+      <c r="U31" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="V31" s="171"/>
-      <c r="W31" s="171"/>
-      <c r="X31" s="171"/>
-      <c r="Y31" s="172"/>
-      <c r="Z31" s="173" t="s">
+      <c r="V31" s="106"/>
+      <c r="W31" s="106"/>
+      <c r="X31" s="106"/>
+      <c r="Y31" s="107"/>
+      <c r="Z31" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="AA31" s="173"/>
-      <c r="AB31" s="173"/>
-      <c r="AC31" s="174"/>
-      <c r="AD31" s="175" t="s">
+      <c r="AA31" s="112"/>
+      <c r="AB31" s="112"/>
+      <c r="AC31" s="113"/>
+      <c r="AD31" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="AE31" s="176"/>
-      <c r="AF31" s="176"/>
-      <c r="AG31" s="176"/>
-      <c r="AH31" s="176"/>
-      <c r="AI31" s="176"/>
-      <c r="AJ31" s="176"/>
-      <c r="AK31" s="176"/>
-      <c r="AL31" s="176"/>
-      <c r="AM31" s="176"/>
-      <c r="AN31" s="176"/>
-      <c r="AO31" s="177"/>
-      <c r="AP31" s="178" t="s">
+      <c r="AE31" s="109"/>
+      <c r="AF31" s="109"/>
+      <c r="AG31" s="109"/>
+      <c r="AH31" s="109"/>
+      <c r="AI31" s="109"/>
+      <c r="AJ31" s="109"/>
+      <c r="AK31" s="109"/>
+      <c r="AL31" s="109"/>
+      <c r="AM31" s="109"/>
+      <c r="AN31" s="109"/>
+      <c r="AO31" s="110"/>
+      <c r="AP31" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="AQ31" s="173"/>
-      <c r="AR31" s="173"/>
-      <c r="AS31" s="174"/>
-      <c r="AT31" s="184" t="s">
+      <c r="AQ31" s="112"/>
+      <c r="AR31" s="112"/>
+      <c r="AS31" s="113"/>
+      <c r="AT31" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="AU31" s="140"/>
-      <c r="AV31" s="140"/>
-      <c r="AW31" s="140"/>
-      <c r="AX31" s="185"/>
-      <c r="AY31" s="186" t="s">
+      <c r="AU31" s="100"/>
+      <c r="AV31" s="100"/>
+      <c r="AW31" s="100"/>
+      <c r="AX31" s="115"/>
+      <c r="AY31" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="AZ31" s="187"/>
-      <c r="BA31" s="187"/>
-      <c r="BB31" s="187"/>
-      <c r="BC31" s="187"/>
+      <c r="AZ31" s="142"/>
+      <c r="BA31" s="142"/>
+      <c r="BB31" s="142"/>
+      <c r="BC31" s="142"/>
       <c r="BD31" s="28"/>
       <c r="BE31" s="49">
         <v>8</v>
@@ -4403,76 +4403,76 @@
         <v>49</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="184" t="s">
+      <c r="D32" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="140"/>
-      <c r="K32" s="140"/>
-      <c r="L32" s="185"/>
-      <c r="M32" s="167" t="s">
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="115"/>
+      <c r="M32" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="N32" s="168"/>
-      <c r="O32" s="168"/>
-      <c r="P32" s="183"/>
-      <c r="Q32" s="175" t="s">
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="117"/>
+      <c r="Q32" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="R32" s="176"/>
-      <c r="S32" s="176"/>
-      <c r="T32" s="176"/>
-      <c r="U32" s="176"/>
-      <c r="V32" s="176"/>
-      <c r="W32" s="176"/>
-      <c r="X32" s="176"/>
-      <c r="Y32" s="176"/>
-      <c r="Z32" s="176"/>
-      <c r="AA32" s="176"/>
-      <c r="AB32" s="176"/>
-      <c r="AC32" s="188"/>
-      <c r="AD32" s="189" t="s">
+      <c r="R32" s="109"/>
+      <c r="S32" s="109"/>
+      <c r="T32" s="109"/>
+      <c r="U32" s="109"/>
+      <c r="V32" s="109"/>
+      <c r="W32" s="109"/>
+      <c r="X32" s="109"/>
+      <c r="Y32" s="109"/>
+      <c r="Z32" s="109"/>
+      <c r="AA32" s="109"/>
+      <c r="AB32" s="109"/>
+      <c r="AC32" s="118"/>
+      <c r="AD32" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="AE32" s="173"/>
-      <c r="AF32" s="173"/>
-      <c r="AG32" s="173"/>
-      <c r="AH32" s="190" t="s">
+      <c r="AE32" s="112"/>
+      <c r="AF32" s="112"/>
+      <c r="AG32" s="112"/>
+      <c r="AH32" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="AI32" s="159"/>
-      <c r="AJ32" s="159"/>
-      <c r="AK32" s="159"/>
-      <c r="AL32" s="160"/>
-      <c r="AM32" s="191" t="s">
+      <c r="AI32" s="121"/>
+      <c r="AJ32" s="121"/>
+      <c r="AK32" s="121"/>
+      <c r="AL32" s="122"/>
+      <c r="AM32" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="AN32" s="192"/>
-      <c r="AO32" s="193"/>
-      <c r="AP32" s="162" t="s">
+      <c r="AN32" s="124"/>
+      <c r="AO32" s="125"/>
+      <c r="AP32" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="AQ32" s="162"/>
-      <c r="AR32" s="162"/>
-      <c r="AS32" s="163"/>
-      <c r="AT32" s="189" t="s">
+      <c r="AQ32" s="126"/>
+      <c r="AR32" s="126"/>
+      <c r="AS32" s="127"/>
+      <c r="AT32" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="AU32" s="173"/>
-      <c r="AV32" s="173"/>
-      <c r="AW32" s="174"/>
-      <c r="AX32" s="164" t="s">
+      <c r="AU32" s="112"/>
+      <c r="AV32" s="112"/>
+      <c r="AW32" s="113"/>
+      <c r="AX32" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="AY32" s="165"/>
-      <c r="AZ32" s="165"/>
-      <c r="BA32" s="165"/>
-      <c r="BB32" s="165"/>
-      <c r="BC32" s="165"/>
+      <c r="AY32" s="129"/>
+      <c r="AZ32" s="129"/>
+      <c r="BA32" s="129"/>
+      <c r="BB32" s="129"/>
+      <c r="BC32" s="129"/>
       <c r="BD32" s="24"/>
       <c r="BE32" s="49">
         <v>8</v>
@@ -4509,76 +4509,76 @@
         <v>50</v>
       </c>
       <c r="C33" s="48"/>
-      <c r="D33" s="182" t="s">
+      <c r="D33" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="168"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="194" t="s">
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="195"/>
-      <c r="J33" s="195"/>
-      <c r="K33" s="195"/>
-      <c r="L33" s="196"/>
-      <c r="M33" s="197" t="s">
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="N33" s="116"/>
-      <c r="O33" s="116"/>
-      <c r="P33" s="116"/>
-      <c r="Q33" s="116"/>
-      <c r="R33" s="116"/>
-      <c r="S33" s="116"/>
-      <c r="T33" s="117"/>
-      <c r="U33" s="184" t="s">
+      <c r="N33" s="97"/>
+      <c r="O33" s="97"/>
+      <c r="P33" s="97"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="97"/>
+      <c r="S33" s="97"/>
+      <c r="T33" s="98"/>
+      <c r="U33" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="V33" s="140"/>
-      <c r="W33" s="140"/>
-      <c r="X33" s="140"/>
-      <c r="Y33" s="140"/>
-      <c r="Z33" s="140"/>
-      <c r="AA33" s="140"/>
-      <c r="AB33" s="140"/>
-      <c r="AC33" s="140"/>
-      <c r="AD33" s="140"/>
-      <c r="AE33" s="140"/>
-      <c r="AF33" s="140"/>
-      <c r="AG33" s="198"/>
-      <c r="AH33" s="199" t="s">
+      <c r="V33" s="100"/>
+      <c r="W33" s="100"/>
+      <c r="X33" s="100"/>
+      <c r="Y33" s="100"/>
+      <c r="Z33" s="100"/>
+      <c r="AA33" s="100"/>
+      <c r="AB33" s="100"/>
+      <c r="AC33" s="100"/>
+      <c r="AD33" s="100"/>
+      <c r="AE33" s="100"/>
+      <c r="AF33" s="100"/>
+      <c r="AG33" s="101"/>
+      <c r="AH33" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="AI33" s="200"/>
-      <c r="AJ33" s="200"/>
-      <c r="AK33" s="201"/>
-      <c r="AL33" s="202" t="s">
+      <c r="AI33" s="103"/>
+      <c r="AJ33" s="103"/>
+      <c r="AK33" s="104"/>
+      <c r="AL33" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="AM33" s="171"/>
-      <c r="AN33" s="171"/>
-      <c r="AO33" s="172"/>
-      <c r="AP33" s="203" t="s">
+      <c r="AM33" s="106"/>
+      <c r="AN33" s="106"/>
+      <c r="AO33" s="107"/>
+      <c r="AP33" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="AQ33" s="176"/>
-      <c r="AR33" s="176"/>
-      <c r="AS33" s="176"/>
-      <c r="AT33" s="176"/>
-      <c r="AU33" s="176"/>
-      <c r="AV33" s="176"/>
-      <c r="AW33" s="177"/>
-      <c r="AX33" s="178" t="s">
+      <c r="AQ33" s="109"/>
+      <c r="AR33" s="109"/>
+      <c r="AS33" s="109"/>
+      <c r="AT33" s="109"/>
+      <c r="AU33" s="109"/>
+      <c r="AV33" s="109"/>
+      <c r="AW33" s="110"/>
+      <c r="AX33" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="AY33" s="173"/>
-      <c r="AZ33" s="173"/>
-      <c r="BA33" s="174"/>
-      <c r="BB33" s="175" t="s">
+      <c r="AY33" s="112"/>
+      <c r="AZ33" s="112"/>
+      <c r="BA33" s="113"/>
+      <c r="BB33" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="BC33" s="176"/>
+      <c r="BC33" s="109"/>
       <c r="BD33" s="37"/>
       <c r="BE33" s="49">
         <v>8</v>
@@ -4837,66 +4837,66 @@
       <c r="B36" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="206"/>
-      <c r="D36" s="206"/>
-      <c r="E36" s="206"/>
-      <c r="F36" s="206"/>
-      <c r="G36" s="204"/>
-      <c r="H36" s="205"/>
-      <c r="I36" s="205"/>
-      <c r="J36" s="207"/>
-      <c r="K36" s="206"/>
-      <c r="L36" s="206"/>
-      <c r="M36" s="206"/>
-      <c r="N36" s="206"/>
-      <c r="O36" s="206"/>
-      <c r="P36" s="206"/>
-      <c r="Q36" s="206"/>
-      <c r="R36" s="206"/>
-      <c r="S36" s="206"/>
-      <c r="T36" s="206"/>
-      <c r="U36" s="206"/>
-      <c r="V36" s="206"/>
-      <c r="W36" s="208" t="s">
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="74"/>
+      <c r="Q36" s="74"/>
+      <c r="R36" s="74"/>
+      <c r="S36" s="74"/>
+      <c r="T36" s="74"/>
+      <c r="U36" s="74"/>
+      <c r="V36" s="74"/>
+      <c r="W36" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="X36" s="209"/>
-      <c r="Y36" s="209"/>
-      <c r="Z36" s="211"/>
-      <c r="AA36" s="208" t="s">
+      <c r="X36" s="76"/>
+      <c r="Y36" s="76"/>
+      <c r="Z36" s="77"/>
+      <c r="AA36" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="AB36" s="209"/>
-      <c r="AC36" s="209"/>
-      <c r="AD36" s="210"/>
-      <c r="AE36" s="206"/>
-      <c r="AF36" s="206"/>
-      <c r="AG36" s="206"/>
-      <c r="AH36" s="206"/>
-      <c r="AI36" s="206"/>
-      <c r="AJ36" s="206"/>
-      <c r="AK36" s="206"/>
-      <c r="AL36" s="206"/>
-      <c r="AM36" s="88" t="s">
+      <c r="AB36" s="76"/>
+      <c r="AC36" s="76"/>
+      <c r="AD36" s="90"/>
+      <c r="AE36" s="74"/>
+      <c r="AF36" s="74"/>
+      <c r="AG36" s="74"/>
+      <c r="AH36" s="74"/>
+      <c r="AI36" s="74"/>
+      <c r="AJ36" s="74"/>
+      <c r="AK36" s="74"/>
+      <c r="AL36" s="74"/>
+      <c r="AM36" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="AN36" s="89"/>
-      <c r="AO36" s="89"/>
-      <c r="AP36" s="98"/>
-      <c r="AQ36" s="88" t="s">
+      <c r="AN36" s="79"/>
+      <c r="AO36" s="79"/>
+      <c r="AP36" s="80"/>
+      <c r="AQ36" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="AR36" s="89"/>
-      <c r="AS36" s="89"/>
-      <c r="AT36" s="98"/>
-      <c r="AU36" s="206"/>
-      <c r="AV36" s="206"/>
-      <c r="AW36" s="206"/>
-      <c r="AX36" s="206"/>
-      <c r="AY36" s="204"/>
-      <c r="AZ36" s="205"/>
-      <c r="BA36" s="205"/>
-      <c r="BB36" s="205"/>
+      <c r="AR36" s="79"/>
+      <c r="AS36" s="79"/>
+      <c r="AT36" s="80"/>
+      <c r="AU36" s="74"/>
+      <c r="AV36" s="74"/>
+      <c r="AW36" s="74"/>
+      <c r="AX36" s="74"/>
+      <c r="AY36" s="85"/>
+      <c r="AZ36" s="86"/>
+      <c r="BA36" s="86"/>
+      <c r="BB36" s="86"/>
       <c r="BC36" s="1"/>
     </row>
     <row r="37" spans="1:67">
@@ -4904,280 +4904,280 @@
       <c r="B37" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="206"/>
-      <c r="D37" s="206"/>
-      <c r="E37" s="206"/>
-      <c r="F37" s="206"/>
-      <c r="G37" s="204"/>
-      <c r="H37" s="205"/>
-      <c r="I37" s="205"/>
-      <c r="J37" s="207"/>
-      <c r="K37" s="206"/>
-      <c r="L37" s="206"/>
-      <c r="M37" s="206"/>
-      <c r="N37" s="206"/>
-      <c r="O37" s="206"/>
-      <c r="P37" s="206"/>
-      <c r="Q37" s="206"/>
-      <c r="R37" s="206"/>
-      <c r="S37" s="206"/>
-      <c r="T37" s="206"/>
-      <c r="U37" s="206"/>
-      <c r="V37" s="206"/>
-      <c r="W37" s="88" t="s">
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="87"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="74"/>
+      <c r="U37" s="74"/>
+      <c r="V37" s="74"/>
+      <c r="W37" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="X37" s="89"/>
-      <c r="Y37" s="89"/>
-      <c r="Z37" s="98"/>
-      <c r="AA37" s="88" t="s">
+      <c r="X37" s="79"/>
+      <c r="Y37" s="79"/>
+      <c r="Z37" s="80"/>
+      <c r="AA37" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="AB37" s="89"/>
-      <c r="AC37" s="89"/>
-      <c r="AD37" s="98"/>
-      <c r="AE37" s="206"/>
-      <c r="AF37" s="206"/>
-      <c r="AG37" s="206"/>
-      <c r="AH37" s="206"/>
-      <c r="AI37" s="206"/>
-      <c r="AJ37" s="206"/>
-      <c r="AK37" s="206"/>
-      <c r="AL37" s="206"/>
-      <c r="AM37" s="208" t="s">
+      <c r="AB37" s="79"/>
+      <c r="AC37" s="79"/>
+      <c r="AD37" s="80"/>
+      <c r="AE37" s="74"/>
+      <c r="AF37" s="74"/>
+      <c r="AG37" s="74"/>
+      <c r="AH37" s="74"/>
+      <c r="AI37" s="74"/>
+      <c r="AJ37" s="74"/>
+      <c r="AK37" s="74"/>
+      <c r="AL37" s="74"/>
+      <c r="AM37" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="AN37" s="209"/>
-      <c r="AO37" s="209"/>
-      <c r="AP37" s="211"/>
-      <c r="AQ37" s="208" t="s">
+      <c r="AN37" s="76"/>
+      <c r="AO37" s="76"/>
+      <c r="AP37" s="77"/>
+      <c r="AQ37" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="AR37" s="209"/>
-      <c r="AS37" s="209"/>
-      <c r="AT37" s="211"/>
-      <c r="AU37" s="206"/>
-      <c r="AV37" s="206"/>
-      <c r="AW37" s="206"/>
-      <c r="AX37" s="206"/>
-      <c r="AY37" s="204"/>
-      <c r="AZ37" s="205"/>
-      <c r="BA37" s="205"/>
-      <c r="BB37" s="205"/>
+      <c r="AR37" s="76"/>
+      <c r="AS37" s="76"/>
+      <c r="AT37" s="77"/>
+      <c r="AU37" s="74"/>
+      <c r="AV37" s="74"/>
+      <c r="AW37" s="74"/>
+      <c r="AX37" s="74"/>
+      <c r="AY37" s="85"/>
+      <c r="AZ37" s="86"/>
+      <c r="BA37" s="86"/>
+      <c r="BB37" s="86"/>
     </row>
     <row r="38" spans="1:67">
       <c r="A38" s="25"/>
       <c r="B38" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="206"/>
-      <c r="D38" s="206"/>
-      <c r="E38" s="206"/>
-      <c r="F38" s="206"/>
-      <c r="G38" s="204"/>
-      <c r="H38" s="205"/>
-      <c r="I38" s="205"/>
-      <c r="J38" s="207"/>
-      <c r="K38" s="206"/>
-      <c r="L38" s="206"/>
-      <c r="M38" s="206"/>
-      <c r="N38" s="206"/>
-      <c r="O38" s="206"/>
-      <c r="P38" s="206"/>
-      <c r="Q38" s="206"/>
-      <c r="R38" s="206"/>
-      <c r="S38" s="206"/>
-      <c r="T38" s="206"/>
-      <c r="U38" s="206"/>
-      <c r="V38" s="206"/>
-      <c r="W38" s="206"/>
-      <c r="X38" s="206"/>
-      <c r="Y38" s="206"/>
-      <c r="Z38" s="206"/>
-      <c r="AA38" s="206"/>
-      <c r="AB38" s="206"/>
-      <c r="AC38" s="206"/>
-      <c r="AD38" s="206"/>
-      <c r="AE38" s="208" t="s">
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="74"/>
+      <c r="R38" s="74"/>
+      <c r="S38" s="74"/>
+      <c r="T38" s="74"/>
+      <c r="U38" s="74"/>
+      <c r="V38" s="74"/>
+      <c r="W38" s="74"/>
+      <c r="X38" s="74"/>
+      <c r="Y38" s="74"/>
+      <c r="Z38" s="74"/>
+      <c r="AA38" s="74"/>
+      <c r="AB38" s="74"/>
+      <c r="AC38" s="74"/>
+      <c r="AD38" s="74"/>
+      <c r="AE38" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="AF38" s="209"/>
-      <c r="AG38" s="209"/>
-      <c r="AH38" s="211"/>
-      <c r="AI38" s="208" t="s">
+      <c r="AF38" s="76"/>
+      <c r="AG38" s="76"/>
+      <c r="AH38" s="77"/>
+      <c r="AI38" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="AJ38" s="209"/>
-      <c r="AK38" s="209"/>
-      <c r="AL38" s="211"/>
-      <c r="AM38" s="206"/>
-      <c r="AN38" s="206"/>
-      <c r="AO38" s="206"/>
-      <c r="AP38" s="206"/>
-      <c r="AQ38" s="206"/>
-      <c r="AR38" s="206"/>
-      <c r="AS38" s="206"/>
-      <c r="AT38" s="206"/>
-      <c r="AU38" s="88" t="s">
+      <c r="AJ38" s="76"/>
+      <c r="AK38" s="76"/>
+      <c r="AL38" s="77"/>
+      <c r="AM38" s="74"/>
+      <c r="AN38" s="74"/>
+      <c r="AO38" s="74"/>
+      <c r="AP38" s="74"/>
+      <c r="AQ38" s="74"/>
+      <c r="AR38" s="74"/>
+      <c r="AS38" s="74"/>
+      <c r="AT38" s="74"/>
+      <c r="AU38" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="AV38" s="89"/>
-      <c r="AW38" s="89"/>
-      <c r="AX38" s="98"/>
-      <c r="AY38" s="88" t="s">
+      <c r="AV38" s="79"/>
+      <c r="AW38" s="79"/>
+      <c r="AX38" s="80"/>
+      <c r="AY38" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="AZ38" s="89"/>
-      <c r="BA38" s="89"/>
-      <c r="BB38" s="89"/>
+      <c r="AZ38" s="79"/>
+      <c r="BA38" s="79"/>
+      <c r="BB38" s="79"/>
     </row>
     <row r="39" spans="1:67">
       <c r="A39" s="25"/>
       <c r="B39" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="206"/>
-      <c r="D39" s="206"/>
-      <c r="E39" s="206"/>
-      <c r="F39" s="206"/>
-      <c r="G39" s="204"/>
-      <c r="H39" s="205"/>
-      <c r="I39" s="205"/>
-      <c r="J39" s="207"/>
-      <c r="K39" s="206"/>
-      <c r="L39" s="206"/>
-      <c r="M39" s="206"/>
-      <c r="N39" s="206"/>
-      <c r="O39" s="206"/>
-      <c r="P39" s="206"/>
-      <c r="Q39" s="206"/>
-      <c r="R39" s="206"/>
-      <c r="S39" s="206"/>
-      <c r="T39" s="206"/>
-      <c r="U39" s="206"/>
-      <c r="V39" s="206"/>
-      <c r="W39" s="206"/>
-      <c r="X39" s="206"/>
-      <c r="Y39" s="206"/>
-      <c r="Z39" s="206"/>
-      <c r="AA39" s="206"/>
-      <c r="AB39" s="206"/>
-      <c r="AC39" s="206"/>
-      <c r="AD39" s="206"/>
-      <c r="AE39" s="88" t="s">
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="74"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="74"/>
+      <c r="R39" s="74"/>
+      <c r="S39" s="74"/>
+      <c r="T39" s="74"/>
+      <c r="U39" s="74"/>
+      <c r="V39" s="74"/>
+      <c r="W39" s="74"/>
+      <c r="X39" s="74"/>
+      <c r="Y39" s="74"/>
+      <c r="Z39" s="74"/>
+      <c r="AA39" s="74"/>
+      <c r="AB39" s="74"/>
+      <c r="AC39" s="74"/>
+      <c r="AD39" s="74"/>
+      <c r="AE39" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="AF39" s="89"/>
-      <c r="AG39" s="89"/>
-      <c r="AH39" s="98"/>
-      <c r="AI39" s="88" t="s">
+      <c r="AF39" s="79"/>
+      <c r="AG39" s="79"/>
+      <c r="AH39" s="80"/>
+      <c r="AI39" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="AJ39" s="89"/>
-      <c r="AK39" s="89"/>
-      <c r="AL39" s="98"/>
-      <c r="AM39" s="206"/>
-      <c r="AN39" s="206"/>
-      <c r="AO39" s="206"/>
-      <c r="AP39" s="206"/>
-      <c r="AQ39" s="206"/>
-      <c r="AR39" s="206"/>
-      <c r="AS39" s="206"/>
-      <c r="AT39" s="206"/>
-      <c r="AU39" s="208" t="s">
+      <c r="AJ39" s="79"/>
+      <c r="AK39" s="79"/>
+      <c r="AL39" s="80"/>
+      <c r="AM39" s="74"/>
+      <c r="AN39" s="74"/>
+      <c r="AO39" s="74"/>
+      <c r="AP39" s="74"/>
+      <c r="AQ39" s="74"/>
+      <c r="AR39" s="74"/>
+      <c r="AS39" s="74"/>
+      <c r="AT39" s="74"/>
+      <c r="AU39" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="AV39" s="209"/>
-      <c r="AW39" s="209"/>
-      <c r="AX39" s="211"/>
-      <c r="AY39" s="128" t="s">
+      <c r="AV39" s="76"/>
+      <c r="AW39" s="76"/>
+      <c r="AX39" s="77"/>
+      <c r="AY39" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="AZ39" s="129"/>
-      <c r="BA39" s="129"/>
-      <c r="BB39" s="129"/>
+      <c r="AZ39" s="84"/>
+      <c r="BA39" s="84"/>
+      <c r="BB39" s="84"/>
     </row>
     <row r="40" spans="1:67">
       <c r="A40" s="25"/>
       <c r="B40" s="22"/>
-      <c r="C40" s="212" t="s">
+      <c r="C40" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="212"/>
-      <c r="E40" s="212"/>
-      <c r="F40" s="212"/>
-      <c r="G40" s="213" t="s">
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="H40" s="213"/>
-      <c r="I40" s="213"/>
-      <c r="J40" s="213"/>
-      <c r="K40" s="214" t="s">
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="L40" s="214"/>
-      <c r="M40" s="214"/>
-      <c r="N40" s="214"/>
-      <c r="O40" s="214" t="s">
+      <c r="L40" s="82"/>
+      <c r="M40" s="82"/>
+      <c r="N40" s="82"/>
+      <c r="O40" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="P40" s="214"/>
-      <c r="Q40" s="214"/>
-      <c r="R40" s="214"/>
-      <c r="S40" s="214" t="s">
+      <c r="P40" s="82"/>
+      <c r="Q40" s="82"/>
+      <c r="R40" s="82"/>
+      <c r="S40" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="T40" s="214"/>
-      <c r="U40" s="214"/>
-      <c r="V40" s="214"/>
-      <c r="W40" s="214" t="s">
+      <c r="T40" s="82"/>
+      <c r="U40" s="82"/>
+      <c r="V40" s="82"/>
+      <c r="W40" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="X40" s="214"/>
-      <c r="Y40" s="214"/>
-      <c r="Z40" s="214"/>
-      <c r="AA40" s="214" t="s">
+      <c r="X40" s="82"/>
+      <c r="Y40" s="82"/>
+      <c r="Z40" s="82"/>
+      <c r="AA40" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="AB40" s="214"/>
-      <c r="AC40" s="214"/>
-      <c r="AD40" s="214"/>
-      <c r="AE40" s="214" t="s">
+      <c r="AB40" s="82"/>
+      <c r="AC40" s="82"/>
+      <c r="AD40" s="82"/>
+      <c r="AE40" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="AF40" s="214"/>
-      <c r="AG40" s="214"/>
-      <c r="AH40" s="214"/>
-      <c r="AI40" s="214" t="s">
+      <c r="AF40" s="82"/>
+      <c r="AG40" s="82"/>
+      <c r="AH40" s="82"/>
+      <c r="AI40" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="AJ40" s="214"/>
-      <c r="AK40" s="214"/>
-      <c r="AL40" s="214"/>
-      <c r="AM40" s="214" t="s">
+      <c r="AJ40" s="82"/>
+      <c r="AK40" s="82"/>
+      <c r="AL40" s="82"/>
+      <c r="AM40" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="AN40" s="214"/>
-      <c r="AO40" s="214"/>
-      <c r="AP40" s="214"/>
-      <c r="AQ40" s="214" t="s">
+      <c r="AN40" s="82"/>
+      <c r="AO40" s="82"/>
+      <c r="AP40" s="82"/>
+      <c r="AQ40" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="AR40" s="214"/>
-      <c r="AS40" s="214"/>
-      <c r="AT40" s="214"/>
-      <c r="AU40" s="214" t="s">
+      <c r="AR40" s="82"/>
+      <c r="AS40" s="82"/>
+      <c r="AT40" s="82"/>
+      <c r="AU40" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="AV40" s="214"/>
-      <c r="AW40" s="214"/>
-      <c r="AX40" s="214"/>
-      <c r="AY40" s="215" t="s">
+      <c r="AV40" s="82"/>
+      <c r="AW40" s="82"/>
+      <c r="AX40" s="82"/>
+      <c r="AY40" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="AZ40" s="215"/>
-      <c r="BA40" s="215"/>
-      <c r="BB40" s="215"/>
+      <c r="AZ40" s="81"/>
+      <c r="BA40" s="81"/>
+      <c r="BB40" s="81"/>
     </row>
     <row r="41" spans="1:67" ht="32" customHeight="1"/>
     <row r="42" spans="1:67">
@@ -5461,23 +5461,145 @@
     </row>
   </sheetData>
   <mergeCells count="180">
-    <mergeCell ref="AA38:AD38"/>
-    <mergeCell ref="AE38:AH38"/>
-    <mergeCell ref="AI38:AL38"/>
-    <mergeCell ref="AM38:AP38"/>
-    <mergeCell ref="AQ38:AT38"/>
-    <mergeCell ref="AU38:AX38"/>
-    <mergeCell ref="AY40:BB40"/>
-    <mergeCell ref="AA40:AD40"/>
-    <mergeCell ref="AE40:AH40"/>
-    <mergeCell ref="AI40:AL40"/>
-    <mergeCell ref="AM40:AP40"/>
-    <mergeCell ref="AQ40:AT40"/>
-    <mergeCell ref="AU40:AX40"/>
-    <mergeCell ref="AM39:AP39"/>
-    <mergeCell ref="AQ39:AT39"/>
-    <mergeCell ref="AU39:AX39"/>
-    <mergeCell ref="AY39:BB39"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D11:P11"/>
+    <mergeCell ref="Q11:AC11"/>
+    <mergeCell ref="AD11:AK11"/>
+    <mergeCell ref="AL11:AP11"/>
+    <mergeCell ref="AQ13:BC13"/>
+    <mergeCell ref="D14:P14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="V14:AC14"/>
+    <mergeCell ref="AD14:AP14"/>
+    <mergeCell ref="AQ14:BC14"/>
+    <mergeCell ref="AQ11:BC11"/>
+    <mergeCell ref="D12:P12"/>
+    <mergeCell ref="Q12:AC12"/>
+    <mergeCell ref="AD12:AP12"/>
+    <mergeCell ref="AQ12:AW12"/>
+    <mergeCell ref="AX12:BC12"/>
+    <mergeCell ref="W15:AB15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="O16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AK16"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:AC13"/>
+    <mergeCell ref="AD13:AP13"/>
+    <mergeCell ref="AU17:BC17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:U18"/>
+    <mergeCell ref="V18:AC18"/>
+    <mergeCell ref="AD18:AK18"/>
+    <mergeCell ref="AL18:BC18"/>
+    <mergeCell ref="AL16:AT16"/>
+    <mergeCell ref="AU16:AW16"/>
+    <mergeCell ref="AX16:BC16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="N17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="AH17:AK17"/>
+    <mergeCell ref="AL17:AP17"/>
+    <mergeCell ref="AQ17:AT17"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="M20:Y20"/>
+    <mergeCell ref="AD20:AP20"/>
+    <mergeCell ref="AQ20:BA20"/>
+    <mergeCell ref="BB20:BC20"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:N24"/>
+    <mergeCell ref="O24:T24"/>
+    <mergeCell ref="U24:AA24"/>
+    <mergeCell ref="AB24:AO24"/>
+    <mergeCell ref="AZ24:BC24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="Q25:AA25"/>
+    <mergeCell ref="AB25:AG25"/>
+    <mergeCell ref="AH25:AP25"/>
+    <mergeCell ref="AQ25:AT25"/>
+    <mergeCell ref="AU25:AX25"/>
+    <mergeCell ref="AY25:BC25"/>
+    <mergeCell ref="AL26:AO26"/>
+    <mergeCell ref="AP26:BC26"/>
+    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="U27:AE27"/>
+    <mergeCell ref="AF27:AL27"/>
+    <mergeCell ref="AM27:AS27"/>
+    <mergeCell ref="AT27:AW27"/>
+    <mergeCell ref="AX27:BC27"/>
+    <mergeCell ref="D26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="U26:AA26"/>
+    <mergeCell ref="AB26:AG26"/>
+    <mergeCell ref="AH26:AK26"/>
+    <mergeCell ref="AP30:AS30"/>
+    <mergeCell ref="AT30:AX30"/>
+    <mergeCell ref="AY30:BC30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="M31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="Z31:AC31"/>
+    <mergeCell ref="AD31:AO31"/>
+    <mergeCell ref="AP31:AS31"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="V30:Y30"/>
+    <mergeCell ref="Z30:AE30"/>
+    <mergeCell ref="AF30:AK30"/>
+    <mergeCell ref="AL30:AO30"/>
+    <mergeCell ref="AT31:AX31"/>
+    <mergeCell ref="AY31:BC31"/>
+    <mergeCell ref="D32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="Q32:AC32"/>
+    <mergeCell ref="AD32:AG32"/>
+    <mergeCell ref="AH32:AL32"/>
+    <mergeCell ref="AM32:AO32"/>
+    <mergeCell ref="AP32:AS32"/>
+    <mergeCell ref="AT32:AW32"/>
+    <mergeCell ref="AX32:BC32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="M33:T33"/>
+    <mergeCell ref="U33:AG33"/>
+    <mergeCell ref="AH33:AK33"/>
+    <mergeCell ref="AL33:AO33"/>
+    <mergeCell ref="AP33:AW33"/>
+    <mergeCell ref="AX33:BA33"/>
+    <mergeCell ref="BB33:BC33"/>
+    <mergeCell ref="AY36:BB36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="W37:Z37"/>
+    <mergeCell ref="AA37:AD37"/>
+    <mergeCell ref="AE37:AH37"/>
+    <mergeCell ref="AI37:AL37"/>
+    <mergeCell ref="AA36:AD36"/>
+    <mergeCell ref="AE36:AH36"/>
+    <mergeCell ref="AI36:AL36"/>
+    <mergeCell ref="AM36:AP36"/>
+    <mergeCell ref="AQ36:AT36"/>
+    <mergeCell ref="AU36:AX36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="S36:V36"/>
+    <mergeCell ref="W36:Z36"/>
+    <mergeCell ref="AM37:AP37"/>
+    <mergeCell ref="AQ37:AT37"/>
     <mergeCell ref="AU37:AX37"/>
     <mergeCell ref="AY37:BB37"/>
     <mergeCell ref="C38:F38"/>
@@ -5502,145 +5624,23 @@
     <mergeCell ref="AA39:AD39"/>
     <mergeCell ref="AE39:AH39"/>
     <mergeCell ref="AI39:AL39"/>
-    <mergeCell ref="AY36:BB36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="W37:Z37"/>
-    <mergeCell ref="AA37:AD37"/>
-    <mergeCell ref="AE37:AH37"/>
-    <mergeCell ref="AI37:AL37"/>
-    <mergeCell ref="AA36:AD36"/>
-    <mergeCell ref="AE36:AH36"/>
-    <mergeCell ref="AI36:AL36"/>
-    <mergeCell ref="AM36:AP36"/>
-    <mergeCell ref="AQ36:AT36"/>
-    <mergeCell ref="AU36:AX36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="S36:V36"/>
-    <mergeCell ref="W36:Z36"/>
-    <mergeCell ref="AM37:AP37"/>
-    <mergeCell ref="AQ37:AT37"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="M33:T33"/>
-    <mergeCell ref="U33:AG33"/>
-    <mergeCell ref="AH33:AK33"/>
-    <mergeCell ref="AL33:AO33"/>
-    <mergeCell ref="AP33:AW33"/>
-    <mergeCell ref="AX33:BA33"/>
-    <mergeCell ref="BB33:BC33"/>
-    <mergeCell ref="D32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="Q32:AC32"/>
-    <mergeCell ref="AD32:AG32"/>
-    <mergeCell ref="AH32:AL32"/>
-    <mergeCell ref="AM32:AO32"/>
-    <mergeCell ref="AP32:AS32"/>
-    <mergeCell ref="AT32:AW32"/>
-    <mergeCell ref="AX32:BC32"/>
-    <mergeCell ref="AP30:AS30"/>
-    <mergeCell ref="AT30:AX30"/>
-    <mergeCell ref="AY30:BC30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="M31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AC31"/>
-    <mergeCell ref="AD31:AO31"/>
-    <mergeCell ref="AP31:AS31"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="V30:Y30"/>
-    <mergeCell ref="Z30:AE30"/>
-    <mergeCell ref="AF30:AK30"/>
-    <mergeCell ref="AL30:AO30"/>
-    <mergeCell ref="AT31:AX31"/>
-    <mergeCell ref="AY31:BC31"/>
-    <mergeCell ref="D27:P27"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="U27:AE27"/>
-    <mergeCell ref="AF27:AL27"/>
-    <mergeCell ref="AM27:AS27"/>
-    <mergeCell ref="AT27:AW27"/>
-    <mergeCell ref="AX27:BC27"/>
-    <mergeCell ref="D26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="U26:AA26"/>
-    <mergeCell ref="AB26:AG26"/>
-    <mergeCell ref="AH26:AK26"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="Q25:AA25"/>
-    <mergeCell ref="AB25:AG25"/>
-    <mergeCell ref="AH25:AP25"/>
-    <mergeCell ref="AQ25:AT25"/>
-    <mergeCell ref="AU25:AX25"/>
-    <mergeCell ref="AY25:BC25"/>
-    <mergeCell ref="AL26:AO26"/>
-    <mergeCell ref="AP26:BC26"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="M20:Y20"/>
-    <mergeCell ref="AD20:AP20"/>
-    <mergeCell ref="AQ20:BA20"/>
-    <mergeCell ref="BB20:BC20"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:N24"/>
-    <mergeCell ref="O24:T24"/>
-    <mergeCell ref="U24:AA24"/>
-    <mergeCell ref="AB24:AO24"/>
-    <mergeCell ref="AZ24:BC24"/>
-    <mergeCell ref="AU17:BC17"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:U18"/>
-    <mergeCell ref="V18:AC18"/>
-    <mergeCell ref="AD18:AK18"/>
-    <mergeCell ref="AL18:BC18"/>
-    <mergeCell ref="AL16:AT16"/>
-    <mergeCell ref="AU16:AW16"/>
-    <mergeCell ref="AX16:BC16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="N17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="AH17:AK17"/>
-    <mergeCell ref="AL17:AP17"/>
-    <mergeCell ref="AQ17:AT17"/>
-    <mergeCell ref="W15:AB15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="O16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AK16"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:AC13"/>
-    <mergeCell ref="AD13:AP13"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D11:P11"/>
-    <mergeCell ref="Q11:AC11"/>
-    <mergeCell ref="AD11:AK11"/>
-    <mergeCell ref="AL11:AP11"/>
-    <mergeCell ref="AQ13:BC13"/>
-    <mergeCell ref="D14:P14"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="V14:AC14"/>
-    <mergeCell ref="AD14:AP14"/>
-    <mergeCell ref="AQ14:BC14"/>
-    <mergeCell ref="AQ11:BC11"/>
-    <mergeCell ref="D12:P12"/>
-    <mergeCell ref="Q12:AC12"/>
-    <mergeCell ref="AD12:AP12"/>
-    <mergeCell ref="AQ12:AW12"/>
-    <mergeCell ref="AX12:BC12"/>
+    <mergeCell ref="AA38:AD38"/>
+    <mergeCell ref="AE38:AH38"/>
+    <mergeCell ref="AI38:AL38"/>
+    <mergeCell ref="AM38:AP38"/>
+    <mergeCell ref="AQ38:AT38"/>
+    <mergeCell ref="AU38:AX38"/>
+    <mergeCell ref="AY40:BB40"/>
+    <mergeCell ref="AA40:AD40"/>
+    <mergeCell ref="AE40:AH40"/>
+    <mergeCell ref="AI40:AL40"/>
+    <mergeCell ref="AM40:AP40"/>
+    <mergeCell ref="AQ40:AT40"/>
+    <mergeCell ref="AU40:AX40"/>
+    <mergeCell ref="AM39:AP39"/>
+    <mergeCell ref="AQ39:AT39"/>
+    <mergeCell ref="AU39:AX39"/>
+    <mergeCell ref="AY39:BB39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input-files/vacation scheduling.xlsx
+++ b/input-files/vacation scheduling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisazhang/Desktop/Call schedule/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\stefan\dev\call-schedule\input-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F6AA69-2138-C941-8FC1-3FE4FE5BF774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C981358-4705-4C30-BF9B-33051821DE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="740" windowWidth="19280" windowHeight="18380" xr2:uid="{15015D36-1785-DC4E-8172-12441D53D08D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{15015D36-1785-DC4E-8172-12441D53D08D}"/>
   </bookViews>
   <sheets>
     <sheet name="AY25 draft clean" sheetId="2" r:id="rId1"/>
@@ -1177,430 +1177,430 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1940,26 +1940,26 @@
   <dimension ref="A1:BO49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="AI7" sqref="AI7"/>
+      <selection activeCell="BD5" sqref="BD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
     <col min="4" max="55" width="2.5" customWidth="1"/>
-    <col min="56" max="56" width="22.1640625" style="1" customWidth="1"/>
+    <col min="56" max="56" width="22.125" style="1" customWidth="1"/>
     <col min="57" max="57" width="6.5" customWidth="1"/>
-    <col min="58" max="58" width="4.83203125" customWidth="1"/>
+    <col min="58" max="58" width="4.875" customWidth="1"/>
     <col min="59" max="59" width="5.5" customWidth="1"/>
-    <col min="60" max="60" width="6.33203125" customWidth="1"/>
-    <col min="61" max="61" width="5.33203125" customWidth="1"/>
-    <col min="62" max="62" width="5.1640625" customWidth="1"/>
-    <col min="63" max="63" width="5.6640625" customWidth="1"/>
-    <col min="64" max="64" width="5.33203125" customWidth="1"/>
-    <col min="65" max="65" width="5.6640625" customWidth="1"/>
-    <col min="66" max="66" width="6.33203125" customWidth="1"/>
-    <col min="67" max="67" width="8.1640625" customWidth="1"/>
+    <col min="60" max="60" width="6.375" customWidth="1"/>
+    <col min="61" max="61" width="5.375" customWidth="1"/>
+    <col min="62" max="62" width="5.125" customWidth="1"/>
+    <col min="63" max="63" width="5.625" customWidth="1"/>
+    <col min="64" max="64" width="5.375" customWidth="1"/>
+    <col min="65" max="65" width="5.625" customWidth="1"/>
+    <col min="66" max="66" width="6.375" customWidth="1"/>
+    <col min="67" max="67" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67">
@@ -2150,7 +2150,7 @@
       <c r="AO3" t="s">
         <v>112</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AT3" s="73" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="AE4" s="73"/>
     </row>
-    <row r="8" spans="1:67" ht="40" thickBot="1">
+    <row r="8" spans="1:67" ht="38.25" thickBot="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2373,8 +2373,8 @@
       <c r="BD8" s="3"/>
     </row>
     <row r="9" spans="1:67">
-      <c r="A9" s="212"/>
-      <c r="B9" s="213"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
         <v>0</v>
@@ -2439,8 +2439,8 @@
       <c r="BD9" s="2"/>
     </row>
     <row r="10" spans="1:67">
-      <c r="A10" s="214"/>
-      <c r="B10" s="215"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="12"/>
       <c r="D10" s="13">
         <v>1</v>
@@ -2639,68 +2639,68 @@
         <v>15</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="178" t="s">
+      <c r="D11" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="178"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="178"/>
-      <c r="M11" s="178"/>
-      <c r="N11" s="178"/>
-      <c r="O11" s="178"/>
-      <c r="P11" s="178"/>
-      <c r="Q11" s="146" t="s">
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="146"/>
-      <c r="S11" s="146"/>
-      <c r="T11" s="146"/>
-      <c r="U11" s="146"/>
-      <c r="V11" s="146"/>
-      <c r="W11" s="146"/>
-      <c r="X11" s="146"/>
-      <c r="Y11" s="146"/>
-      <c r="Z11" s="146"/>
-      <c r="AA11" s="146"/>
-      <c r="AB11" s="146"/>
-      <c r="AC11" s="146"/>
-      <c r="AD11" s="179" t="s">
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AE11" s="180"/>
-      <c r="AF11" s="180"/>
-      <c r="AG11" s="180"/>
-      <c r="AH11" s="180"/>
-      <c r="AI11" s="180"/>
-      <c r="AJ11" s="180"/>
-      <c r="AK11" s="181"/>
-      <c r="AL11" s="209" t="s">
+      <c r="AE11" s="81"/>
+      <c r="AF11" s="81"/>
+      <c r="AG11" s="81"/>
+      <c r="AH11" s="81"/>
+      <c r="AI11" s="81"/>
+      <c r="AJ11" s="81"/>
+      <c r="AK11" s="82"/>
+      <c r="AL11" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="AM11" s="210"/>
-      <c r="AN11" s="210"/>
-      <c r="AO11" s="210"/>
-      <c r="AP11" s="211"/>
-      <c r="AQ11" s="146" t="s">
+      <c r="AM11" s="84"/>
+      <c r="AN11" s="84"/>
+      <c r="AO11" s="84"/>
+      <c r="AP11" s="85"/>
+      <c r="AQ11" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="AR11" s="146"/>
-      <c r="AS11" s="146"/>
-      <c r="AT11" s="146"/>
-      <c r="AU11" s="146"/>
-      <c r="AV11" s="146"/>
-      <c r="AW11" s="146"/>
-      <c r="AX11" s="146"/>
-      <c r="AY11" s="146"/>
-      <c r="AZ11" s="146"/>
-      <c r="BA11" s="146"/>
-      <c r="BB11" s="146"/>
-      <c r="BC11" s="146"/>
+      <c r="AR11" s="79"/>
+      <c r="AS11" s="79"/>
+      <c r="AT11" s="79"/>
+      <c r="AU11" s="79"/>
+      <c r="AV11" s="79"/>
+      <c r="AW11" s="79"/>
+      <c r="AX11" s="79"/>
+      <c r="AY11" s="79"/>
+      <c r="AZ11" s="79"/>
+      <c r="BA11" s="79"/>
+      <c r="BB11" s="79"/>
+      <c r="BC11" s="79"/>
       <c r="BD11" s="23"/>
       <c r="BF11" s="20">
         <v>26</v>
@@ -2736,68 +2736,68 @@
         <v>21</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="146" t="s">
+      <c r="D12" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="146"/>
-      <c r="N12" s="146"/>
-      <c r="O12" s="146"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="178" t="s">
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="R12" s="178"/>
-      <c r="S12" s="178"/>
-      <c r="T12" s="178"/>
-      <c r="U12" s="178"/>
-      <c r="V12" s="178"/>
-      <c r="W12" s="178"/>
-      <c r="X12" s="178"/>
-      <c r="Y12" s="178"/>
-      <c r="Z12" s="178"/>
-      <c r="AA12" s="178"/>
-      <c r="AB12" s="178"/>
-      <c r="AC12" s="178"/>
-      <c r="AD12" s="146" t="s">
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="78"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="AE12" s="146"/>
-      <c r="AF12" s="146"/>
-      <c r="AG12" s="146"/>
-      <c r="AH12" s="146"/>
-      <c r="AI12" s="146"/>
-      <c r="AJ12" s="146"/>
-      <c r="AK12" s="146"/>
-      <c r="AL12" s="146"/>
-      <c r="AM12" s="146"/>
-      <c r="AN12" s="146"/>
-      <c r="AO12" s="146"/>
-      <c r="AP12" s="146"/>
-      <c r="AQ12" s="179" t="s">
+      <c r="AE12" s="79"/>
+      <c r="AF12" s="79"/>
+      <c r="AG12" s="79"/>
+      <c r="AH12" s="79"/>
+      <c r="AI12" s="79"/>
+      <c r="AJ12" s="79"/>
+      <c r="AK12" s="79"/>
+      <c r="AL12" s="79"/>
+      <c r="AM12" s="79"/>
+      <c r="AN12" s="79"/>
+      <c r="AO12" s="79"/>
+      <c r="AP12" s="79"/>
+      <c r="AQ12" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AR12" s="180"/>
-      <c r="AS12" s="180"/>
-      <c r="AT12" s="180"/>
-      <c r="AU12" s="180"/>
-      <c r="AV12" s="180"/>
-      <c r="AW12" s="181"/>
-      <c r="AX12" s="209" t="s">
+      <c r="AR12" s="81"/>
+      <c r="AS12" s="81"/>
+      <c r="AT12" s="81"/>
+      <c r="AU12" s="81"/>
+      <c r="AV12" s="81"/>
+      <c r="AW12" s="82"/>
+      <c r="AX12" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="AY12" s="210"/>
-      <c r="AZ12" s="210"/>
-      <c r="BA12" s="210"/>
-      <c r="BB12" s="210"/>
-      <c r="BC12" s="211"/>
+      <c r="AY12" s="84"/>
+      <c r="AZ12" s="84"/>
+      <c r="BA12" s="84"/>
+      <c r="BB12" s="84"/>
+      <c r="BC12" s="85"/>
       <c r="BD12" s="26"/>
       <c r="BF12" s="20">
         <v>26</v>
@@ -2831,68 +2831,68 @@
         <v>22</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="179" t="s">
+      <c r="D13" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="180"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="181"/>
-      <c r="K13" s="209" t="s">
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="210"/>
-      <c r="M13" s="210"/>
-      <c r="N13" s="210"/>
-      <c r="O13" s="210"/>
-      <c r="P13" s="211"/>
-      <c r="Q13" s="146" t="s">
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="146"/>
-      <c r="S13" s="146"/>
-      <c r="T13" s="146"/>
-      <c r="U13" s="146"/>
-      <c r="V13" s="146"/>
-      <c r="W13" s="146"/>
-      <c r="X13" s="146"/>
-      <c r="Y13" s="146"/>
-      <c r="Z13" s="146"/>
-      <c r="AA13" s="146"/>
-      <c r="AB13" s="146"/>
-      <c r="AC13" s="146"/>
-      <c r="AD13" s="178" t="s">
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="79"/>
+      <c r="Z13" s="79"/>
+      <c r="AA13" s="79"/>
+      <c r="AB13" s="79"/>
+      <c r="AC13" s="79"/>
+      <c r="AD13" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="AE13" s="178"/>
-      <c r="AF13" s="178"/>
-      <c r="AG13" s="178"/>
-      <c r="AH13" s="178"/>
-      <c r="AI13" s="178"/>
-      <c r="AJ13" s="178"/>
-      <c r="AK13" s="178"/>
-      <c r="AL13" s="178"/>
-      <c r="AM13" s="178"/>
-      <c r="AN13" s="178"/>
-      <c r="AO13" s="178"/>
-      <c r="AP13" s="178"/>
-      <c r="AQ13" s="146" t="s">
+      <c r="AE13" s="78"/>
+      <c r="AF13" s="78"/>
+      <c r="AG13" s="78"/>
+      <c r="AH13" s="78"/>
+      <c r="AI13" s="78"/>
+      <c r="AJ13" s="78"/>
+      <c r="AK13" s="78"/>
+      <c r="AL13" s="78"/>
+      <c r="AM13" s="78"/>
+      <c r="AN13" s="78"/>
+      <c r="AO13" s="78"/>
+      <c r="AP13" s="78"/>
+      <c r="AQ13" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="AR13" s="146"/>
-      <c r="AS13" s="146"/>
-      <c r="AT13" s="146"/>
-      <c r="AU13" s="146"/>
-      <c r="AV13" s="146"/>
-      <c r="AW13" s="146"/>
-      <c r="AX13" s="146"/>
-      <c r="AY13" s="146"/>
-      <c r="AZ13" s="146"/>
-      <c r="BA13" s="146"/>
-      <c r="BB13" s="146"/>
-      <c r="BC13" s="146"/>
+      <c r="AR13" s="79"/>
+      <c r="AS13" s="79"/>
+      <c r="AT13" s="79"/>
+      <c r="AU13" s="79"/>
+      <c r="AV13" s="79"/>
+      <c r="AW13" s="79"/>
+      <c r="AX13" s="79"/>
+      <c r="AY13" s="79"/>
+      <c r="AZ13" s="79"/>
+      <c r="BA13" s="79"/>
+      <c r="BB13" s="79"/>
+      <c r="BC13" s="79"/>
       <c r="BD13" s="23"/>
       <c r="BF13" s="20">
         <v>26</v>
@@ -2926,68 +2926,68 @@
         <v>23</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="146" t="s">
+      <c r="D14" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="146"/>
-      <c r="N14" s="146"/>
-      <c r="O14" s="146"/>
-      <c r="P14" s="146"/>
-      <c r="Q14" s="209" t="s">
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="R14" s="210"/>
-      <c r="S14" s="210"/>
-      <c r="T14" s="210"/>
-      <c r="U14" s="211"/>
-      <c r="V14" s="179" t="s">
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="W14" s="180"/>
-      <c r="X14" s="180"/>
-      <c r="Y14" s="180"/>
-      <c r="Z14" s="180"/>
-      <c r="AA14" s="180"/>
-      <c r="AB14" s="180"/>
-      <c r="AC14" s="181"/>
-      <c r="AD14" s="146" t="s">
+      <c r="W14" s="81"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="81"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="AE14" s="146"/>
-      <c r="AF14" s="146"/>
-      <c r="AG14" s="146"/>
-      <c r="AH14" s="146"/>
-      <c r="AI14" s="146"/>
-      <c r="AJ14" s="146"/>
-      <c r="AK14" s="146"/>
-      <c r="AL14" s="146"/>
-      <c r="AM14" s="146"/>
-      <c r="AN14" s="146"/>
-      <c r="AO14" s="146"/>
-      <c r="AP14" s="146"/>
-      <c r="AQ14" s="178" t="s">
+      <c r="AE14" s="79"/>
+      <c r="AF14" s="79"/>
+      <c r="AG14" s="79"/>
+      <c r="AH14" s="79"/>
+      <c r="AI14" s="79"/>
+      <c r="AJ14" s="79"/>
+      <c r="AK14" s="79"/>
+      <c r="AL14" s="79"/>
+      <c r="AM14" s="79"/>
+      <c r="AN14" s="79"/>
+      <c r="AO14" s="79"/>
+      <c r="AP14" s="79"/>
+      <c r="AQ14" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="AR14" s="178"/>
-      <c r="AS14" s="178"/>
-      <c r="AT14" s="178"/>
-      <c r="AU14" s="178"/>
-      <c r="AV14" s="178"/>
-      <c r="AW14" s="178"/>
-      <c r="AX14" s="178"/>
-      <c r="AY14" s="178"/>
-      <c r="AZ14" s="178"/>
-      <c r="BA14" s="178"/>
-      <c r="BB14" s="178"/>
-      <c r="BC14" s="178"/>
+      <c r="AR14" s="78"/>
+      <c r="AS14" s="78"/>
+      <c r="AT14" s="78"/>
+      <c r="AU14" s="78"/>
+      <c r="AV14" s="78"/>
+      <c r="AW14" s="78"/>
+      <c r="AX14" s="78"/>
+      <c r="AY14" s="78"/>
+      <c r="AZ14" s="78"/>
+      <c r="BA14" s="78"/>
+      <c r="BB14" s="78"/>
+      <c r="BC14" s="78"/>
       <c r="BD14" s="23"/>
       <c r="BF14" s="20">
         <v>26</v>
@@ -3037,12 +3037,12 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="208"/>
-      <c r="X15" s="208"/>
-      <c r="Y15" s="208"/>
-      <c r="Z15" s="208"/>
-      <c r="AA15" s="208"/>
-      <c r="AB15" s="208"/>
+      <c r="W15" s="86"/>
+      <c r="X15" s="86"/>
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="86"/>
+      <c r="AA15" s="86"/>
+      <c r="AB15" s="86"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
@@ -3079,74 +3079,74 @@
         <v>25</v>
       </c>
       <c r="C16" s="27"/>
-      <c r="D16" s="146" t="s">
+      <c r="D16" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="149" t="s">
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="149"/>
-      <c r="L16" s="149"/>
-      <c r="M16" s="149"/>
-      <c r="N16" s="149"/>
-      <c r="O16" s="78" t="s">
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="79"/>
-      <c r="U16" s="79"/>
-      <c r="V16" s="79"/>
-      <c r="W16" s="79"/>
-      <c r="X16" s="79"/>
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="79"/>
-      <c r="AA16" s="79"/>
-      <c r="AB16" s="206" t="s">
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="89"/>
+      <c r="Z16" s="89"/>
+      <c r="AA16" s="89"/>
+      <c r="AB16" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="AC16" s="207"/>
-      <c r="AD16" s="204" t="s">
+      <c r="AC16" s="91"/>
+      <c r="AD16" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="AE16" s="204"/>
-      <c r="AF16" s="204"/>
-      <c r="AG16" s="204"/>
-      <c r="AH16" s="204"/>
-      <c r="AI16" s="204"/>
-      <c r="AJ16" s="204"/>
-      <c r="AK16" s="204"/>
-      <c r="AL16" s="201" t="s">
+      <c r="AE16" s="92"/>
+      <c r="AF16" s="92"/>
+      <c r="AG16" s="92"/>
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="92"/>
+      <c r="AJ16" s="92"/>
+      <c r="AK16" s="92"/>
+      <c r="AL16" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="AM16" s="201"/>
-      <c r="AN16" s="201"/>
-      <c r="AO16" s="201"/>
-      <c r="AP16" s="201"/>
-      <c r="AQ16" s="201"/>
-      <c r="AR16" s="201"/>
-      <c r="AS16" s="201"/>
-      <c r="AT16" s="201"/>
-      <c r="AU16" s="205" t="s">
+      <c r="AM16" s="93"/>
+      <c r="AN16" s="93"/>
+      <c r="AO16" s="93"/>
+      <c r="AP16" s="93"/>
+      <c r="AQ16" s="93"/>
+      <c r="AR16" s="93"/>
+      <c r="AS16" s="93"/>
+      <c r="AT16" s="93"/>
+      <c r="AU16" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="AV16" s="205"/>
-      <c r="AW16" s="205"/>
-      <c r="AX16" s="203" t="s">
+      <c r="AV16" s="97"/>
+      <c r="AW16" s="97"/>
+      <c r="AX16" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="AY16" s="203"/>
-      <c r="AZ16" s="203"/>
-      <c r="BA16" s="203"/>
-      <c r="BB16" s="203"/>
-      <c r="BC16" s="203"/>
+      <c r="AY16" s="96"/>
+      <c r="AZ16" s="96"/>
+      <c r="BA16" s="96"/>
+      <c r="BB16" s="96"/>
+      <c r="BC16" s="96"/>
       <c r="BD16" s="28"/>
       <c r="BF16" s="20">
         <v>17</v>
@@ -3184,76 +3184,76 @@
         <v>27</v>
       </c>
       <c r="C17" s="27"/>
-      <c r="D17" s="204" t="s">
+      <c r="D17" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="204"/>
-      <c r="F17" s="204"/>
-      <c r="G17" s="204"/>
-      <c r="H17" s="204"/>
-      <c r="I17" s="204"/>
-      <c r="J17" s="204"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
       <c r="K17" s="29" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
-      <c r="N17" s="78" t="s">
+      <c r="N17" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="O17" s="79"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="79"/>
-      <c r="X17" s="79"/>
-      <c r="Y17" s="80"/>
-      <c r="Z17" s="206" t="s">
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="AA17" s="207"/>
-      <c r="AB17" s="149" t="s">
+      <c r="AA17" s="91"/>
+      <c r="AB17" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="AC17" s="149"/>
-      <c r="AD17" s="149"/>
-      <c r="AE17" s="149"/>
-      <c r="AF17" s="149"/>
-      <c r="AG17" s="149"/>
-      <c r="AH17" s="146" t="s">
+      <c r="AC17" s="87"/>
+      <c r="AD17" s="87"/>
+      <c r="AE17" s="87"/>
+      <c r="AF17" s="87"/>
+      <c r="AG17" s="87"/>
+      <c r="AH17" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="AI17" s="146"/>
-      <c r="AJ17" s="146"/>
-      <c r="AK17" s="146"/>
-      <c r="AL17" s="203" t="s">
+      <c r="AI17" s="79"/>
+      <c r="AJ17" s="79"/>
+      <c r="AK17" s="79"/>
+      <c r="AL17" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="AM17" s="203"/>
-      <c r="AN17" s="203"/>
-      <c r="AO17" s="203"/>
-      <c r="AP17" s="203"/>
-      <c r="AQ17" s="205" t="s">
+      <c r="AM17" s="96"/>
+      <c r="AN17" s="96"/>
+      <c r="AO17" s="96"/>
+      <c r="AP17" s="96"/>
+      <c r="AQ17" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="AR17" s="205"/>
-      <c r="AS17" s="205"/>
-      <c r="AT17" s="205"/>
-      <c r="AU17" s="201" t="s">
+      <c r="AR17" s="97"/>
+      <c r="AS17" s="97"/>
+      <c r="AT17" s="97"/>
+      <c r="AU17" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="AV17" s="201"/>
-      <c r="AW17" s="201"/>
-      <c r="AX17" s="201"/>
-      <c r="AY17" s="201"/>
-      <c r="AZ17" s="201"/>
-      <c r="BA17" s="201"/>
-      <c r="BB17" s="201"/>
-      <c r="BC17" s="201"/>
+      <c r="AV17" s="93"/>
+      <c r="AW17" s="93"/>
+      <c r="AX17" s="93"/>
+      <c r="AY17" s="93"/>
+      <c r="AZ17" s="93"/>
+      <c r="BA17" s="93"/>
+      <c r="BB17" s="93"/>
+      <c r="BC17" s="93"/>
       <c r="BD17" s="24"/>
       <c r="BF17" s="20">
         <v>18</v>
@@ -3288,70 +3288,70 @@
         <v>28</v>
       </c>
       <c r="C18" s="27"/>
-      <c r="D18" s="202" t="s">
+      <c r="D18" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="202"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="202"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="199" t="s">
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="199"/>
-      <c r="L18" s="199"/>
-      <c r="M18" s="199"/>
-      <c r="N18" s="203" t="s">
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="203"/>
-      <c r="P18" s="203"/>
-      <c r="Q18" s="203"/>
-      <c r="R18" s="203"/>
-      <c r="S18" s="203"/>
-      <c r="T18" s="203"/>
-      <c r="U18" s="203"/>
-      <c r="V18" s="204" t="s">
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="96"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="96"/>
+      <c r="U18" s="96"/>
+      <c r="V18" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="W18" s="204"/>
-      <c r="X18" s="204"/>
-      <c r="Y18" s="204"/>
-      <c r="Z18" s="204"/>
-      <c r="AA18" s="204"/>
-      <c r="AB18" s="204"/>
-      <c r="AC18" s="204"/>
-      <c r="AD18" s="201" t="s">
+      <c r="W18" s="92"/>
+      <c r="X18" s="92"/>
+      <c r="Y18" s="92"/>
+      <c r="Z18" s="92"/>
+      <c r="AA18" s="92"/>
+      <c r="AB18" s="92"/>
+      <c r="AC18" s="92"/>
+      <c r="AD18" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="AE18" s="201"/>
-      <c r="AF18" s="201"/>
-      <c r="AG18" s="201"/>
-      <c r="AH18" s="201"/>
-      <c r="AI18" s="201"/>
-      <c r="AJ18" s="201"/>
-      <c r="AK18" s="201"/>
-      <c r="AL18" s="146" t="s">
+      <c r="AE18" s="93"/>
+      <c r="AF18" s="93"/>
+      <c r="AG18" s="93"/>
+      <c r="AH18" s="93"/>
+      <c r="AI18" s="93"/>
+      <c r="AJ18" s="93"/>
+      <c r="AK18" s="93"/>
+      <c r="AL18" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="AM18" s="146"/>
-      <c r="AN18" s="146"/>
-      <c r="AO18" s="146"/>
-      <c r="AP18" s="146"/>
-      <c r="AQ18" s="146"/>
-      <c r="AR18" s="146"/>
-      <c r="AS18" s="146"/>
-      <c r="AT18" s="146"/>
-      <c r="AU18" s="146"/>
-      <c r="AV18" s="146"/>
-      <c r="AW18" s="146"/>
-      <c r="AX18" s="146"/>
-      <c r="AY18" s="146"/>
-      <c r="AZ18" s="146"/>
-      <c r="BA18" s="146"/>
-      <c r="BB18" s="146"/>
-      <c r="BC18" s="146"/>
+      <c r="AM18" s="79"/>
+      <c r="AN18" s="79"/>
+      <c r="AO18" s="79"/>
+      <c r="AP18" s="79"/>
+      <c r="AQ18" s="79"/>
+      <c r="AR18" s="79"/>
+      <c r="AS18" s="79"/>
+      <c r="AT18" s="79"/>
+      <c r="AU18" s="79"/>
+      <c r="AV18" s="79"/>
+      <c r="AW18" s="79"/>
+      <c r="AX18" s="79"/>
+      <c r="AY18" s="79"/>
+      <c r="AZ18" s="79"/>
+      <c r="BA18" s="79"/>
+      <c r="BB18" s="79"/>
+      <c r="BC18" s="79"/>
       <c r="BD18" s="26"/>
       <c r="BF18" s="20">
         <v>18</v>
@@ -3431,68 +3431,68 @@
         <v>30</v>
       </c>
       <c r="C20" s="32"/>
-      <c r="D20" s="179" t="s">
+      <c r="D20" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="180"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="180"/>
-      <c r="J20" s="180"/>
-      <c r="K20" s="180"/>
-      <c r="L20" s="181"/>
-      <c r="M20" s="182" t="s">
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="N20" s="182"/>
-      <c r="O20" s="183"/>
-      <c r="P20" s="183"/>
-      <c r="Q20" s="183"/>
-      <c r="R20" s="183"/>
-      <c r="S20" s="182"/>
-      <c r="T20" s="182"/>
-      <c r="U20" s="182"/>
-      <c r="V20" s="182"/>
-      <c r="W20" s="182"/>
-      <c r="X20" s="182"/>
-      <c r="Y20" s="182"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="100"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="99"/>
+      <c r="U20" s="99"/>
+      <c r="V20" s="99"/>
+      <c r="W20" s="99"/>
+      <c r="X20" s="99"/>
+      <c r="Y20" s="99"/>
       <c r="Z20" s="32"/>
       <c r="AA20" s="32"/>
       <c r="AB20" s="32"/>
       <c r="AC20" s="32"/>
-      <c r="AD20" s="184" t="s">
+      <c r="AD20" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="AE20" s="185"/>
-      <c r="AF20" s="185"/>
-      <c r="AG20" s="185"/>
-      <c r="AH20" s="185"/>
-      <c r="AI20" s="185"/>
-      <c r="AJ20" s="185"/>
-      <c r="AK20" s="185"/>
-      <c r="AL20" s="185"/>
-      <c r="AM20" s="185"/>
-      <c r="AN20" s="185"/>
-      <c r="AO20" s="185"/>
-      <c r="AP20" s="186"/>
-      <c r="AQ20" s="187" t="s">
+      <c r="AE20" s="102"/>
+      <c r="AF20" s="102"/>
+      <c r="AG20" s="102"/>
+      <c r="AH20" s="102"/>
+      <c r="AI20" s="102"/>
+      <c r="AJ20" s="102"/>
+      <c r="AK20" s="102"/>
+      <c r="AL20" s="102"/>
+      <c r="AM20" s="102"/>
+      <c r="AN20" s="102"/>
+      <c r="AO20" s="102"/>
+      <c r="AP20" s="103"/>
+      <c r="AQ20" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="AR20" s="188"/>
-      <c r="AS20" s="188"/>
-      <c r="AT20" s="188"/>
-      <c r="AU20" s="188"/>
-      <c r="AV20" s="188"/>
-      <c r="AW20" s="188"/>
-      <c r="AX20" s="188"/>
-      <c r="AY20" s="188"/>
-      <c r="AZ20" s="188"/>
-      <c r="BA20" s="189"/>
-      <c r="BB20" s="190" t="s">
+      <c r="AR20" s="105"/>
+      <c r="AS20" s="105"/>
+      <c r="AT20" s="105"/>
+      <c r="AU20" s="105"/>
+      <c r="AV20" s="105"/>
+      <c r="AW20" s="105"/>
+      <c r="AX20" s="105"/>
+      <c r="AY20" s="105"/>
+      <c r="AZ20" s="105"/>
+      <c r="BA20" s="106"/>
+      <c r="BB20" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="BC20" s="191"/>
+      <c r="BC20" s="108"/>
       <c r="BD20" s="33"/>
     </row>
     <row r="21" spans="1:67" s="1" customFormat="1">
@@ -3710,54 +3710,54 @@
       <c r="B24" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="192" t="s">
+      <c r="D24" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="193"/>
-      <c r="F24" s="193"/>
-      <c r="G24" s="194"/>
-      <c r="H24" s="78" t="s">
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="166" t="s">
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="P24" s="167"/>
-      <c r="Q24" s="167"/>
-      <c r="R24" s="167"/>
-      <c r="S24" s="167"/>
-      <c r="T24" s="168"/>
-      <c r="U24" s="195" t="s">
+      <c r="P24" s="113"/>
+      <c r="Q24" s="113"/>
+      <c r="R24" s="113"/>
+      <c r="S24" s="113"/>
+      <c r="T24" s="114"/>
+      <c r="U24" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="V24" s="97"/>
-      <c r="W24" s="97"/>
-      <c r="X24" s="97"/>
-      <c r="Y24" s="97"/>
-      <c r="Z24" s="97"/>
-      <c r="AA24" s="98"/>
-      <c r="AB24" s="196" t="s">
+      <c r="V24" s="116"/>
+      <c r="W24" s="116"/>
+      <c r="X24" s="116"/>
+      <c r="Y24" s="116"/>
+      <c r="Z24" s="116"/>
+      <c r="AA24" s="117"/>
+      <c r="AB24" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="AC24" s="197"/>
-      <c r="AD24" s="197"/>
-      <c r="AE24" s="197"/>
-      <c r="AF24" s="197"/>
-      <c r="AG24" s="197"/>
-      <c r="AH24" s="197"/>
-      <c r="AI24" s="197"/>
-      <c r="AJ24" s="197"/>
-      <c r="AK24" s="197"/>
-      <c r="AL24" s="197"/>
-      <c r="AM24" s="197"/>
-      <c r="AN24" s="197"/>
-      <c r="AO24" s="198"/>
+      <c r="AC24" s="119"/>
+      <c r="AD24" s="119"/>
+      <c r="AE24" s="119"/>
+      <c r="AF24" s="119"/>
+      <c r="AG24" s="119"/>
+      <c r="AH24" s="119"/>
+      <c r="AI24" s="119"/>
+      <c r="AJ24" s="119"/>
+      <c r="AK24" s="119"/>
+      <c r="AL24" s="119"/>
+      <c r="AM24" s="119"/>
+      <c r="AN24" s="119"/>
+      <c r="AO24" s="120"/>
       <c r="AP24" s="38" t="s">
         <v>41</v>
       </c>
@@ -3770,12 +3770,12 @@
       <c r="AW24" s="39"/>
       <c r="AX24" s="39"/>
       <c r="AY24" s="40"/>
-      <c r="AZ24" s="199" t="s">
+      <c r="AZ24" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="BA24" s="199"/>
-      <c r="BB24" s="199"/>
-      <c r="BC24" s="200"/>
+      <c r="BA24" s="95"/>
+      <c r="BB24" s="95"/>
+      <c r="BC24" s="121"/>
       <c r="BD24" s="41"/>
       <c r="BE24" s="1">
         <v>4</v>
@@ -3808,76 +3808,76 @@
       <c r="B25" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="156" t="s">
+      <c r="D25" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="159" t="s">
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="160"/>
-      <c r="K25" s="160"/>
-      <c r="L25" s="161"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="127"/>
       <c r="M25" s="42" t="s">
         <v>9</v>
       </c>
       <c r="N25" s="43"/>
       <c r="O25" s="43"/>
       <c r="P25" s="44"/>
-      <c r="Q25" s="83" t="s">
+      <c r="Q25" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="R25" s="84"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="84"/>
-      <c r="V25" s="84"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="84"/>
-      <c r="Y25" s="84"/>
-      <c r="Z25" s="84"/>
-      <c r="AA25" s="162"/>
-      <c r="AB25" s="163" t="s">
+      <c r="R25" s="129"/>
+      <c r="S25" s="129"/>
+      <c r="T25" s="129"/>
+      <c r="U25" s="129"/>
+      <c r="V25" s="129"/>
+      <c r="W25" s="129"/>
+      <c r="X25" s="129"/>
+      <c r="Y25" s="129"/>
+      <c r="Z25" s="129"/>
+      <c r="AA25" s="130"/>
+      <c r="AB25" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="AC25" s="164"/>
-      <c r="AD25" s="164"/>
-      <c r="AE25" s="164"/>
-      <c r="AF25" s="164"/>
-      <c r="AG25" s="165"/>
-      <c r="AH25" s="166" t="s">
+      <c r="AC25" s="132"/>
+      <c r="AD25" s="132"/>
+      <c r="AE25" s="132"/>
+      <c r="AF25" s="132"/>
+      <c r="AG25" s="133"/>
+      <c r="AH25" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="AI25" s="167"/>
-      <c r="AJ25" s="167"/>
-      <c r="AK25" s="167"/>
-      <c r="AL25" s="167"/>
-      <c r="AM25" s="167"/>
-      <c r="AN25" s="167"/>
-      <c r="AO25" s="167"/>
-      <c r="AP25" s="168"/>
-      <c r="AQ25" s="169" t="s">
+      <c r="AI25" s="113"/>
+      <c r="AJ25" s="113"/>
+      <c r="AK25" s="113"/>
+      <c r="AL25" s="113"/>
+      <c r="AM25" s="113"/>
+      <c r="AN25" s="113"/>
+      <c r="AO25" s="113"/>
+      <c r="AP25" s="114"/>
+      <c r="AQ25" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="AR25" s="170"/>
-      <c r="AS25" s="170"/>
-      <c r="AT25" s="171"/>
-      <c r="AU25" s="172" t="s">
+      <c r="AR25" s="135"/>
+      <c r="AS25" s="135"/>
+      <c r="AT25" s="136"/>
+      <c r="AU25" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="AV25" s="173"/>
-      <c r="AW25" s="173"/>
-      <c r="AX25" s="174"/>
-      <c r="AY25" s="100" t="s">
+      <c r="AV25" s="138"/>
+      <c r="AW25" s="138"/>
+      <c r="AX25" s="139"/>
+      <c r="AY25" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="AZ25" s="157"/>
-      <c r="BA25" s="157"/>
-      <c r="BB25" s="157"/>
-      <c r="BC25" s="158"/>
+      <c r="AZ25" s="123"/>
+      <c r="BA25" s="123"/>
+      <c r="BB25" s="123"/>
+      <c r="BC25" s="124"/>
       <c r="BD25" s="36"/>
       <c r="BE25" s="1">
         <v>4</v>
@@ -3910,74 +3910,74 @@
       <c r="B26" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="97" t="s">
+      <c r="D26" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="150" t="s">
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="116"/>
+      <c r="K26" s="116"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="N26" s="151"/>
-      <c r="O26" s="151"/>
-      <c r="P26" s="152"/>
-      <c r="Q26" s="153" t="s">
+      <c r="N26" s="150"/>
+      <c r="O26" s="150"/>
+      <c r="P26" s="151"/>
+      <c r="Q26" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="R26" s="154"/>
-      <c r="S26" s="154"/>
-      <c r="T26" s="155"/>
-      <c r="U26" s="149" t="s">
+      <c r="R26" s="153"/>
+      <c r="S26" s="153"/>
+      <c r="T26" s="154"/>
+      <c r="U26" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="V26" s="149"/>
-      <c r="W26" s="149"/>
-      <c r="X26" s="149"/>
-      <c r="Y26" s="149"/>
-      <c r="Z26" s="149"/>
-      <c r="AA26" s="149"/>
-      <c r="AB26" s="78" t="s">
+      <c r="V26" s="87"/>
+      <c r="W26" s="87"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="87"/>
+      <c r="AA26" s="87"/>
+      <c r="AB26" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="AC26" s="79"/>
-      <c r="AD26" s="79"/>
-      <c r="AE26" s="79"/>
-      <c r="AF26" s="79"/>
-      <c r="AG26" s="80"/>
+      <c r="AC26" s="89"/>
+      <c r="AD26" s="89"/>
+      <c r="AE26" s="89"/>
+      <c r="AF26" s="89"/>
+      <c r="AG26" s="98"/>
       <c r="AH26" s="148" t="s">
         <v>8</v>
       </c>
       <c r="AI26" s="148"/>
       <c r="AJ26" s="148"/>
       <c r="AK26" s="148"/>
-      <c r="AL26" s="175" t="s">
+      <c r="AL26" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="AM26" s="176"/>
-      <c r="AN26" s="176"/>
-      <c r="AO26" s="177"/>
-      <c r="AP26" s="178" t="s">
+      <c r="AM26" s="142"/>
+      <c r="AN26" s="142"/>
+      <c r="AO26" s="143"/>
+      <c r="AP26" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="AQ26" s="178"/>
-      <c r="AR26" s="178"/>
-      <c r="AS26" s="178"/>
-      <c r="AT26" s="178"/>
-      <c r="AU26" s="178"/>
-      <c r="AV26" s="178"/>
-      <c r="AW26" s="178"/>
-      <c r="AX26" s="178"/>
-      <c r="AY26" s="178"/>
-      <c r="AZ26" s="178"/>
-      <c r="BA26" s="178"/>
-      <c r="BB26" s="178"/>
-      <c r="BC26" s="178"/>
+      <c r="AQ26" s="78"/>
+      <c r="AR26" s="78"/>
+      <c r="AS26" s="78"/>
+      <c r="AT26" s="78"/>
+      <c r="AU26" s="78"/>
+      <c r="AV26" s="78"/>
+      <c r="AW26" s="78"/>
+      <c r="AX26" s="78"/>
+      <c r="AY26" s="78"/>
+      <c r="AZ26" s="78"/>
+      <c r="BA26" s="78"/>
+      <c r="BB26" s="78"/>
+      <c r="BC26" s="78"/>
       <c r="BD26" s="23"/>
       <c r="BE26" s="1">
         <v>4</v>
@@ -4010,49 +4010,49 @@
       <c r="B27" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="143" t="s">
+      <c r="D27" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="143"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="143"/>
-      <c r="O27" s="143"/>
-      <c r="P27" s="143"/>
-      <c r="Q27" s="144" t="s">
+      <c r="E27" s="144"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="144"/>
+      <c r="M27" s="144"/>
+      <c r="N27" s="144"/>
+      <c r="O27" s="144"/>
+      <c r="P27" s="144"/>
+      <c r="Q27" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="R27" s="144"/>
-      <c r="S27" s="144"/>
-      <c r="T27" s="144"/>
-      <c r="U27" s="145" t="s">
+      <c r="R27" s="145"/>
+      <c r="S27" s="145"/>
+      <c r="T27" s="145"/>
+      <c r="U27" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="V27" s="145"/>
-      <c r="W27" s="145"/>
-      <c r="X27" s="145"/>
-      <c r="Y27" s="145"/>
-      <c r="Z27" s="145"/>
-      <c r="AA27" s="145"/>
-      <c r="AB27" s="145"/>
-      <c r="AC27" s="145"/>
-      <c r="AD27" s="145"/>
-      <c r="AE27" s="145"/>
-      <c r="AF27" s="146" t="s">
+      <c r="V27" s="146"/>
+      <c r="W27" s="146"/>
+      <c r="X27" s="146"/>
+      <c r="Y27" s="146"/>
+      <c r="Z27" s="146"/>
+      <c r="AA27" s="146"/>
+      <c r="AB27" s="146"/>
+      <c r="AC27" s="146"/>
+      <c r="AD27" s="146"/>
+      <c r="AE27" s="146"/>
+      <c r="AF27" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="AG27" s="146"/>
-      <c r="AH27" s="146"/>
-      <c r="AI27" s="146"/>
-      <c r="AJ27" s="146"/>
-      <c r="AK27" s="146"/>
-      <c r="AL27" s="146"/>
+      <c r="AG27" s="79"/>
+      <c r="AH27" s="79"/>
+      <c r="AI27" s="79"/>
+      <c r="AJ27" s="79"/>
+      <c r="AK27" s="79"/>
+      <c r="AL27" s="79"/>
       <c r="AM27" s="147" t="s">
         <v>10</v>
       </c>
@@ -4068,14 +4068,14 @@
       <c r="AU27" s="148"/>
       <c r="AV27" s="148"/>
       <c r="AW27" s="148"/>
-      <c r="AX27" s="149" t="s">
+      <c r="AX27" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="AY27" s="149"/>
-      <c r="AZ27" s="149"/>
-      <c r="BA27" s="149"/>
-      <c r="BB27" s="149"/>
-      <c r="BC27" s="149"/>
+      <c r="AY27" s="87"/>
+      <c r="AZ27" s="87"/>
+      <c r="BA27" s="87"/>
+      <c r="BB27" s="87"/>
+      <c r="BC27" s="87"/>
       <c r="BD27" s="24"/>
       <c r="BE27" s="1">
         <v>4</v>
@@ -4191,76 +4191,76 @@
         <v>47</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="138" t="s">
+      <c r="D30" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="139"/>
-      <c r="L30" s="139"/>
-      <c r="M30" s="139"/>
-      <c r="N30" s="139"/>
-      <c r="O30" s="139"/>
-      <c r="P30" s="140"/>
-      <c r="Q30" s="91" t="s">
+      <c r="E30" s="180"/>
+      <c r="F30" s="180"/>
+      <c r="G30" s="180"/>
+      <c r="H30" s="180"/>
+      <c r="I30" s="180"/>
+      <c r="J30" s="180"/>
+      <c r="K30" s="180"/>
+      <c r="L30" s="180"/>
+      <c r="M30" s="180"/>
+      <c r="N30" s="180"/>
+      <c r="O30" s="180"/>
+      <c r="P30" s="181"/>
+      <c r="Q30" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="R30" s="92"/>
-      <c r="S30" s="92"/>
-      <c r="T30" s="92"/>
-      <c r="U30" s="117"/>
-      <c r="V30" s="111" t="s">
+      <c r="R30" s="168"/>
+      <c r="S30" s="168"/>
+      <c r="T30" s="168"/>
+      <c r="U30" s="183"/>
+      <c r="V30" s="178" t="s">
         <v>39</v>
       </c>
-      <c r="W30" s="112"/>
-      <c r="X30" s="112"/>
-      <c r="Y30" s="113"/>
-      <c r="Z30" s="130" t="s">
+      <c r="W30" s="173"/>
+      <c r="X30" s="173"/>
+      <c r="Y30" s="174"/>
+      <c r="Z30" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="AA30" s="131"/>
-      <c r="AB30" s="131"/>
-      <c r="AC30" s="131"/>
-      <c r="AD30" s="131"/>
-      <c r="AE30" s="132"/>
-      <c r="AF30" s="128" t="s">
+      <c r="AA30" s="156"/>
+      <c r="AB30" s="156"/>
+      <c r="AC30" s="156"/>
+      <c r="AD30" s="156"/>
+      <c r="AE30" s="157"/>
+      <c r="AF30" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="AG30" s="129"/>
-      <c r="AH30" s="129"/>
-      <c r="AI30" s="129"/>
-      <c r="AJ30" s="129"/>
-      <c r="AK30" s="135"/>
-      <c r="AL30" s="111" t="s">
+      <c r="AG30" s="165"/>
+      <c r="AH30" s="165"/>
+      <c r="AI30" s="165"/>
+      <c r="AJ30" s="165"/>
+      <c r="AK30" s="166"/>
+      <c r="AL30" s="178" t="s">
         <v>39</v>
       </c>
-      <c r="AM30" s="112"/>
-      <c r="AN30" s="112"/>
-      <c r="AO30" s="113"/>
-      <c r="AP30" s="130" t="s">
+      <c r="AM30" s="173"/>
+      <c r="AN30" s="173"/>
+      <c r="AO30" s="174"/>
+      <c r="AP30" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="AQ30" s="131"/>
-      <c r="AR30" s="131"/>
-      <c r="AS30" s="132"/>
-      <c r="AT30" s="133" t="s">
+      <c r="AQ30" s="156"/>
+      <c r="AR30" s="156"/>
+      <c r="AS30" s="157"/>
+      <c r="AT30" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="AU30" s="121"/>
-      <c r="AV30" s="121"/>
-      <c r="AW30" s="121"/>
-      <c r="AX30" s="122"/>
-      <c r="AY30" s="134" t="s">
+      <c r="AU30" s="159"/>
+      <c r="AV30" s="159"/>
+      <c r="AW30" s="159"/>
+      <c r="AX30" s="160"/>
+      <c r="AY30" s="161" t="s">
         <v>8</v>
       </c>
-      <c r="AZ30" s="126"/>
-      <c r="BA30" s="126"/>
-      <c r="BB30" s="126"/>
-      <c r="BC30" s="127"/>
+      <c r="AZ30" s="162"/>
+      <c r="BA30" s="162"/>
+      <c r="BB30" s="162"/>
+      <c r="BC30" s="163"/>
       <c r="BD30" s="27"/>
       <c r="BE30" s="49">
         <v>8</v>
@@ -4291,82 +4291,82 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:67" ht="17" thickBot="1">
+    <row r="31" spans="1:67" ht="16.5" thickBot="1">
       <c r="A31" s="50"/>
       <c r="B31" s="48" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="128" t="s">
+      <c r="D31" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="116" t="s">
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="166"/>
+      <c r="H31" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="136"/>
-      <c r="M31" s="137" t="s">
+      <c r="I31" s="168"/>
+      <c r="J31" s="168"/>
+      <c r="K31" s="168"/>
+      <c r="L31" s="169"/>
+      <c r="M31" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="N31" s="100"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="100"/>
-      <c r="R31" s="100"/>
-      <c r="S31" s="100"/>
-      <c r="T31" s="100"/>
-      <c r="U31" s="106" t="s">
+      <c r="N31" s="140"/>
+      <c r="O31" s="140"/>
+      <c r="P31" s="140"/>
+      <c r="Q31" s="140"/>
+      <c r="R31" s="140"/>
+      <c r="S31" s="140"/>
+      <c r="T31" s="140"/>
+      <c r="U31" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="V31" s="106"/>
-      <c r="W31" s="106"/>
-      <c r="X31" s="106"/>
-      <c r="Y31" s="107"/>
-      <c r="Z31" s="112" t="s">
+      <c r="V31" s="171"/>
+      <c r="W31" s="171"/>
+      <c r="X31" s="171"/>
+      <c r="Y31" s="172"/>
+      <c r="Z31" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="AA31" s="112"/>
-      <c r="AB31" s="112"/>
-      <c r="AC31" s="113"/>
-      <c r="AD31" s="114" t="s">
+      <c r="AA31" s="173"/>
+      <c r="AB31" s="173"/>
+      <c r="AC31" s="174"/>
+      <c r="AD31" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="AE31" s="109"/>
-      <c r="AF31" s="109"/>
-      <c r="AG31" s="109"/>
-      <c r="AH31" s="109"/>
-      <c r="AI31" s="109"/>
-      <c r="AJ31" s="109"/>
-      <c r="AK31" s="109"/>
-      <c r="AL31" s="109"/>
-      <c r="AM31" s="109"/>
-      <c r="AN31" s="109"/>
-      <c r="AO31" s="110"/>
-      <c r="AP31" s="111" t="s">
+      <c r="AE31" s="176"/>
+      <c r="AF31" s="176"/>
+      <c r="AG31" s="176"/>
+      <c r="AH31" s="176"/>
+      <c r="AI31" s="176"/>
+      <c r="AJ31" s="176"/>
+      <c r="AK31" s="176"/>
+      <c r="AL31" s="176"/>
+      <c r="AM31" s="176"/>
+      <c r="AN31" s="176"/>
+      <c r="AO31" s="177"/>
+      <c r="AP31" s="178" t="s">
         <v>39</v>
       </c>
-      <c r="AQ31" s="112"/>
-      <c r="AR31" s="112"/>
-      <c r="AS31" s="113"/>
-      <c r="AT31" s="99" t="s">
+      <c r="AQ31" s="173"/>
+      <c r="AR31" s="173"/>
+      <c r="AS31" s="174"/>
+      <c r="AT31" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="AU31" s="100"/>
-      <c r="AV31" s="100"/>
-      <c r="AW31" s="100"/>
-      <c r="AX31" s="115"/>
-      <c r="AY31" s="141" t="s">
+      <c r="AU31" s="140"/>
+      <c r="AV31" s="140"/>
+      <c r="AW31" s="140"/>
+      <c r="AX31" s="185"/>
+      <c r="AY31" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="AZ31" s="142"/>
-      <c r="BA31" s="142"/>
-      <c r="BB31" s="142"/>
-      <c r="BC31" s="142"/>
+      <c r="AZ31" s="187"/>
+      <c r="BA31" s="187"/>
+      <c r="BB31" s="187"/>
+      <c r="BC31" s="187"/>
       <c r="BD31" s="28"/>
       <c r="BE31" s="49">
         <v>8</v>
@@ -4397,82 +4397,82 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:67" ht="17" thickBot="1">
+    <row r="32" spans="1:67" ht="16.5" thickBot="1">
       <c r="A32" s="50"/>
       <c r="B32" s="48" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="99" t="s">
+      <c r="D32" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="115"/>
-      <c r="M32" s="116" t="s">
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="185"/>
+      <c r="M32" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="117"/>
-      <c r="Q32" s="114" t="s">
+      <c r="N32" s="168"/>
+      <c r="O32" s="168"/>
+      <c r="P32" s="183"/>
+      <c r="Q32" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="R32" s="109"/>
-      <c r="S32" s="109"/>
-      <c r="T32" s="109"/>
-      <c r="U32" s="109"/>
-      <c r="V32" s="109"/>
-      <c r="W32" s="109"/>
-      <c r="X32" s="109"/>
-      <c r="Y32" s="109"/>
-      <c r="Z32" s="109"/>
-      <c r="AA32" s="109"/>
-      <c r="AB32" s="109"/>
-      <c r="AC32" s="118"/>
-      <c r="AD32" s="119" t="s">
+      <c r="R32" s="176"/>
+      <c r="S32" s="176"/>
+      <c r="T32" s="176"/>
+      <c r="U32" s="176"/>
+      <c r="V32" s="176"/>
+      <c r="W32" s="176"/>
+      <c r="X32" s="176"/>
+      <c r="Y32" s="176"/>
+      <c r="Z32" s="176"/>
+      <c r="AA32" s="176"/>
+      <c r="AB32" s="176"/>
+      <c r="AC32" s="188"/>
+      <c r="AD32" s="189" t="s">
         <v>39</v>
       </c>
-      <c r="AE32" s="112"/>
-      <c r="AF32" s="112"/>
-      <c r="AG32" s="112"/>
-      <c r="AH32" s="120" t="s">
+      <c r="AE32" s="173"/>
+      <c r="AF32" s="173"/>
+      <c r="AG32" s="173"/>
+      <c r="AH32" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="AI32" s="121"/>
-      <c r="AJ32" s="121"/>
-      <c r="AK32" s="121"/>
-      <c r="AL32" s="122"/>
-      <c r="AM32" s="123" t="s">
+      <c r="AI32" s="159"/>
+      <c r="AJ32" s="159"/>
+      <c r="AK32" s="159"/>
+      <c r="AL32" s="160"/>
+      <c r="AM32" s="191" t="s">
         <v>5</v>
       </c>
-      <c r="AN32" s="124"/>
-      <c r="AO32" s="125"/>
-      <c r="AP32" s="126" t="s">
+      <c r="AN32" s="192"/>
+      <c r="AO32" s="193"/>
+      <c r="AP32" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="AQ32" s="126"/>
-      <c r="AR32" s="126"/>
-      <c r="AS32" s="127"/>
-      <c r="AT32" s="119" t="s">
+      <c r="AQ32" s="162"/>
+      <c r="AR32" s="162"/>
+      <c r="AS32" s="163"/>
+      <c r="AT32" s="189" t="s">
         <v>39</v>
       </c>
-      <c r="AU32" s="112"/>
-      <c r="AV32" s="112"/>
-      <c r="AW32" s="113"/>
-      <c r="AX32" s="128" t="s">
+      <c r="AU32" s="173"/>
+      <c r="AV32" s="173"/>
+      <c r="AW32" s="174"/>
+      <c r="AX32" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="AY32" s="129"/>
-      <c r="AZ32" s="129"/>
-      <c r="BA32" s="129"/>
-      <c r="BB32" s="129"/>
-      <c r="BC32" s="129"/>
+      <c r="AY32" s="165"/>
+      <c r="AZ32" s="165"/>
+      <c r="BA32" s="165"/>
+      <c r="BB32" s="165"/>
+      <c r="BC32" s="165"/>
       <c r="BD32" s="24"/>
       <c r="BE32" s="49">
         <v>8</v>
@@ -4509,76 +4509,76 @@
         <v>50</v>
       </c>
       <c r="C33" s="48"/>
-      <c r="D33" s="91" t="s">
+      <c r="D33" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="93" t="s">
+      <c r="E33" s="168"/>
+      <c r="F33" s="168"/>
+      <c r="G33" s="168"/>
+      <c r="H33" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="96" t="s">
+      <c r="I33" s="195"/>
+      <c r="J33" s="195"/>
+      <c r="K33" s="195"/>
+      <c r="L33" s="196"/>
+      <c r="M33" s="197" t="s">
         <v>10</v>
       </c>
-      <c r="N33" s="97"/>
-      <c r="O33" s="97"/>
-      <c r="P33" s="97"/>
-      <c r="Q33" s="97"/>
-      <c r="R33" s="97"/>
-      <c r="S33" s="97"/>
-      <c r="T33" s="98"/>
-      <c r="U33" s="99" t="s">
+      <c r="N33" s="116"/>
+      <c r="O33" s="116"/>
+      <c r="P33" s="116"/>
+      <c r="Q33" s="116"/>
+      <c r="R33" s="116"/>
+      <c r="S33" s="116"/>
+      <c r="T33" s="117"/>
+      <c r="U33" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="V33" s="100"/>
-      <c r="W33" s="100"/>
-      <c r="X33" s="100"/>
-      <c r="Y33" s="100"/>
-      <c r="Z33" s="100"/>
-      <c r="AA33" s="100"/>
-      <c r="AB33" s="100"/>
-      <c r="AC33" s="100"/>
-      <c r="AD33" s="100"/>
-      <c r="AE33" s="100"/>
-      <c r="AF33" s="100"/>
-      <c r="AG33" s="101"/>
-      <c r="AH33" s="102" t="s">
+      <c r="V33" s="140"/>
+      <c r="W33" s="140"/>
+      <c r="X33" s="140"/>
+      <c r="Y33" s="140"/>
+      <c r="Z33" s="140"/>
+      <c r="AA33" s="140"/>
+      <c r="AB33" s="140"/>
+      <c r="AC33" s="140"/>
+      <c r="AD33" s="140"/>
+      <c r="AE33" s="140"/>
+      <c r="AF33" s="140"/>
+      <c r="AG33" s="198"/>
+      <c r="AH33" s="199" t="s">
         <v>39</v>
       </c>
-      <c r="AI33" s="103"/>
-      <c r="AJ33" s="103"/>
-      <c r="AK33" s="104"/>
-      <c r="AL33" s="105" t="s">
+      <c r="AI33" s="200"/>
+      <c r="AJ33" s="200"/>
+      <c r="AK33" s="201"/>
+      <c r="AL33" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="AM33" s="106"/>
-      <c r="AN33" s="106"/>
-      <c r="AO33" s="107"/>
-      <c r="AP33" s="108" t="s">
+      <c r="AM33" s="171"/>
+      <c r="AN33" s="171"/>
+      <c r="AO33" s="172"/>
+      <c r="AP33" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="AQ33" s="109"/>
-      <c r="AR33" s="109"/>
-      <c r="AS33" s="109"/>
-      <c r="AT33" s="109"/>
-      <c r="AU33" s="109"/>
-      <c r="AV33" s="109"/>
-      <c r="AW33" s="110"/>
-      <c r="AX33" s="111" t="s">
+      <c r="AQ33" s="176"/>
+      <c r="AR33" s="176"/>
+      <c r="AS33" s="176"/>
+      <c r="AT33" s="176"/>
+      <c r="AU33" s="176"/>
+      <c r="AV33" s="176"/>
+      <c r="AW33" s="177"/>
+      <c r="AX33" s="178" t="s">
         <v>39</v>
       </c>
-      <c r="AY33" s="112"/>
-      <c r="AZ33" s="112"/>
-      <c r="BA33" s="113"/>
-      <c r="BB33" s="114" t="s">
+      <c r="AY33" s="173"/>
+      <c r="AZ33" s="173"/>
+      <c r="BA33" s="174"/>
+      <c r="BB33" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="BC33" s="109"/>
+      <c r="BC33" s="176"/>
       <c r="BD33" s="37"/>
       <c r="BE33" s="49">
         <v>8</v>
@@ -4667,7 +4667,7 @@
       <c r="BN34" s="57"/>
       <c r="BO34" s="57"/>
     </row>
-    <row r="35" spans="1:67" ht="4" customHeight="1">
+    <row r="35" spans="1:67" ht="3.95" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="22" t="s">
@@ -4837,66 +4837,66 @@
       <c r="B36" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="74"/>
-      <c r="S36" s="74"/>
-      <c r="T36" s="74"/>
-      <c r="U36" s="74"/>
-      <c r="V36" s="74"/>
-      <c r="W36" s="75" t="s">
+      <c r="C36" s="206"/>
+      <c r="D36" s="206"/>
+      <c r="E36" s="206"/>
+      <c r="F36" s="206"/>
+      <c r="G36" s="204"/>
+      <c r="H36" s="205"/>
+      <c r="I36" s="205"/>
+      <c r="J36" s="207"/>
+      <c r="K36" s="206"/>
+      <c r="L36" s="206"/>
+      <c r="M36" s="206"/>
+      <c r="N36" s="206"/>
+      <c r="O36" s="206"/>
+      <c r="P36" s="206"/>
+      <c r="Q36" s="206"/>
+      <c r="R36" s="206"/>
+      <c r="S36" s="206"/>
+      <c r="T36" s="206"/>
+      <c r="U36" s="206"/>
+      <c r="V36" s="206"/>
+      <c r="W36" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="X36" s="76"/>
-      <c r="Y36" s="76"/>
-      <c r="Z36" s="77"/>
-      <c r="AA36" s="75" t="s">
+      <c r="X36" s="209"/>
+      <c r="Y36" s="209"/>
+      <c r="Z36" s="211"/>
+      <c r="AA36" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="AB36" s="76"/>
-      <c r="AC36" s="76"/>
-      <c r="AD36" s="90"/>
-      <c r="AE36" s="74"/>
-      <c r="AF36" s="74"/>
-      <c r="AG36" s="74"/>
-      <c r="AH36" s="74"/>
-      <c r="AI36" s="74"/>
-      <c r="AJ36" s="74"/>
-      <c r="AK36" s="74"/>
-      <c r="AL36" s="74"/>
-      <c r="AM36" s="78" t="s">
+      <c r="AB36" s="209"/>
+      <c r="AC36" s="209"/>
+      <c r="AD36" s="210"/>
+      <c r="AE36" s="206"/>
+      <c r="AF36" s="206"/>
+      <c r="AG36" s="206"/>
+      <c r="AH36" s="206"/>
+      <c r="AI36" s="206"/>
+      <c r="AJ36" s="206"/>
+      <c r="AK36" s="206"/>
+      <c r="AL36" s="206"/>
+      <c r="AM36" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="AN36" s="79"/>
-      <c r="AO36" s="79"/>
-      <c r="AP36" s="80"/>
-      <c r="AQ36" s="78" t="s">
+      <c r="AN36" s="89"/>
+      <c r="AO36" s="89"/>
+      <c r="AP36" s="98"/>
+      <c r="AQ36" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="AR36" s="79"/>
-      <c r="AS36" s="79"/>
-      <c r="AT36" s="80"/>
-      <c r="AU36" s="74"/>
-      <c r="AV36" s="74"/>
-      <c r="AW36" s="74"/>
-      <c r="AX36" s="74"/>
-      <c r="AY36" s="85"/>
-      <c r="AZ36" s="86"/>
-      <c r="BA36" s="86"/>
-      <c r="BB36" s="86"/>
+      <c r="AR36" s="89"/>
+      <c r="AS36" s="89"/>
+      <c r="AT36" s="98"/>
+      <c r="AU36" s="206"/>
+      <c r="AV36" s="206"/>
+      <c r="AW36" s="206"/>
+      <c r="AX36" s="206"/>
+      <c r="AY36" s="204"/>
+      <c r="AZ36" s="205"/>
+      <c r="BA36" s="205"/>
+      <c r="BB36" s="205"/>
       <c r="BC36" s="1"/>
     </row>
     <row r="37" spans="1:67">
@@ -4904,282 +4904,282 @@
       <c r="B37" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="74"/>
-      <c r="T37" s="74"/>
-      <c r="U37" s="74"/>
-      <c r="V37" s="74"/>
-      <c r="W37" s="78" t="s">
+      <c r="C37" s="206"/>
+      <c r="D37" s="206"/>
+      <c r="E37" s="206"/>
+      <c r="F37" s="206"/>
+      <c r="G37" s="204"/>
+      <c r="H37" s="205"/>
+      <c r="I37" s="205"/>
+      <c r="J37" s="207"/>
+      <c r="K37" s="206"/>
+      <c r="L37" s="206"/>
+      <c r="M37" s="206"/>
+      <c r="N37" s="206"/>
+      <c r="O37" s="206"/>
+      <c r="P37" s="206"/>
+      <c r="Q37" s="206"/>
+      <c r="R37" s="206"/>
+      <c r="S37" s="206"/>
+      <c r="T37" s="206"/>
+      <c r="U37" s="206"/>
+      <c r="V37" s="206"/>
+      <c r="W37" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="X37" s="79"/>
-      <c r="Y37" s="79"/>
-      <c r="Z37" s="80"/>
-      <c r="AA37" s="78" t="s">
+      <c r="X37" s="89"/>
+      <c r="Y37" s="89"/>
+      <c r="Z37" s="98"/>
+      <c r="AA37" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="AB37" s="79"/>
-      <c r="AC37" s="79"/>
-      <c r="AD37" s="80"/>
-      <c r="AE37" s="74"/>
-      <c r="AF37" s="74"/>
-      <c r="AG37" s="74"/>
-      <c r="AH37" s="74"/>
-      <c r="AI37" s="74"/>
-      <c r="AJ37" s="74"/>
-      <c r="AK37" s="74"/>
-      <c r="AL37" s="74"/>
-      <c r="AM37" s="75" t="s">
+      <c r="AB37" s="89"/>
+      <c r="AC37" s="89"/>
+      <c r="AD37" s="98"/>
+      <c r="AE37" s="206"/>
+      <c r="AF37" s="206"/>
+      <c r="AG37" s="206"/>
+      <c r="AH37" s="206"/>
+      <c r="AI37" s="206"/>
+      <c r="AJ37" s="206"/>
+      <c r="AK37" s="206"/>
+      <c r="AL37" s="206"/>
+      <c r="AM37" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="AN37" s="76"/>
-      <c r="AO37" s="76"/>
-      <c r="AP37" s="77"/>
-      <c r="AQ37" s="75" t="s">
+      <c r="AN37" s="209"/>
+      <c r="AO37" s="209"/>
+      <c r="AP37" s="211"/>
+      <c r="AQ37" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="AR37" s="76"/>
-      <c r="AS37" s="76"/>
-      <c r="AT37" s="77"/>
-      <c r="AU37" s="74"/>
-      <c r="AV37" s="74"/>
-      <c r="AW37" s="74"/>
-      <c r="AX37" s="74"/>
-      <c r="AY37" s="85"/>
-      <c r="AZ37" s="86"/>
-      <c r="BA37" s="86"/>
-      <c r="BB37" s="86"/>
+      <c r="AR37" s="209"/>
+      <c r="AS37" s="209"/>
+      <c r="AT37" s="211"/>
+      <c r="AU37" s="206"/>
+      <c r="AV37" s="206"/>
+      <c r="AW37" s="206"/>
+      <c r="AX37" s="206"/>
+      <c r="AY37" s="204"/>
+      <c r="AZ37" s="205"/>
+      <c r="BA37" s="205"/>
+      <c r="BB37" s="205"/>
     </row>
     <row r="38" spans="1:67">
       <c r="A38" s="25"/>
       <c r="B38" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="74"/>
-      <c r="N38" s="74"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="74"/>
-      <c r="Q38" s="74"/>
-      <c r="R38" s="74"/>
-      <c r="S38" s="74"/>
-      <c r="T38" s="74"/>
-      <c r="U38" s="74"/>
-      <c r="V38" s="74"/>
-      <c r="W38" s="74"/>
-      <c r="X38" s="74"/>
-      <c r="Y38" s="74"/>
-      <c r="Z38" s="74"/>
-      <c r="AA38" s="74"/>
-      <c r="AB38" s="74"/>
-      <c r="AC38" s="74"/>
-      <c r="AD38" s="74"/>
-      <c r="AE38" s="75" t="s">
+      <c r="C38" s="206"/>
+      <c r="D38" s="206"/>
+      <c r="E38" s="206"/>
+      <c r="F38" s="206"/>
+      <c r="G38" s="204"/>
+      <c r="H38" s="205"/>
+      <c r="I38" s="205"/>
+      <c r="J38" s="207"/>
+      <c r="K38" s="206"/>
+      <c r="L38" s="206"/>
+      <c r="M38" s="206"/>
+      <c r="N38" s="206"/>
+      <c r="O38" s="206"/>
+      <c r="P38" s="206"/>
+      <c r="Q38" s="206"/>
+      <c r="R38" s="206"/>
+      <c r="S38" s="206"/>
+      <c r="T38" s="206"/>
+      <c r="U38" s="206"/>
+      <c r="V38" s="206"/>
+      <c r="W38" s="206"/>
+      <c r="X38" s="206"/>
+      <c r="Y38" s="206"/>
+      <c r="Z38" s="206"/>
+      <c r="AA38" s="206"/>
+      <c r="AB38" s="206"/>
+      <c r="AC38" s="206"/>
+      <c r="AD38" s="206"/>
+      <c r="AE38" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="AF38" s="76"/>
-      <c r="AG38" s="76"/>
-      <c r="AH38" s="77"/>
-      <c r="AI38" s="75" t="s">
+      <c r="AF38" s="209"/>
+      <c r="AG38" s="209"/>
+      <c r="AH38" s="211"/>
+      <c r="AI38" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="AJ38" s="76"/>
-      <c r="AK38" s="76"/>
-      <c r="AL38" s="77"/>
-      <c r="AM38" s="74"/>
-      <c r="AN38" s="74"/>
-      <c r="AO38" s="74"/>
-      <c r="AP38" s="74"/>
-      <c r="AQ38" s="74"/>
-      <c r="AR38" s="74"/>
-      <c r="AS38" s="74"/>
-      <c r="AT38" s="74"/>
-      <c r="AU38" s="78" t="s">
+      <c r="AJ38" s="209"/>
+      <c r="AK38" s="209"/>
+      <c r="AL38" s="211"/>
+      <c r="AM38" s="206"/>
+      <c r="AN38" s="206"/>
+      <c r="AO38" s="206"/>
+      <c r="AP38" s="206"/>
+      <c r="AQ38" s="206"/>
+      <c r="AR38" s="206"/>
+      <c r="AS38" s="206"/>
+      <c r="AT38" s="206"/>
+      <c r="AU38" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="AV38" s="79"/>
-      <c r="AW38" s="79"/>
-      <c r="AX38" s="80"/>
-      <c r="AY38" s="78" t="s">
+      <c r="AV38" s="89"/>
+      <c r="AW38" s="89"/>
+      <c r="AX38" s="98"/>
+      <c r="AY38" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="AZ38" s="79"/>
-      <c r="BA38" s="79"/>
-      <c r="BB38" s="79"/>
+      <c r="AZ38" s="89"/>
+      <c r="BA38" s="89"/>
+      <c r="BB38" s="89"/>
     </row>
     <row r="39" spans="1:67">
       <c r="A39" s="25"/>
       <c r="B39" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="74"/>
-      <c r="L39" s="74"/>
-      <c r="M39" s="74"/>
-      <c r="N39" s="74"/>
-      <c r="O39" s="74"/>
-      <c r="P39" s="74"/>
-      <c r="Q39" s="74"/>
-      <c r="R39" s="74"/>
-      <c r="S39" s="74"/>
-      <c r="T39" s="74"/>
-      <c r="U39" s="74"/>
-      <c r="V39" s="74"/>
-      <c r="W39" s="74"/>
-      <c r="X39" s="74"/>
-      <c r="Y39" s="74"/>
-      <c r="Z39" s="74"/>
-      <c r="AA39" s="74"/>
-      <c r="AB39" s="74"/>
-      <c r="AC39" s="74"/>
-      <c r="AD39" s="74"/>
-      <c r="AE39" s="78" t="s">
+      <c r="C39" s="206"/>
+      <c r="D39" s="206"/>
+      <c r="E39" s="206"/>
+      <c r="F39" s="206"/>
+      <c r="G39" s="204"/>
+      <c r="H39" s="205"/>
+      <c r="I39" s="205"/>
+      <c r="J39" s="207"/>
+      <c r="K39" s="206"/>
+      <c r="L39" s="206"/>
+      <c r="M39" s="206"/>
+      <c r="N39" s="206"/>
+      <c r="O39" s="206"/>
+      <c r="P39" s="206"/>
+      <c r="Q39" s="206"/>
+      <c r="R39" s="206"/>
+      <c r="S39" s="206"/>
+      <c r="T39" s="206"/>
+      <c r="U39" s="206"/>
+      <c r="V39" s="206"/>
+      <c r="W39" s="206"/>
+      <c r="X39" s="206"/>
+      <c r="Y39" s="206"/>
+      <c r="Z39" s="206"/>
+      <c r="AA39" s="206"/>
+      <c r="AB39" s="206"/>
+      <c r="AC39" s="206"/>
+      <c r="AD39" s="206"/>
+      <c r="AE39" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="AF39" s="79"/>
-      <c r="AG39" s="79"/>
-      <c r="AH39" s="80"/>
-      <c r="AI39" s="78" t="s">
+      <c r="AF39" s="89"/>
+      <c r="AG39" s="89"/>
+      <c r="AH39" s="98"/>
+      <c r="AI39" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="AJ39" s="79"/>
-      <c r="AK39" s="79"/>
-      <c r="AL39" s="80"/>
-      <c r="AM39" s="74"/>
-      <c r="AN39" s="74"/>
-      <c r="AO39" s="74"/>
-      <c r="AP39" s="74"/>
-      <c r="AQ39" s="74"/>
-      <c r="AR39" s="74"/>
-      <c r="AS39" s="74"/>
-      <c r="AT39" s="74"/>
-      <c r="AU39" s="75" t="s">
+      <c r="AJ39" s="89"/>
+      <c r="AK39" s="89"/>
+      <c r="AL39" s="98"/>
+      <c r="AM39" s="206"/>
+      <c r="AN39" s="206"/>
+      <c r="AO39" s="206"/>
+      <c r="AP39" s="206"/>
+      <c r="AQ39" s="206"/>
+      <c r="AR39" s="206"/>
+      <c r="AS39" s="206"/>
+      <c r="AT39" s="206"/>
+      <c r="AU39" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="AV39" s="76"/>
-      <c r="AW39" s="76"/>
-      <c r="AX39" s="77"/>
-      <c r="AY39" s="83" t="s">
+      <c r="AV39" s="209"/>
+      <c r="AW39" s="209"/>
+      <c r="AX39" s="211"/>
+      <c r="AY39" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="AZ39" s="84"/>
-      <c r="BA39" s="84"/>
-      <c r="BB39" s="84"/>
+      <c r="AZ39" s="129"/>
+      <c r="BA39" s="129"/>
+      <c r="BB39" s="129"/>
     </row>
     <row r="40" spans="1:67">
       <c r="A40" s="25"/>
       <c r="B40" s="22"/>
-      <c r="C40" s="88" t="s">
+      <c r="C40" s="212" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="89" t="s">
+      <c r="D40" s="212"/>
+      <c r="E40" s="212"/>
+      <c r="F40" s="212"/>
+      <c r="G40" s="213" t="s">
         <v>58</v>
       </c>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="82" t="s">
+      <c r="H40" s="213"/>
+      <c r="I40" s="213"/>
+      <c r="J40" s="213"/>
+      <c r="K40" s="214" t="s">
         <v>59</v>
       </c>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82"/>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82" t="s">
+      <c r="L40" s="214"/>
+      <c r="M40" s="214"/>
+      <c r="N40" s="214"/>
+      <c r="O40" s="214" t="s">
         <v>60</v>
       </c>
-      <c r="P40" s="82"/>
-      <c r="Q40" s="82"/>
-      <c r="R40" s="82"/>
-      <c r="S40" s="82" t="s">
+      <c r="P40" s="214"/>
+      <c r="Q40" s="214"/>
+      <c r="R40" s="214"/>
+      <c r="S40" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="T40" s="82"/>
-      <c r="U40" s="82"/>
-      <c r="V40" s="82"/>
-      <c r="W40" s="82" t="s">
+      <c r="T40" s="214"/>
+      <c r="U40" s="214"/>
+      <c r="V40" s="214"/>
+      <c r="W40" s="214" t="s">
         <v>62</v>
       </c>
-      <c r="X40" s="82"/>
-      <c r="Y40" s="82"/>
-      <c r="Z40" s="82"/>
-      <c r="AA40" s="82" t="s">
+      <c r="X40" s="214"/>
+      <c r="Y40" s="214"/>
+      <c r="Z40" s="214"/>
+      <c r="AA40" s="214" t="s">
         <v>63</v>
       </c>
-      <c r="AB40" s="82"/>
-      <c r="AC40" s="82"/>
-      <c r="AD40" s="82"/>
-      <c r="AE40" s="82" t="s">
+      <c r="AB40" s="214"/>
+      <c r="AC40" s="214"/>
+      <c r="AD40" s="214"/>
+      <c r="AE40" s="214" t="s">
         <v>64</v>
       </c>
-      <c r="AF40" s="82"/>
-      <c r="AG40" s="82"/>
-      <c r="AH40" s="82"/>
-      <c r="AI40" s="82" t="s">
+      <c r="AF40" s="214"/>
+      <c r="AG40" s="214"/>
+      <c r="AH40" s="214"/>
+      <c r="AI40" s="214" t="s">
         <v>65</v>
       </c>
-      <c r="AJ40" s="82"/>
-      <c r="AK40" s="82"/>
-      <c r="AL40" s="82"/>
-      <c r="AM40" s="82" t="s">
+      <c r="AJ40" s="214"/>
+      <c r="AK40" s="214"/>
+      <c r="AL40" s="214"/>
+      <c r="AM40" s="214" t="s">
         <v>66</v>
       </c>
-      <c r="AN40" s="82"/>
-      <c r="AO40" s="82"/>
-      <c r="AP40" s="82"/>
-      <c r="AQ40" s="82" t="s">
+      <c r="AN40" s="214"/>
+      <c r="AO40" s="214"/>
+      <c r="AP40" s="214"/>
+      <c r="AQ40" s="214" t="s">
         <v>67</v>
       </c>
-      <c r="AR40" s="82"/>
-      <c r="AS40" s="82"/>
-      <c r="AT40" s="82"/>
-      <c r="AU40" s="82" t="s">
+      <c r="AR40" s="214"/>
+      <c r="AS40" s="214"/>
+      <c r="AT40" s="214"/>
+      <c r="AU40" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="AV40" s="82"/>
-      <c r="AW40" s="82"/>
-      <c r="AX40" s="82"/>
-      <c r="AY40" s="81" t="s">
+      <c r="AV40" s="214"/>
+      <c r="AW40" s="214"/>
+      <c r="AX40" s="214"/>
+      <c r="AY40" s="215" t="s">
         <v>69</v>
       </c>
-      <c r="AZ40" s="81"/>
-      <c r="BA40" s="81"/>
-      <c r="BB40" s="81"/>
+      <c r="AZ40" s="215"/>
+      <c r="BA40" s="215"/>
+      <c r="BB40" s="215"/>
     </row>
-    <row r="41" spans="1:67" ht="32" customHeight="1"/>
+    <row r="41" spans="1:67" ht="32.1" customHeight="1"/>
     <row r="42" spans="1:67">
       <c r="D42" s="63"/>
       <c r="E42" s="63"/>
@@ -5461,121 +5461,47 @@
     </row>
   </sheetData>
   <mergeCells count="180">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D11:P11"/>
-    <mergeCell ref="Q11:AC11"/>
-    <mergeCell ref="AD11:AK11"/>
-    <mergeCell ref="AL11:AP11"/>
-    <mergeCell ref="AQ13:BC13"/>
-    <mergeCell ref="D14:P14"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="V14:AC14"/>
-    <mergeCell ref="AD14:AP14"/>
-    <mergeCell ref="AQ14:BC14"/>
-    <mergeCell ref="AQ11:BC11"/>
-    <mergeCell ref="D12:P12"/>
-    <mergeCell ref="Q12:AC12"/>
-    <mergeCell ref="AD12:AP12"/>
-    <mergeCell ref="AQ12:AW12"/>
-    <mergeCell ref="AX12:BC12"/>
-    <mergeCell ref="W15:AB15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="O16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AK16"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:AC13"/>
-    <mergeCell ref="AD13:AP13"/>
-    <mergeCell ref="AU17:BC17"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:U18"/>
-    <mergeCell ref="V18:AC18"/>
-    <mergeCell ref="AD18:AK18"/>
-    <mergeCell ref="AL18:BC18"/>
-    <mergeCell ref="AL16:AT16"/>
-    <mergeCell ref="AU16:AW16"/>
-    <mergeCell ref="AX16:BC16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="N17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="AH17:AK17"/>
-    <mergeCell ref="AL17:AP17"/>
-    <mergeCell ref="AQ17:AT17"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="M20:Y20"/>
-    <mergeCell ref="AD20:AP20"/>
-    <mergeCell ref="AQ20:BA20"/>
-    <mergeCell ref="BB20:BC20"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:N24"/>
-    <mergeCell ref="O24:T24"/>
-    <mergeCell ref="U24:AA24"/>
-    <mergeCell ref="AB24:AO24"/>
-    <mergeCell ref="AZ24:BC24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="Q25:AA25"/>
-    <mergeCell ref="AB25:AG25"/>
-    <mergeCell ref="AH25:AP25"/>
-    <mergeCell ref="AQ25:AT25"/>
-    <mergeCell ref="AU25:AX25"/>
-    <mergeCell ref="AY25:BC25"/>
-    <mergeCell ref="AL26:AO26"/>
-    <mergeCell ref="AP26:BC26"/>
-    <mergeCell ref="D27:P27"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="U27:AE27"/>
-    <mergeCell ref="AF27:AL27"/>
-    <mergeCell ref="AM27:AS27"/>
-    <mergeCell ref="AT27:AW27"/>
-    <mergeCell ref="AX27:BC27"/>
-    <mergeCell ref="D26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="U26:AA26"/>
-    <mergeCell ref="AB26:AG26"/>
-    <mergeCell ref="AH26:AK26"/>
-    <mergeCell ref="AP30:AS30"/>
-    <mergeCell ref="AT30:AX30"/>
-    <mergeCell ref="AY30:BC30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="M31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AC31"/>
-    <mergeCell ref="AD31:AO31"/>
-    <mergeCell ref="AP31:AS31"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="V30:Y30"/>
-    <mergeCell ref="Z30:AE30"/>
-    <mergeCell ref="AF30:AK30"/>
-    <mergeCell ref="AL30:AO30"/>
-    <mergeCell ref="AT31:AX31"/>
-    <mergeCell ref="AY31:BC31"/>
-    <mergeCell ref="D32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="Q32:AC32"/>
-    <mergeCell ref="AD32:AG32"/>
-    <mergeCell ref="AH32:AL32"/>
-    <mergeCell ref="AM32:AO32"/>
-    <mergeCell ref="AP32:AS32"/>
-    <mergeCell ref="AT32:AW32"/>
-    <mergeCell ref="AX32:BC32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="M33:T33"/>
-    <mergeCell ref="U33:AG33"/>
-    <mergeCell ref="AH33:AK33"/>
-    <mergeCell ref="AL33:AO33"/>
-    <mergeCell ref="AP33:AW33"/>
-    <mergeCell ref="AX33:BA33"/>
-    <mergeCell ref="BB33:BC33"/>
+    <mergeCell ref="AA38:AD38"/>
+    <mergeCell ref="AE38:AH38"/>
+    <mergeCell ref="AI38:AL38"/>
+    <mergeCell ref="AM38:AP38"/>
+    <mergeCell ref="AQ38:AT38"/>
+    <mergeCell ref="AU38:AX38"/>
+    <mergeCell ref="AY40:BB40"/>
+    <mergeCell ref="AA40:AD40"/>
+    <mergeCell ref="AE40:AH40"/>
+    <mergeCell ref="AI40:AL40"/>
+    <mergeCell ref="AM40:AP40"/>
+    <mergeCell ref="AQ40:AT40"/>
+    <mergeCell ref="AU40:AX40"/>
+    <mergeCell ref="AM39:AP39"/>
+    <mergeCell ref="AQ39:AT39"/>
+    <mergeCell ref="AU39:AX39"/>
+    <mergeCell ref="AY39:BB39"/>
+    <mergeCell ref="AU37:AX37"/>
+    <mergeCell ref="AY37:BB37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="W38:Z38"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="O40:R40"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="W40:Z40"/>
+    <mergeCell ref="AY38:BB38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="W39:Z39"/>
+    <mergeCell ref="AA39:AD39"/>
+    <mergeCell ref="AE39:AH39"/>
+    <mergeCell ref="AI39:AL39"/>
     <mergeCell ref="AY36:BB36"/>
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="G37:J37"/>
@@ -5600,47 +5526,121 @@
     <mergeCell ref="W36:Z36"/>
     <mergeCell ref="AM37:AP37"/>
     <mergeCell ref="AQ37:AT37"/>
-    <mergeCell ref="AU37:AX37"/>
-    <mergeCell ref="AY37:BB37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="W38:Z38"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="O40:R40"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="W40:Z40"/>
-    <mergeCell ref="AY38:BB38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="W39:Z39"/>
-    <mergeCell ref="AA39:AD39"/>
-    <mergeCell ref="AE39:AH39"/>
-    <mergeCell ref="AI39:AL39"/>
-    <mergeCell ref="AA38:AD38"/>
-    <mergeCell ref="AE38:AH38"/>
-    <mergeCell ref="AI38:AL38"/>
-    <mergeCell ref="AM38:AP38"/>
-    <mergeCell ref="AQ38:AT38"/>
-    <mergeCell ref="AU38:AX38"/>
-    <mergeCell ref="AY40:BB40"/>
-    <mergeCell ref="AA40:AD40"/>
-    <mergeCell ref="AE40:AH40"/>
-    <mergeCell ref="AI40:AL40"/>
-    <mergeCell ref="AM40:AP40"/>
-    <mergeCell ref="AQ40:AT40"/>
-    <mergeCell ref="AU40:AX40"/>
-    <mergeCell ref="AM39:AP39"/>
-    <mergeCell ref="AQ39:AT39"/>
-    <mergeCell ref="AU39:AX39"/>
-    <mergeCell ref="AY39:BB39"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="M33:T33"/>
+    <mergeCell ref="U33:AG33"/>
+    <mergeCell ref="AH33:AK33"/>
+    <mergeCell ref="AL33:AO33"/>
+    <mergeCell ref="AP33:AW33"/>
+    <mergeCell ref="AX33:BA33"/>
+    <mergeCell ref="BB33:BC33"/>
+    <mergeCell ref="D32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="Q32:AC32"/>
+    <mergeCell ref="AD32:AG32"/>
+    <mergeCell ref="AH32:AL32"/>
+    <mergeCell ref="AM32:AO32"/>
+    <mergeCell ref="AP32:AS32"/>
+    <mergeCell ref="AT32:AW32"/>
+    <mergeCell ref="AX32:BC32"/>
+    <mergeCell ref="AP30:AS30"/>
+    <mergeCell ref="AT30:AX30"/>
+    <mergeCell ref="AY30:BC30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="M31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="Z31:AC31"/>
+    <mergeCell ref="AD31:AO31"/>
+    <mergeCell ref="AP31:AS31"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="V30:Y30"/>
+    <mergeCell ref="Z30:AE30"/>
+    <mergeCell ref="AF30:AK30"/>
+    <mergeCell ref="AL30:AO30"/>
+    <mergeCell ref="AT31:AX31"/>
+    <mergeCell ref="AY31:BC31"/>
+    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="U27:AE27"/>
+    <mergeCell ref="AF27:AL27"/>
+    <mergeCell ref="AM27:AS27"/>
+    <mergeCell ref="AT27:AW27"/>
+    <mergeCell ref="AX27:BC27"/>
+    <mergeCell ref="D26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="U26:AA26"/>
+    <mergeCell ref="AB26:AG26"/>
+    <mergeCell ref="AH26:AK26"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="Q25:AA25"/>
+    <mergeCell ref="AB25:AG25"/>
+    <mergeCell ref="AH25:AP25"/>
+    <mergeCell ref="AQ25:AT25"/>
+    <mergeCell ref="AU25:AX25"/>
+    <mergeCell ref="AY25:BC25"/>
+    <mergeCell ref="AL26:AO26"/>
+    <mergeCell ref="AP26:BC26"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="M20:Y20"/>
+    <mergeCell ref="AD20:AP20"/>
+    <mergeCell ref="AQ20:BA20"/>
+    <mergeCell ref="BB20:BC20"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:N24"/>
+    <mergeCell ref="O24:T24"/>
+    <mergeCell ref="U24:AA24"/>
+    <mergeCell ref="AB24:AO24"/>
+    <mergeCell ref="AZ24:BC24"/>
+    <mergeCell ref="AU17:BC17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:U18"/>
+    <mergeCell ref="V18:AC18"/>
+    <mergeCell ref="AD18:AK18"/>
+    <mergeCell ref="AL18:BC18"/>
+    <mergeCell ref="AL16:AT16"/>
+    <mergeCell ref="AU16:AW16"/>
+    <mergeCell ref="AX16:BC16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="N17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="AH17:AK17"/>
+    <mergeCell ref="AL17:AP17"/>
+    <mergeCell ref="AQ17:AT17"/>
+    <mergeCell ref="W15:AB15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="O16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AK16"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:AC13"/>
+    <mergeCell ref="AD13:AP13"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D11:P11"/>
+    <mergeCell ref="Q11:AC11"/>
+    <mergeCell ref="AD11:AK11"/>
+    <mergeCell ref="AL11:AP11"/>
+    <mergeCell ref="AQ13:BC13"/>
+    <mergeCell ref="D14:P14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="V14:AC14"/>
+    <mergeCell ref="AD14:AP14"/>
+    <mergeCell ref="AQ14:BC14"/>
+    <mergeCell ref="AQ11:BC11"/>
+    <mergeCell ref="D12:P12"/>
+    <mergeCell ref="Q12:AC12"/>
+    <mergeCell ref="AD12:AP12"/>
+    <mergeCell ref="AQ12:AW12"/>
+    <mergeCell ref="AX12:BC12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5652,7 +5652,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
